--- a/2022/2022FSAdates.xlsx
+++ b/2022/2022FSAdates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erwin\Dropbox\Competitions\GitHub\FencingSAResults\2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erwin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C51438-B085-4CC5-A7EA-FB7D72434ADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{862A0995-54D2-44AF-878C-BC7EA04A7FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14430" yWindow="1140" windowWidth="14100" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13875" yWindow="3465" windowWidth="15330" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="49">
   <si>
     <t>Date</t>
   </si>
@@ -168,12 +168,6 @@
     <t>U13T</t>
   </si>
   <si>
-    <t>12:30</t>
-  </si>
-  <si>
-    <t>09:30</t>
-  </si>
-  <si>
     <t>10:30</t>
   </si>
   <si>
@@ -181,6 +175,18 @@
   </si>
   <si>
     <t>SASchools</t>
+  </si>
+  <si>
+    <t>10:15</t>
+  </si>
+  <si>
+    <t>13:45</t>
+  </si>
+  <si>
+    <t>9:45</t>
+  </si>
+  <si>
+    <t>U9</t>
   </si>
 </sst>
 </file>
@@ -653,8 +659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="J113" sqref="J113"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="G98" sqref="G98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -709,7 +715,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>20210228</v>
+        <v>20220227</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>18</v>
@@ -735,16 +741,16 @@
       <c r="I2" s="3"/>
       <c r="K2" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210228OME</v>
+        <v>20220227OME</v>
       </c>
       <c r="L2" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210228OWE</v>
+        <v>20220227OWE</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>20210228</v>
+        <v>20220227</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>18</v>
@@ -756,7 +762,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>31</v>
@@ -770,16 +776,16 @@
       <c r="I3" s="3"/>
       <c r="K3" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210228OS</v>
+        <v>20220227OMS</v>
       </c>
       <c r="L3" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
+        <v>20220227OWS</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>20210228</v>
+        <v>20220227</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>9</v>
@@ -788,7 +794,7 @@
         <v>11</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -805,16 +811,16 @@
       <c r="I4" s="3"/>
       <c r="K4" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>N/A</v>
+        <v>20220227VMF</v>
       </c>
       <c r="L4" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v/>
+        <v>20220227VWF</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>20210228</v>
+        <v>20220227</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>18</v>
@@ -840,16 +846,16 @@
       <c r="I5" s="3"/>
       <c r="K5" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210228OMF</v>
+        <v>20220227OMF</v>
       </c>
       <c r="L5" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210228OWF</v>
+        <v>20220227OWF</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>20210228</v>
+        <v>20220227</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>9</v>
@@ -861,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>32</v>
@@ -875,22 +881,22 @@
       <c r="I6" s="3"/>
       <c r="K6" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210228VE</v>
+        <v>20220227VME</v>
       </c>
       <c r="L6" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
+        <v>20220227VWE</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>20210228</v>
+        <v>20210227</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -899,10 +905,10 @@
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>19</v>
@@ -910,34 +916,34 @@
       <c r="I7" s="3"/>
       <c r="K7" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210228VME</v>
+        <v>20210227VMS</v>
       </c>
       <c r="L7" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210228VWE</v>
+        <v>20210227VWS</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>20210228</v>
+        <v>20220327</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>19</v>
@@ -945,16 +951,16 @@
       <c r="I8" s="3"/>
       <c r="K8" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>N/A</v>
+        <v>20220327U15MF</v>
       </c>
       <c r="L8" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v/>
+        <v>20220327U15WF</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>20210314</v>
+        <v>20220327</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>10</v>
@@ -966,13 +972,13 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>19</v>
@@ -980,19 +986,19 @@
       <c r="I9" s="3"/>
       <c r="K9" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210314U13E</v>
+        <v>20220327U13BE</v>
       </c>
       <c r="L9" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
+        <v>20220327U13GE</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>20210314</v>
+        <v>20220327</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>11</v>
@@ -1001,13 +1007,13 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>19</v>
@@ -1015,19 +1021,19 @@
       <c r="I10" s="3"/>
       <c r="K10" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210314U15F</v>
+        <v>20220327U11BF</v>
       </c>
       <c r="L10" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
+        <v>20220327U11GF</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>20210314</v>
+        <v>20220327</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>11</v>
@@ -1039,10 +1045,10 @@
         <v>1</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>19</v>
@@ -1050,34 +1056,34 @@
       <c r="I11" s="3"/>
       <c r="K11" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210314U15MF</v>
+        <v>20220327U13BF</v>
       </c>
       <c r="L11" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210314U15WF</v>
+        <v>20220327U13GF</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>20210314</v>
+        <v>20220327</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>19</v>
@@ -1085,22 +1091,22 @@
       <c r="I12" s="3"/>
       <c r="K12" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210314U11F</v>
+        <v>20220327U11BE</v>
       </c>
       <c r="L12" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
+        <v>20220327U11GE</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>20210314</v>
+        <v>20220327</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1109,10 +1115,10 @@
         <v>1</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>19</v>
@@ -1120,34 +1126,34 @@
       <c r="I13" s="3"/>
       <c r="K13" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210314U11BF</v>
+        <v>20220327U15ME</v>
       </c>
       <c r="L13" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210314U11GF</v>
+        <v>20220327U15WE</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>20210314</v>
+        <v>20220410</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>19</v>
@@ -1155,34 +1161,34 @@
       <c r="I14" s="3"/>
       <c r="K14" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>N/A</v>
+        <v>20220410U1720MF</v>
       </c>
       <c r="L14" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v/>
+        <v>20220410U1720WF</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>20210314</v>
+        <v>20220410</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>19</v>
@@ -1190,19 +1196,19 @@
       <c r="I15" s="3"/>
       <c r="K15" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210314U13F</v>
+        <v>20220410U15MS</v>
       </c>
       <c r="L15" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
+        <v>20220410U15WS</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>20210314</v>
+        <v>20220410</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>12</v>
@@ -1211,13 +1217,13 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>19</v>
@@ -1225,22 +1231,22 @@
       <c r="I16" s="3"/>
       <c r="K16" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210314U15E</v>
+        <v>20220410OBME</v>
       </c>
       <c r="L16" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
+        <v>20220410OBWE</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>20210314</v>
+        <v>20220410</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1249,10 +1255,10 @@
         <v>1</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>19</v>
@@ -1260,22 +1266,22 @@
       <c r="I17" s="3"/>
       <c r="K17" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210314U15ME</v>
+        <v>20220410U1720MS</v>
       </c>
       <c r="L17" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210314U15WE</v>
+        <v>20220410U1720WS</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>20210321</v>
+        <v>20220410</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1284,10 +1290,10 @@
         <v>1</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>19</v>
@@ -1295,34 +1301,34 @@
       <c r="I18" s="3"/>
       <c r="K18" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210321OME</v>
+        <v>20220410OBMF</v>
       </c>
       <c r="L18" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210321OWE</v>
+        <v>20220410OBWF</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>20210321</v>
+        <v>20220410</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>19</v>
@@ -1330,19 +1336,19 @@
       <c r="I19" s="3"/>
       <c r="K19" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210321OS</v>
+        <v>20220410U1720ME</v>
       </c>
       <c r="L19" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
+        <v>20220410U1720WE</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>20210321</v>
+        <v>20220410</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>13</v>
@@ -1354,10 +1360,10 @@
         <v>1</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>19</v>
@@ -1365,57 +1371,57 @@
       <c r="I20" s="3"/>
       <c r="K20" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210321OMS</v>
+        <v>20220410OBMS</v>
       </c>
       <c r="L20" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210321OWS</v>
+        <v>20220410OBWS</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>20210321</v>
+        <v>20220515</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I21" s="3"/>
       <c r="K21" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>N/A</v>
+        <v>20220515OME</v>
       </c>
       <c r="L21" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v/>
+        <v>20220515OWE</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>20210321</v>
+        <v>20220515</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1424,45 +1430,45 @@
         <v>1</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I22" s="3"/>
       <c r="K22" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210321OMF</v>
+        <v>20220515OMS</v>
       </c>
       <c r="L22" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210321OWF</v>
+        <v>20220515OWS</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>20210321</v>
+        <v>20220515</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>19</v>
@@ -1470,25 +1476,25 @@
       <c r="I23" s="3"/>
       <c r="K23" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210321VE</v>
+        <v>20220515VMF</v>
       </c>
       <c r="L23" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
+        <v>20220515VWF</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>20210321</v>
+        <v>20220515</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -1500,27 +1506,27 @@
         <v>38</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I24" s="3"/>
       <c r="K24" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>N/A</v>
+        <v>20220515OMF</v>
       </c>
       <c r="L24" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v/>
+        <v>20220515OWF</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>20210502</v>
+        <v>20220515</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1529,10 +1535,10 @@
         <v>1</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>19</v>
@@ -1540,22 +1546,22 @@
       <c r="I25" s="3"/>
       <c r="K25" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210502U1720MF</v>
+        <v>20220515VME</v>
       </c>
       <c r="L25" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210502U1720WF</v>
+        <v>20220515VWE</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>20210502</v>
+        <v>20220515</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1564,10 +1570,10 @@
         <v>1</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>19</v>
@@ -1575,22 +1581,22 @@
       <c r="I26" s="3"/>
       <c r="K26" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210502OBME</v>
+        <v>20220515VMS</v>
       </c>
       <c r="L26" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210502OBWE</v>
+        <v>20220515VWS</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>20210502</v>
+        <v>20220529</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1599,10 +1605,10 @@
         <v>1</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>19</v>
@@ -1610,22 +1616,22 @@
       <c r="I27" s="3"/>
       <c r="K27" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210502U1720MS</v>
+        <v>20220529U13TMF</v>
       </c>
       <c r="L27" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210502U1720WS</v>
+        <v>20220529U13TWF</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>20210502</v>
+        <v>20220529</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1634,10 +1640,10 @@
         <v>1</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>19</v>
@@ -1645,22 +1651,22 @@
       <c r="I28" s="3"/>
       <c r="K28" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210502OBMF</v>
+        <v>20220529U13TME</v>
       </c>
       <c r="L28" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210502OBWF</v>
+        <v>20220529U13TWE</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>20210502</v>
+        <v>20220529</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -1669,10 +1675,10 @@
         <v>1</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>19</v>
@@ -1680,22 +1686,22 @@
       <c r="I29" s="3"/>
       <c r="K29" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210502U1720ME</v>
+        <v>20220529U17TMF</v>
       </c>
       <c r="L29" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210502U1720WE</v>
+        <v>20220529U17TWF</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>20210502</v>
+        <v>20220529</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -1704,10 +1710,10 @@
         <v>1</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>19</v>
@@ -1715,34 +1721,34 @@
       <c r="I30" s="3"/>
       <c r="K30" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210502OBMS</v>
+        <v>20220529U17TME</v>
       </c>
       <c r="L30" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210502OBWS</v>
+        <v>20220529U17TWE</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>20210516</v>
+        <v>20220529</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31">
         <v>1</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>19</v>
@@ -1750,22 +1756,22 @@
       <c r="I31" s="3"/>
       <c r="K31" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>N/A</v>
+        <v>20220529OTMF</v>
       </c>
       <c r="L31" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v/>
+        <v>20220529OTWF</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>20210516</v>
+        <v>20220529</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1774,10 +1780,10 @@
         <v>1</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>19</v>
@@ -1785,19 +1791,19 @@
       <c r="I32" s="3"/>
       <c r="K32" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210516U15MF</v>
+        <v>20220529OTME</v>
       </c>
       <c r="L32" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210516U15WF</v>
+        <v>20220529OTWE</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>20210516</v>
+        <v>20220619</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>11</v>
@@ -1806,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>19</v>
@@ -1820,19 +1826,19 @@
       <c r="I33" s="3"/>
       <c r="K33" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210516U11F</v>
+        <v>20220619U15MF</v>
       </c>
       <c r="L33" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
+        <v>20220619U15WF</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>20210516</v>
+        <v>20220619</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>11</v>
@@ -1844,10 +1850,10 @@
         <v>1</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>19</v>
@@ -1855,34 +1861,34 @@
       <c r="I34" s="3"/>
       <c r="K34" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210516U11BF</v>
+        <v>20220619U9BF</v>
       </c>
       <c r="L34" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210516U11GF</v>
+        <v>20220619U9GF</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>20210516</v>
+        <v>20220619</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35">
         <v>1</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>19</v>
@@ -1890,19 +1896,19 @@
       <c r="I35" s="3"/>
       <c r="K35" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>N/A</v>
+        <v>20220619U13BE</v>
       </c>
       <c r="L35" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v/>
+        <v>20220619U13GE</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>20210516</v>
+        <v>20220619</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>11</v>
@@ -1911,13 +1917,13 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>19</v>
@@ -1925,16 +1931,16 @@
       <c r="I36" s="3"/>
       <c r="K36" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210516U13F</v>
+        <v>20220619U11BF</v>
       </c>
       <c r="L36" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
+        <v>20220619U11GF</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>20210516</v>
+        <v>20220619</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>10</v>
@@ -1960,25 +1966,25 @@
       <c r="I37" s="3"/>
       <c r="K37" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210516U13BF</v>
+        <v>20220619U13BF</v>
       </c>
       <c r="L37" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210516U13GF</v>
+        <v>20220619U13GF</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>20210516</v>
+        <v>20220619</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -1995,34 +2001,34 @@
       <c r="I38" s="3"/>
       <c r="K38" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>N/A</v>
+        <v>20220619U11BE</v>
       </c>
       <c r="L38" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v/>
+        <v>20220619U11GE</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>20210523</v>
+        <v>20220619</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>19</v>
@@ -2030,16 +2036,16 @@
       <c r="I39" s="3"/>
       <c r="K39" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210523U1720F</v>
+        <v>20220619U15ME</v>
       </c>
       <c r="L39" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
+        <v>20220619U15WE</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>20210523</v>
+        <v>20220626</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>25</v>
@@ -2057,7 +2063,7 @@
         <v>26</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>19</v>
@@ -2065,34 +2071,34 @@
       <c r="I40" s="3"/>
       <c r="K40" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210523U1720MF</v>
+        <v>20220626U1720MF</v>
       </c>
       <c r="L40" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210523U1720WF</v>
+        <v>20220626U1720WF</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>20210523</v>
+        <v>20220626</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>19</v>
@@ -2100,16 +2106,16 @@
       <c r="I41" s="3"/>
       <c r="K41" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210523OBE</v>
+        <v>20220626U15MS</v>
       </c>
       <c r="L41" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
+        <v>20220626U15WS</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>20210523</v>
+        <v>20220626</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>7</v>
@@ -2135,16 +2141,16 @@
       <c r="I42" s="3"/>
       <c r="K42" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210523OBME</v>
+        <v>20220626OBME</v>
       </c>
       <c r="L42" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210523OBWE</v>
+        <v>20220626OBWE</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>20210523</v>
+        <v>20220626</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>25</v>
@@ -2153,7 +2159,7 @@
         <v>13</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -2170,16 +2176,16 @@
       <c r="I43" s="3"/>
       <c r="K43" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>N/A</v>
+        <v>20220626U1720MS</v>
       </c>
       <c r="L43" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v/>
+        <v>20220626U1720WS</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>20210523</v>
+        <v>20220626</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>7</v>
@@ -2205,16 +2211,16 @@
       <c r="I44" s="3"/>
       <c r="K44" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210523OBMF</v>
+        <v>20220626OBMF</v>
       </c>
       <c r="L44" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210523OBWF</v>
+        <v>20220626OBWF</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>20210523</v>
+        <v>20220626</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>25</v>
@@ -2223,7 +2229,7 @@
         <v>12</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -2240,16 +2246,16 @@
       <c r="I45" s="3"/>
       <c r="K45" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>N/A</v>
+        <v>20220626U1720ME</v>
       </c>
       <c r="L45" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v/>
+        <v>20220626U1720WE</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>20210523</v>
+        <v>20220626</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>7</v>
@@ -2261,13 +2267,13 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>30</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>19</v>
@@ -2275,16 +2281,16 @@
       <c r="I46" s="3"/>
       <c r="K46" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210523OBS</v>
+        <v>20220626OBMS</v>
       </c>
       <c r="L46" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
+        <v>20220626OBWS</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>20210530</v>
+        <v>20220807</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>18</v>
@@ -2305,21 +2311,21 @@
         <v>33</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I47" s="3"/>
       <c r="K47" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210530OME</v>
+        <v>20220807OME</v>
       </c>
       <c r="L47" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210530OWE</v>
+        <v>20220807OWE</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>20210530</v>
+        <v>20220807</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>18</v>
@@ -2331,7 +2337,7 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>31</v>
@@ -2340,27 +2346,27 @@
         <v>37</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I48" s="3"/>
       <c r="K48" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210530OS</v>
+        <v>20220807OMS</v>
       </c>
       <c r="L48" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
+        <v>20220807OWS</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>20210530</v>
+        <v>20220807</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -2375,39 +2381,39 @@
         <v>37</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I49" s="3"/>
       <c r="K49" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210530OMS</v>
+        <v>20220807VMF</v>
       </c>
       <c r="L49" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210530OWS</v>
+        <v>20220807VWF</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>20210530</v>
+        <v>20220807</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50">
         <v>1</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>19</v>
@@ -2415,22 +2421,22 @@
       <c r="I50" s="3"/>
       <c r="K50" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>N/A</v>
+        <v>20220807OMF</v>
       </c>
       <c r="L50" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v/>
+        <v>20220807OWF</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>20210530</v>
+        <v>20220807</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -2445,39 +2451,39 @@
         <v>38</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I51" s="3"/>
       <c r="K51" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210530OMF</v>
+        <v>20220807VME</v>
       </c>
       <c r="L51" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210530OWF</v>
+        <v>20220807VWE</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>20210530</v>
+        <v>20220807</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>19</v>
@@ -2485,34 +2491,34 @@
       <c r="I52" s="3"/>
       <c r="K52" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210530VE</v>
+        <v>20220807VMS</v>
       </c>
       <c r="L52" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
+        <v>20220807VWS</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>20210530</v>
+        <v>20220821</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E53">
         <v>1</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>19</v>
@@ -2520,22 +2526,22 @@
       <c r="I53" s="3"/>
       <c r="K53" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>N/A</v>
+        <v>20220821U15MF</v>
       </c>
       <c r="L53" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v/>
+        <v>20220821U15WF</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>20210627</v>
+        <v>20220821</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -2544,10 +2550,10 @@
         <v>1</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>19</v>
@@ -2555,28 +2561,28 @@
       <c r="I54" s="3"/>
       <c r="K54" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210627U1720MF</v>
+        <v>20220821U13BE</v>
       </c>
       <c r="L54" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210627U1720WF</v>
+        <v>20220821U13GE</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>20210627</v>
+        <v>20220821</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>27</v>
@@ -2590,34 +2596,34 @@
       <c r="I55" s="3"/>
       <c r="K55" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210627OBE</v>
+        <v>20220821U11BF</v>
       </c>
       <c r="L55" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
+        <v>20220821U11GF</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>20210627</v>
+        <v>20220821</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E56">
         <v>1</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>19</v>
@@ -2625,22 +2631,22 @@
       <c r="I56" s="3"/>
       <c r="K56" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>N/A</v>
+        <v>20220821U13BF</v>
       </c>
       <c r="L56" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v/>
+        <v>20220821U13GF</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>20210627</v>
+        <v>20220821</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -2649,10 +2655,10 @@
         <v>1</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>19</v>
@@ -2660,34 +2666,34 @@
       <c r="I57" s="3"/>
       <c r="K57" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210627OBMF</v>
+        <v>20220821U11BE</v>
       </c>
       <c r="L57" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210627OBWF</v>
+        <v>20220821U11GE</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>20210627</v>
+        <v>20220821</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E58">
         <v>1</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>19</v>
@@ -2695,60 +2701,60 @@
       <c r="I58" s="3"/>
       <c r="K58" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>N/A</v>
+        <v>20220821U15ME</v>
       </c>
       <c r="L58" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v/>
+        <v>20220821U15WE</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>20210627</v>
+        <v>20220911</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E59">
         <v>1</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I59" s="3"/>
       <c r="K59" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>N/A</v>
+        <v>20220911U1720MF</v>
       </c>
       <c r="L59" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v/>
+        <v>20220911U1720WF</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>20210801</v>
+        <v>20220911</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -2757,103 +2763,103 @@
         <v>26</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I60" s="1"/>
       <c r="K60" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>N/A</v>
+        <v>20220911U15MS</v>
       </c>
       <c r="L60" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v/>
+        <v>20220911U15WS</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>20210801</v>
+        <v>20220911</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E61">
         <v>1</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I61" s="1"/>
       <c r="K61" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>N/A</v>
+        <v>20220911OBME</v>
       </c>
       <c r="L61" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v/>
+        <v>20220911OBWE</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>20210801</v>
+        <v>20220911</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E62">
         <v>1</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I62" s="1"/>
       <c r="K62" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>N/A</v>
+        <v>20220911U1720MS</v>
       </c>
       <c r="L62" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v/>
+        <v>20220911U1720WS</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>20210801</v>
+        <v>20220911</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -2865,103 +2871,103 @@
         <v>38</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I63" s="1"/>
       <c r="K63" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>N/A</v>
+        <v>20220911OBMF</v>
       </c>
       <c r="L63" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v/>
+        <v>20220911OBWF</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>20210801</v>
+        <v>20220911</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E64">
         <v>1</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I64" s="1"/>
       <c r="K64" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>N/A</v>
+        <v>20220911U1720ME</v>
       </c>
       <c r="L64" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v/>
+        <v>20220911U1720WE</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>20210801</v>
+        <v>20220911</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E65">
         <v>1</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I65" s="1"/>
       <c r="K65" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>N/A</v>
+        <v>20220911OBMS</v>
       </c>
       <c r="L65" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v/>
+        <v>20220911OBWS</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>20210815</v>
+        <v>20220918</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D66">
         <v>0</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>26</v>
@@ -2970,97 +2976,97 @@
         <v>33</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="I66" s="1"/>
       <c r="K66" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210815OE</v>
+        <v>20220918U17MF</v>
       </c>
       <c r="L66" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
+        <v>20220918U17WF</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>20210815</v>
+        <v>20220918</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E67">
         <v>1</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="I67" s="1"/>
       <c r="K67" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>N/A</v>
+        <v>20220918U17ME</v>
       </c>
       <c r="L67" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v/>
+        <v>20220918U17WE</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>20210815</v>
+        <v>20220918</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E68">
         <v>1</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="I68" s="1"/>
       <c r="K68" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>N/A</v>
+        <v>20220918U17TMF</v>
       </c>
       <c r="L68" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v/>
+        <v>20220918U17TWF</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>20210815</v>
+        <v>20220918</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -3075,24 +3081,24 @@
         <v>38</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="I69" s="1"/>
       <c r="K69" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210815OMF</v>
+        <v>20220918U17TME</v>
       </c>
       <c r="L69" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210815OWF</v>
+        <v>20220918U17TWE</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>20210815</v>
+        <v>20221016</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>12</v>
@@ -3104,10 +3110,10 @@
         <v>1</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>19</v>
@@ -3115,34 +3121,34 @@
       <c r="I70" s="1"/>
       <c r="K70" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210815VME</v>
+        <v>20221016OME</v>
       </c>
       <c r="L70" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210815VWE</v>
+        <v>20221016OWE</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>20210815</v>
+        <v>20221016</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E71">
         <v>1</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>19</v>
@@ -3150,19 +3156,19 @@
       <c r="I71" s="1"/>
       <c r="K71" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>N/A</v>
+        <v>20221016OMS</v>
       </c>
       <c r="L71" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v/>
+        <v>20221016OWS</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>20210822</v>
+        <v>20221016</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>11</v>
@@ -3174,30 +3180,30 @@
         <v>1</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="I72" s="1"/>
       <c r="K72" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210822U17MF</v>
+        <v>20221016VMF</v>
       </c>
       <c r="L72" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210822U17WF</v>
+        <v>20221016VWF</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>20210912</v>
+        <v>20221016</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>11</v>
@@ -3209,30 +3215,30 @@
         <v>1</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I73" s="1"/>
       <c r="K73" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210912U1720MF</v>
+        <v>20221016OMF</v>
       </c>
       <c r="L73" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210912U1720WF</v>
+        <v>20221016OWF</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>20210912</v>
+        <v>20221016</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>12</v>
@@ -3244,65 +3250,65 @@
         <v>1</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I74" s="1"/>
       <c r="K74" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210912OBME</v>
+        <v>20221016VME</v>
       </c>
       <c r="L74" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210912OBWE</v>
+        <v>20221016VWE</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>20210912</v>
+        <v>20221016</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E75">
         <v>1</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I75" s="1"/>
       <c r="K75" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>N/A</v>
+        <v>20221016VMS</v>
       </c>
       <c r="L75" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v/>
+        <v>20221016VWS</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>20210912</v>
+        <v>20221023</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>11</v>
@@ -3314,138 +3320,138 @@
         <v>1</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I76" s="1"/>
       <c r="K76" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210912OBMF</v>
+        <v>20221023U1720MF</v>
       </c>
       <c r="L76" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210912OBWF</v>
+        <v>20221023U1720WF</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>20210912</v>
+        <v>20221023</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D77">
         <v>0</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I77" s="1"/>
       <c r="K77" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210912U1720E</v>
+        <v>20221023U15MS</v>
       </c>
       <c r="L77" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
+        <v>20221023U15WS</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>20210912</v>
+        <v>20221023</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D78">
         <v>0</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I78" s="1"/>
       <c r="K78" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210912OBS</v>
+        <v>20221023U13TMF</v>
       </c>
       <c r="L78" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
+        <v>20221023U13TWF</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>20210919</v>
+        <v>20221023</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D79">
         <v>0</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="I79" s="1"/>
       <c r="K79" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210919U17TF</v>
+        <v>20221023OBME</v>
       </c>
       <c r="L79" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
+        <v>20221023OBWE</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>20211017</v>
+        <v>20221023</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -3454,103 +3460,103 @@
         <v>1</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I80" s="1"/>
       <c r="K80" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211017OME</v>
+        <v>20221023U1720MS</v>
       </c>
       <c r="L80" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211017OWE</v>
+        <v>20221023U1720WS</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>20211017</v>
+        <v>20221023</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D81">
         <v>0</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I81" s="1"/>
       <c r="K81" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211017OS</v>
+        <v>20221023OBMF</v>
       </c>
       <c r="L81" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
+        <v>20221023OBWF</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>20211017</v>
+        <v>20221023</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E82">
         <v>1</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I82" s="1"/>
       <c r="K82" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>N/A</v>
+        <v>20221023U1720ME</v>
       </c>
       <c r="L82" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v/>
+        <v>20221023U1720WE</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>20211017</v>
+        <v>20221023</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -3559,33 +3565,33 @@
         <v>1</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I83" s="1"/>
       <c r="K83" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211017OMF</v>
+        <v>20221023OBMS</v>
       </c>
       <c r="L83" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211017OWF</v>
+        <v>20221023OBWS</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>20211017</v>
+        <v>20221106</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -3594,10 +3600,10 @@
         <v>1</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>24</v>
@@ -3605,34 +3611,34 @@
       <c r="I84" s="1"/>
       <c r="K84" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211017VME</v>
+        <v>20221106U15MF</v>
       </c>
       <c r="L84" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211017VWE</v>
+        <v>20221106U15WF</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>20211017</v>
+        <v>20221106</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E85">
         <v>1</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>24</v>
@@ -3640,50 +3646,50 @@
       <c r="I85" s="1"/>
       <c r="K85" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>N/A</v>
+        <v>20221106U9BF</v>
       </c>
       <c r="L85" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v/>
+        <v>20221106U9GF</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>20211024</v>
+        <v>20221106</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D86">
         <v>0</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I86" s="1"/>
       <c r="K86" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211024U1720F</v>
+        <v>20221106U13BE</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>20211024</v>
+        <v>20221106</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>11</v>
@@ -3695,33 +3701,33 @@
         <v>1</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I87" s="1"/>
       <c r="K87" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211024U1720MF</v>
+        <v>20221106U11BF</v>
       </c>
       <c r="L87" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211024U1720WF</v>
+        <v>20221106U11GF</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>20211024</v>
+        <v>20221106</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -3730,68 +3736,68 @@
         <v>1</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I88" s="1"/>
       <c r="K88" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211024OBME</v>
+        <v>20221106U13BF</v>
       </c>
       <c r="L88" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211024OBWE</v>
+        <v>20221106U13GF</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>20211024</v>
+        <v>20221106</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E89">
         <v>1</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I89" s="1"/>
       <c r="K89" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>N/A</v>
+        <v>20221106U11BE</v>
       </c>
       <c r="L89" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v/>
+        <v>20221106U11GE</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>20211024</v>
+        <v>20221106</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -3800,30 +3806,30 @@
         <v>1</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I90" s="1"/>
       <c r="K90" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211024OBMF</v>
+        <v>20221106U15ME</v>
       </c>
       <c r="L90" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211024OBWF</v>
+        <v>20221106U15WE</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>20211024</v>
+        <v>20221113</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>12</v>
@@ -3832,83 +3838,83 @@
         <v>0</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I91" s="1"/>
       <c r="K91" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211024U1720E</v>
+        <v>20221113OME</v>
       </c>
       <c r="L91" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
+        <v>20221113OWE</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>20211024</v>
+        <v>20221113</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E92">
         <v>1</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I92" s="1"/>
       <c r="K92" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>N/A</v>
+        <v>20221113OMS</v>
       </c>
       <c r="L92" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v/>
+        <v>20221113OWS</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>20211107</v>
+        <v>20221113</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D93">
         <v>0</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>24</v>
@@ -3916,19 +3922,19 @@
       <c r="I93" s="1"/>
       <c r="K93" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U13E</v>
+        <v>20221113VMF</v>
       </c>
       <c r="L93" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
+        <v>20221113VWF</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>20211107</v>
+        <v>20221113</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>11</v>
@@ -3940,10 +3946,10 @@
         <v>1</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>24</v>
@@ -3951,34 +3957,34 @@
       <c r="I94" s="1"/>
       <c r="K94" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U15MF</v>
+        <v>20221113OMF</v>
       </c>
       <c r="L94" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211107U15WF</v>
+        <v>20221113OWF</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>20211107</v>
+        <v>20221113</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D95">
         <v>0</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>24</v>
@@ -3986,22 +3992,22 @@
       <c r="I95" s="1"/>
       <c r="K95" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U11F</v>
+        <v>20221113VME</v>
       </c>
       <c r="L95" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
+        <v>20221113VWE</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>20211107</v>
+        <v>20221113</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -4010,10 +4016,10 @@
         <v>1</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>24</v>
@@ -4021,602 +4027,279 @@
       <c r="I96" s="1"/>
       <c r="K96" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U11BF</v>
+        <v>20221113VMS</v>
       </c>
       <c r="L96" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211107U11GF</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>20211107</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D97">
-        <v>0</v>
-      </c>
-      <c r="E97">
-        <v>0</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H97" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>20221113VWS</v>
+      </c>
+    </row>
+    <row r="97" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
       <c r="I97" s="1"/>
       <c r="K97" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U15S</v>
+        <v/>
       </c>
       <c r="L97" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
         <v>N/A</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>20211107</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D98">
-        <v>0</v>
-      </c>
-      <c r="E98">
-        <v>1</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H98" s="1" t="s">
-        <v>24</v>
-      </c>
+    <row r="98" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
       <c r="I98" s="1"/>
       <c r="K98" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U15MS</v>
+        <v/>
       </c>
       <c r="L98" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211107U15WS</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>20211107</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D99">
-        <v>0</v>
-      </c>
-      <c r="E99">
-        <v>0</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H99" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="99" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
       <c r="I99" s="1"/>
       <c r="K99" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U11E</v>
+        <v/>
       </c>
       <c r="L99" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
         <v>N/A</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <v>20211107</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D100">
-        <v>0</v>
-      </c>
-      <c r="E100">
-        <v>1</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G100" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H100" s="1" t="s">
-        <v>24</v>
-      </c>
+    <row r="100" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
       <c r="I100" s="1"/>
       <c r="K100" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U13BF</v>
+        <v/>
       </c>
       <c r="L100" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211107U13GF</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <v>20211107</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D101">
-        <v>0</v>
-      </c>
-      <c r="E101">
-        <v>0</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H101" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="101" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
       <c r="I101" s="1"/>
       <c r="K101" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211107U15E</v>
+        <v/>
       </c>
       <c r="L101" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
         <v>N/A</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <v>20211121</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D102">
-        <v>0</v>
-      </c>
-      <c r="E102">
-        <v>1</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H102" s="1" t="s">
-        <v>19</v>
-      </c>
+    <row r="102" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
       <c r="I102" s="1"/>
       <c r="K102" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121OME</v>
+        <v/>
       </c>
       <c r="L102" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211121OWE</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <v>20211121</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D103">
-        <v>1</v>
-      </c>
-      <c r="E103">
-        <v>1</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H103" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="103" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
       <c r="I103" s="1"/>
       <c r="K103" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
+        <v/>
+      </c>
+      <c r="L103" t="str">
+        <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
         <v>N/A</v>
       </c>
-      <c r="L103" t="str">
-        <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A104">
-        <v>20211121</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D104">
-        <v>1</v>
-      </c>
-      <c r="E104">
-        <v>1</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H104" s="1" t="s">
-        <v>19</v>
-      </c>
+    </row>
+    <row r="104" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
       <c r="I104" s="1"/>
       <c r="K104" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
+        <v/>
+      </c>
+      <c r="L104" t="str">
+        <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
         <v>N/A</v>
       </c>
-      <c r="L104" t="str">
-        <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A105">
-        <v>20211121</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D105">
-        <v>1</v>
-      </c>
-      <c r="E105">
-        <v>1</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G105" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H105" s="1" t="s">
-        <v>19</v>
-      </c>
+    </row>
+    <row r="105" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1"/>
+      <c r="H105" s="1"/>
       <c r="I105" s="1"/>
       <c r="K105" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
+        <v/>
+      </c>
+      <c r="L105" t="str">
+        <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
         <v>N/A</v>
       </c>
-      <c r="L105" t="str">
-        <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A106">
-        <v>20211121</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D106">
-        <v>0</v>
-      </c>
-      <c r="E106">
-        <v>1</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G106" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H106" s="1" t="s">
-        <v>19</v>
-      </c>
+    </row>
+    <row r="106" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
+      <c r="H106" s="1"/>
       <c r="I106" s="1"/>
       <c r="K106" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211121VME</v>
+        <v/>
       </c>
       <c r="L106" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20211121VWE</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A107">
-        <v>20211121</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D107">
-        <v>1</v>
-      </c>
-      <c r="E107">
-        <v>1</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G107" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H107" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="107" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="1"/>
+      <c r="H107" s="1"/>
       <c r="I107" s="1"/>
       <c r="K107" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
+        <v/>
+      </c>
+      <c r="L107" t="str">
+        <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
         <v>N/A</v>
       </c>
-      <c r="L107" t="str">
-        <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A108">
-        <v>20211128</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D108">
-        <v>1</v>
-      </c>
-      <c r="E108">
-        <v>0</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G108" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H108" s="1" t="s">
-        <v>19</v>
-      </c>
+    </row>
+    <row r="108" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+      <c r="H108" s="1"/>
       <c r="I108" s="1"/>
       <c r="K108" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
+        <v/>
+      </c>
+      <c r="L108" t="str">
+        <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
         <v>N/A</v>
       </c>
-      <c r="L108" t="str">
-        <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <v>20211128</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D109">
-        <v>0</v>
-      </c>
-      <c r="E109">
-        <v>0</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G109" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H109" s="1" t="s">
-        <v>19</v>
-      </c>
+    </row>
+    <row r="109" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="F109" s="1"/>
+      <c r="G109" s="1"/>
+      <c r="H109" s="1"/>
       <c r="I109" s="1"/>
       <c r="K109" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211128U13TF</v>
+        <v/>
       </c>
       <c r="L109" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
         <v>N/A</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A110">
-        <v>20211128</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D110">
-        <v>1</v>
-      </c>
-      <c r="E110">
-        <v>0</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G110" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H110" s="1" t="s">
-        <v>19</v>
-      </c>
+    <row r="110" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="F110" s="1"/>
+      <c r="G110" s="1"/>
+      <c r="H110" s="1"/>
       <c r="I110" s="1"/>
       <c r="K110" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
+        <v/>
+      </c>
+      <c r="L110" t="str">
+        <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
         <v>N/A</v>
       </c>
-      <c r="L110" t="str">
-        <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A111">
-        <v>20211128</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D111">
-        <v>0</v>
-      </c>
-      <c r="E111">
-        <v>0</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G111" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H111" s="1" t="s">
-        <v>19</v>
-      </c>
+    </row>
+    <row r="111" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="F111" s="1"/>
+      <c r="G111" s="1"/>
+      <c r="H111" s="1"/>
       <c r="I111" s="1"/>
       <c r="K111" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211128U17TF</v>
+        <v/>
       </c>
       <c r="L111" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
         <v>N/A</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A112">
-        <v>20211128</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D112">
-        <v>0</v>
-      </c>
-      <c r="E112">
-        <v>0</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G112" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H112" s="1" t="s">
-        <v>19</v>
-      </c>
+    <row r="112" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="F112" s="1"/>
+      <c r="G112" s="1"/>
+      <c r="H112" s="1"/>
       <c r="I112" s="1"/>
       <c r="K112" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211128OTE</v>
+        <v/>
       </c>
       <c r="L112" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
         <v>N/A</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A113">
-        <v>20211128</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D113">
-        <v>0</v>
-      </c>
-      <c r="E113">
-        <v>0</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G113" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H113" s="1" t="s">
-        <v>19</v>
-      </c>
+    <row r="113" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="F113" s="1"/>
+      <c r="G113" s="1"/>
+      <c r="H113" s="1"/>
       <c r="I113" s="1"/>
       <c r="K113" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20211128OTF</v>
+        <v/>
       </c>
       <c r="L113" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>

--- a/2022/2022FSAdates.xlsx
+++ b/2022/2022FSAdates.xlsx
@@ -1,27 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erwin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FSA\Dropbox\Competitions\GitHub\FencingSAResults\2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{862A0995-54D2-44AF-878C-BC7EA04A7FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA84728B-FCE1-4EA9-BEAA-5D53912A9F1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13875" yWindow="3465" windowWidth="15330" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -659,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="G98" sqref="G98"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -762,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>31</v>
@@ -776,11 +779,11 @@
       <c r="I3" s="3"/>
       <c r="K3" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220227OMS</v>
+        <v>20220227OS</v>
       </c>
       <c r="L3" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220227OWS</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -794,7 +797,7 @@
         <v>11</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -811,11 +814,11 @@
       <c r="I4" s="3"/>
       <c r="K4" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220227VMF</v>
+        <v>N/A</v>
       </c>
       <c r="L4" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220227VWF</v>
+        <v/>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -899,7 +902,7 @@
         <v>13</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -916,11 +919,11 @@
       <c r="I7" s="3"/>
       <c r="K7" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20210227VMS</v>
+        <v>N/A</v>
       </c>
       <c r="L7" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20210227VWS</v>
+        <v/>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">

--- a/2022/2022FSAdates.xlsx
+++ b/2022/2022FSAdates.xlsx
@@ -1,29 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FSA\Dropbox\Competitions\GitHub\FencingSAResults\2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erwin\Dropbox\Competitions\GitHub\FencingSAResults\2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA84728B-FCE1-4EA9-BEAA-5D53912A9F1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A88F81C0-02B6-4486-AB85-77748FE03318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12045" yWindow="240" windowWidth="15330" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -43,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="49">
   <si>
     <t>Date</t>
   </si>
@@ -311,12 +309,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I113" tableType="xml" totalsRowShown="0" connectionId="2">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I112">
-    <sortCondition ref="A2:A112"/>
-    <sortCondition ref="F2:F112"/>
-    <sortCondition ref="B2:B112"/>
-    <sortCondition ref="C2:C112"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I114" tableType="xml" totalsRowShown="0" connectionId="2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I113">
+    <sortCondition ref="A2:A113"/>
+    <sortCondition ref="F2:F113"/>
+    <sortCondition ref="B2:B113"/>
+    <sortCondition ref="C2:C113"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="Date" name="Date">
@@ -660,10 +658,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L113"/>
+  <dimension ref="A1:L114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -940,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>26</v>
@@ -954,11 +952,11 @@
       <c r="I8" s="3"/>
       <c r="K8" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220327U15MF</v>
+        <v>20220327U15F</v>
       </c>
       <c r="L8" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220327U15WF</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -975,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>42</v>
@@ -989,11 +987,11 @@
       <c r="I9" s="3"/>
       <c r="K9" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220327U13BE</v>
+        <v>20220327U13E</v>
       </c>
       <c r="L9" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220327U13GE</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1010,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>27</v>
@@ -1021,14 +1019,14 @@
       <c r="H10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="3"/>
+      <c r="I10" s="1"/>
       <c r="K10" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220327U11BF</v>
+        <v>20220327U11F</v>
       </c>
       <c r="L10" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220327U11GF</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1036,7 +1034,7 @@
         <v>20220327</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>11</v>
@@ -1048,10 +1046,10 @@
         <v>1</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>19</v>
@@ -1059,11 +1057,11 @@
       <c r="I11" s="3"/>
       <c r="K11" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220327U13BF</v>
+        <v>20220327U11BF</v>
       </c>
       <c r="L11" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220327U13GF</v>
+        <v>20220327U11GF</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -1071,10 +1069,10 @@
         <v>20220327</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1083,10 +1081,10 @@
         <v>1</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>19</v>
@@ -1094,11 +1092,11 @@
       <c r="I12" s="3"/>
       <c r="K12" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220327U11BE</v>
+        <v>20220327U13BF</v>
       </c>
       <c r="L12" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220327U11GE</v>
+        <v>20220327U13GF</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -1106,22 +1104,22 @@
         <v>20220327</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>19</v>
@@ -1129,34 +1127,34 @@
       <c r="I13" s="3"/>
       <c r="K13" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220327U15ME</v>
+        <v>N/A</v>
       </c>
       <c r="L13" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220327U15WE</v>
+        <v/>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>20220410</v>
+        <v>20220327</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>19</v>
@@ -1164,11 +1162,11 @@
       <c r="I14" s="3"/>
       <c r="K14" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220410U1720MF</v>
+        <v>20220327U15E</v>
       </c>
       <c r="L14" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220410U1720WF</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1176,10 +1174,10 @@
         <v>20220410</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1199,11 +1197,11 @@
       <c r="I15" s="3"/>
       <c r="K15" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220410U15MS</v>
+        <v>20220410U1720MF</v>
       </c>
       <c r="L15" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220410U15WS</v>
+        <v>20220410U1720WF</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1211,10 +1209,10 @@
         <v>20220410</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1223,10 +1221,10 @@
         <v>1</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>19</v>
@@ -1234,11 +1232,11 @@
       <c r="I16" s="3"/>
       <c r="K16" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220410OBME</v>
+        <v>20220410U15MS</v>
       </c>
       <c r="L16" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220410OBWE</v>
+        <v>20220410U15WS</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1246,10 +1244,10 @@
         <v>20220410</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1258,10 +1256,10 @@
         <v>1</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>19</v>
@@ -1269,11 +1267,11 @@
       <c r="I17" s="3"/>
       <c r="K17" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220410U1720MS</v>
+        <v>20220410OBME</v>
       </c>
       <c r="L17" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220410U1720WS</v>
+        <v>20220410OBWE</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1281,10 +1279,10 @@
         <v>20220410</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1293,10 +1291,10 @@
         <v>1</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>19</v>
@@ -1304,11 +1302,11 @@
       <c r="I18" s="3"/>
       <c r="K18" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220410OBMF</v>
+        <v>20220410U1720MS</v>
       </c>
       <c r="L18" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220410OBWF</v>
+        <v>20220410U1720WS</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1316,10 +1314,10 @@
         <v>20220410</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1328,10 +1326,10 @@
         <v>1</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>19</v>
@@ -1339,11 +1337,11 @@
       <c r="I19" s="3"/>
       <c r="K19" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220410U1720ME</v>
+        <v>20220410OBMF</v>
       </c>
       <c r="L19" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220410U1720WE</v>
+        <v>20220410OBWF</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1351,10 +1349,10 @@
         <v>20220410</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1363,10 +1361,10 @@
         <v>1</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>19</v>
@@ -1374,22 +1372,22 @@
       <c r="I20" s="3"/>
       <c r="K20" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220410OBMS</v>
+        <v>20220410U1720ME</v>
       </c>
       <c r="L20" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220410OBWS</v>
+        <v>20220410U1720WE</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>20220515</v>
+        <v>20220410</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1398,22 +1396,22 @@
         <v>1</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I21" s="3"/>
       <c r="K21" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220515OME</v>
+        <v>20220410OBMS</v>
       </c>
       <c r="L21" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220515OWE</v>
+        <v>20220410OBWS</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -1424,7 +1422,7 @@
         <v>18</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1433,22 +1431,22 @@
         <v>1</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I22" s="3"/>
       <c r="K22" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220515OMS</v>
+        <v>20220515OME</v>
       </c>
       <c r="L22" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220515OWS</v>
+        <v>20220515OWE</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -1456,10 +1454,10 @@
         <v>20220515</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1474,16 +1472,16 @@
         <v>37</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I23" s="3"/>
       <c r="K23" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220515VMF</v>
+        <v>20220515OMS</v>
       </c>
       <c r="L23" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220515VWF</v>
+        <v>20220515OWS</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -1491,7 +1489,7 @@
         <v>20220515</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>11</v>
@@ -1503,22 +1501,22 @@
         <v>1</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I24" s="3"/>
       <c r="K24" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220515OMF</v>
+        <v>20220515VMF</v>
       </c>
       <c r="L24" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220515OWF</v>
+        <v>20220515VWF</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -1526,10 +1524,10 @@
         <v>20220515</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1544,16 +1542,16 @@
         <v>38</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I25" s="3"/>
       <c r="K25" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220515VME</v>
+        <v>20220515OMF</v>
       </c>
       <c r="L25" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220515VWE</v>
+        <v>20220515OWF</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -1564,7 +1562,7 @@
         <v>9</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1573,10 +1571,10 @@
         <v>1</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>19</v>
@@ -1584,22 +1582,22 @@
       <c r="I26" s="3"/>
       <c r="K26" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220515VMS</v>
+        <v>20220515VME</v>
       </c>
       <c r="L26" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220515VWS</v>
+        <v>20220515VWE</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>20220529</v>
+        <v>20220515</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1608,10 +1606,10 @@
         <v>1</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>19</v>
@@ -1619,11 +1617,11 @@
       <c r="I27" s="3"/>
       <c r="K27" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220529U13TMF</v>
+        <v>20220515VMS</v>
       </c>
       <c r="L27" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220529U13TWF</v>
+        <v>20220515VWS</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -1634,7 +1632,7 @@
         <v>41</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1654,11 +1652,11 @@
       <c r="I28" s="3"/>
       <c r="K28" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220529U13TME</v>
+        <v>20220529U13TMF</v>
       </c>
       <c r="L28" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220529U13TWE</v>
+        <v>20220529U13TWF</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -1666,10 +1664,10 @@
         <v>20220529</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -1678,10 +1676,10 @@
         <v>1</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>19</v>
@@ -1689,11 +1687,11 @@
       <c r="I29" s="3"/>
       <c r="K29" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220529U17TMF</v>
+        <v>20220529U13TME</v>
       </c>
       <c r="L29" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220529U17TWF</v>
+        <v>20220529U13TWE</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -1704,7 +1702,7 @@
         <v>40</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -1724,11 +1722,11 @@
       <c r="I30" s="3"/>
       <c r="K30" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220529U17TME</v>
+        <v>20220529U17TMF</v>
       </c>
       <c r="L30" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220529U17TWE</v>
+        <v>20220529U17TWF</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -1736,10 +1734,10 @@
         <v>20220529</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1748,10 +1746,10 @@
         <v>1</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>19</v>
@@ -1759,11 +1757,11 @@
       <c r="I31" s="3"/>
       <c r="K31" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220529OTMF</v>
+        <v>20220529U17TME</v>
       </c>
       <c r="L31" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220529OTWF</v>
+        <v>20220529U17TWE</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -1774,7 +1772,7 @@
         <v>39</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1794,22 +1792,22 @@
       <c r="I32" s="3"/>
       <c r="K32" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220529OTME</v>
+        <v>20220529OTMF</v>
       </c>
       <c r="L32" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220529OTWE</v>
+        <v>20220529OTWF</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>20220619</v>
+        <v>20220529</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -1818,10 +1816,10 @@
         <v>1</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>19</v>
@@ -1829,11 +1827,11 @@
       <c r="I33" s="3"/>
       <c r="K33" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220619U15MF</v>
+        <v>20220529OTME</v>
       </c>
       <c r="L33" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220619U15WF</v>
+        <v>20220529OTWE</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -1841,7 +1839,7 @@
         <v>20220619</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>11</v>
@@ -1864,11 +1862,11 @@
       <c r="I34" s="3"/>
       <c r="K34" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220619U9BF</v>
+        <v>20220619U15MF</v>
       </c>
       <c r="L34" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220619U9GF</v>
+        <v>20220619U15WF</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -1876,10 +1874,10 @@
         <v>20220619</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1888,10 +1886,10 @@
         <v>1</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>19</v>
@@ -1899,11 +1897,11 @@
       <c r="I35" s="3"/>
       <c r="K35" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220619U13BE</v>
+        <v>20220619U9BF</v>
       </c>
       <c r="L35" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220619U13GE</v>
+        <v>20220619U9GF</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -1911,10 +1909,10 @@
         <v>20220619</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -1923,10 +1921,10 @@
         <v>1</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>19</v>
@@ -1934,11 +1932,11 @@
       <c r="I36" s="3"/>
       <c r="K36" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220619U11BF</v>
+        <v>20220619U13BE</v>
       </c>
       <c r="L36" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220619U11GF</v>
+        <v>20220619U13GE</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -1946,7 +1944,7 @@
         <v>20220619</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>11</v>
@@ -1958,10 +1956,10 @@
         <v>1</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>19</v>
@@ -1969,11 +1967,11 @@
       <c r="I37" s="3"/>
       <c r="K37" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220619U13BF</v>
+        <v>20220619U11BF</v>
       </c>
       <c r="L37" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220619U13GF</v>
+        <v>20220619U11GF</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -1981,10 +1979,10 @@
         <v>20220619</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -1993,10 +1991,10 @@
         <v>1</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>19</v>
@@ -2004,11 +2002,11 @@
       <c r="I38" s="3"/>
       <c r="K38" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220619U11BE</v>
+        <v>20220619U13BF</v>
       </c>
       <c r="L38" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220619U11GE</v>
+        <v>20220619U13GF</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -2016,7 +2014,7 @@
         <v>20220619</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>12</v>
@@ -2028,10 +2026,10 @@
         <v>1</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>19</v>
@@ -2039,22 +2037,22 @@
       <c r="I39" s="3"/>
       <c r="K39" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220619U15ME</v>
+        <v>20220619U11BE</v>
       </c>
       <c r="L39" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220619U15WE</v>
+        <v>20220619U11GE</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>20220626</v>
+        <v>20220619</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -2063,10 +2061,10 @@
         <v>1</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>19</v>
@@ -2074,11 +2072,11 @@
       <c r="I40" s="3"/>
       <c r="K40" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220626U1720MF</v>
+        <v>20220619U15ME</v>
       </c>
       <c r="L40" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220626U1720WF</v>
+        <v>20220619U15WE</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -2086,10 +2084,10 @@
         <v>20220626</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -2109,11 +2107,11 @@
       <c r="I41" s="3"/>
       <c r="K41" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220626U15MS</v>
+        <v>20220626U1720MF</v>
       </c>
       <c r="L41" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220626U15WS</v>
+        <v>20220626U1720WF</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -2121,10 +2119,10 @@
         <v>20220626</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -2133,10 +2131,10 @@
         <v>1</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>19</v>
@@ -2144,11 +2142,11 @@
       <c r="I42" s="3"/>
       <c r="K42" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220626OBME</v>
+        <v>20220626U15MS</v>
       </c>
       <c r="L42" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220626OBWE</v>
+        <v>20220626U15WS</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -2156,10 +2154,10 @@
         <v>20220626</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -2168,10 +2166,10 @@
         <v>1</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>19</v>
@@ -2179,11 +2177,11 @@
       <c r="I43" s="3"/>
       <c r="K43" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220626U1720MS</v>
+        <v>20220626OBME</v>
       </c>
       <c r="L43" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220626U1720WS</v>
+        <v>20220626OBWE</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -2191,10 +2189,10 @@
         <v>20220626</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -2203,10 +2201,10 @@
         <v>1</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>19</v>
@@ -2214,11 +2212,11 @@
       <c r="I44" s="3"/>
       <c r="K44" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220626OBMF</v>
+        <v>20220626U1720MS</v>
       </c>
       <c r="L44" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220626OBWF</v>
+        <v>20220626U1720WS</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -2226,10 +2224,10 @@
         <v>20220626</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -2238,10 +2236,10 @@
         <v>1</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>19</v>
@@ -2249,11 +2247,11 @@
       <c r="I45" s="3"/>
       <c r="K45" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220626U1720ME</v>
+        <v>20220626OBMF</v>
       </c>
       <c r="L45" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220626U1720WE</v>
+        <v>20220626OBWF</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -2261,10 +2259,10 @@
         <v>20220626</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -2273,10 +2271,10 @@
         <v>1</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>19</v>
@@ -2284,22 +2282,22 @@
       <c r="I46" s="3"/>
       <c r="K46" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220626OBMS</v>
+        <v>20220626U1720ME</v>
       </c>
       <c r="L46" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220626OBWS</v>
+        <v>20220626U1720WE</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>20220807</v>
+        <v>20220626</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -2308,10 +2306,10 @@
         <v>1</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>19</v>
@@ -2319,11 +2317,11 @@
       <c r="I47" s="3"/>
       <c r="K47" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220807OME</v>
+        <v>20220626OBMS</v>
       </c>
       <c r="L47" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220807OWE</v>
+        <v>20220626OBWS</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -2334,7 +2332,7 @@
         <v>18</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -2343,10 +2341,10 @@
         <v>1</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>19</v>
@@ -2354,11 +2352,11 @@
       <c r="I48" s="3"/>
       <c r="K48" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220807OMS</v>
+        <v>20220807OME</v>
       </c>
       <c r="L48" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220807OWS</v>
+        <v>20220807OWE</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -2366,10 +2364,10 @@
         <v>20220807</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -2389,11 +2387,11 @@
       <c r="I49" s="3"/>
       <c r="K49" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220807VMF</v>
+        <v>20220807OMS</v>
       </c>
       <c r="L49" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220807VWF</v>
+        <v>20220807OWS</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -2401,7 +2399,7 @@
         <v>20220807</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>11</v>
@@ -2413,10 +2411,10 @@
         <v>1</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>19</v>
@@ -2424,11 +2422,11 @@
       <c r="I50" s="3"/>
       <c r="K50" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220807OMF</v>
+        <v>20220807VMF</v>
       </c>
       <c r="L50" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220807OWF</v>
+        <v>20220807VWF</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -2436,10 +2434,10 @@
         <v>20220807</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -2459,11 +2457,11 @@
       <c r="I51" s="3"/>
       <c r="K51" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220807VME</v>
+        <v>20220807OMF</v>
       </c>
       <c r="L51" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220807VWE</v>
+        <v>20220807OWF</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -2474,7 +2472,7 @@
         <v>9</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -2483,10 +2481,10 @@
         <v>1</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>19</v>
@@ -2494,22 +2492,22 @@
       <c r="I52" s="3"/>
       <c r="K52" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220807VMS</v>
+        <v>20220807VME</v>
       </c>
       <c r="L52" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220807VWS</v>
+        <v>20220807VWE</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>20220821</v>
+        <v>20220807</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -2518,10 +2516,10 @@
         <v>1</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>19</v>
@@ -2529,11 +2527,11 @@
       <c r="I53" s="3"/>
       <c r="K53" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220821U15MF</v>
+        <v>20220807VMS</v>
       </c>
       <c r="L53" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220821U15WF</v>
+        <v>20220807VWS</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
@@ -2541,10 +2539,10 @@
         <v>20220821</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -2553,10 +2551,10 @@
         <v>1</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>19</v>
@@ -2564,11 +2562,11 @@
       <c r="I54" s="3"/>
       <c r="K54" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220821U13BE</v>
+        <v>20220821U15MF</v>
       </c>
       <c r="L54" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220821U13GE</v>
+        <v>20220821U15WF</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
@@ -2576,10 +2574,10 @@
         <v>20220821</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -2588,10 +2586,10 @@
         <v>1</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>19</v>
@@ -2599,11 +2597,11 @@
       <c r="I55" s="3"/>
       <c r="K55" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220821U11BF</v>
+        <v>20220821U13BE</v>
       </c>
       <c r="L55" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220821U11GF</v>
+        <v>20220821U13GE</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -2611,7 +2609,7 @@
         <v>20220821</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>11</v>
@@ -2623,10 +2621,10 @@
         <v>1</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>19</v>
@@ -2634,11 +2632,11 @@
       <c r="I56" s="3"/>
       <c r="K56" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220821U13BF</v>
+        <v>20220821U11BF</v>
       </c>
       <c r="L56" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220821U13GF</v>
+        <v>20220821U11GF</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
@@ -2646,10 +2644,10 @@
         <v>20220821</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -2658,10 +2656,10 @@
         <v>1</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>19</v>
@@ -2669,11 +2667,11 @@
       <c r="I57" s="3"/>
       <c r="K57" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220821U11BE</v>
+        <v>20220821U13BF</v>
       </c>
       <c r="L57" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220821U11GE</v>
+        <v>20220821U13GF</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
@@ -2681,7 +2679,7 @@
         <v>20220821</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>12</v>
@@ -2693,10 +2691,10 @@
         <v>1</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>19</v>
@@ -2704,22 +2702,22 @@
       <c r="I58" s="3"/>
       <c r="K58" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220821U15ME</v>
+        <v>20220821U11BE</v>
       </c>
       <c r="L58" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220821U15WE</v>
+        <v>20220821U11GE</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>20220911</v>
+        <v>20220821</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -2728,22 +2726,22 @@
         <v>1</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I59" s="3"/>
       <c r="K59" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220911U1720MF</v>
+        <v>20220821U15ME</v>
       </c>
       <c r="L59" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220911U1720WF</v>
+        <v>20220821U15WE</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -2751,10 +2749,10 @@
         <v>20220911</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -2771,14 +2769,14 @@
       <c r="H60" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I60" s="1"/>
+      <c r="I60" s="3"/>
       <c r="K60" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220911U15MS</v>
+        <v>20220911U1720MF</v>
       </c>
       <c r="L60" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220911U15WS</v>
+        <v>20220911U1720WF</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -2786,10 +2784,10 @@
         <v>20220911</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -2798,10 +2796,10 @@
         <v>1</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>24</v>
@@ -2809,11 +2807,11 @@
       <c r="I61" s="1"/>
       <c r="K61" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220911OBME</v>
+        <v>20220911U15MS</v>
       </c>
       <c r="L61" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220911OBWE</v>
+        <v>20220911U15WS</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -2821,10 +2819,10 @@
         <v>20220911</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -2833,10 +2831,10 @@
         <v>1</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>24</v>
@@ -2844,11 +2842,11 @@
       <c r="I62" s="1"/>
       <c r="K62" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220911U1720MS</v>
+        <v>20220911OBME</v>
       </c>
       <c r="L62" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220911U1720WS</v>
+        <v>20220911OBWE</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -2856,10 +2854,10 @@
         <v>20220911</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -2868,10 +2866,10 @@
         <v>1</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>24</v>
@@ -2879,11 +2877,11 @@
       <c r="I63" s="1"/>
       <c r="K63" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220911OBMF</v>
+        <v>20220911U1720MS</v>
       </c>
       <c r="L63" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220911OBWF</v>
+        <v>20220911U1720WS</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
@@ -2891,10 +2889,10 @@
         <v>20220911</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -2903,10 +2901,10 @@
         <v>1</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>24</v>
@@ -2914,11 +2912,11 @@
       <c r="I64" s="1"/>
       <c r="K64" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220911U1720ME</v>
+        <v>20220911OBMF</v>
       </c>
       <c r="L64" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220911U1720WE</v>
+        <v>20220911OBWF</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -2926,10 +2924,10 @@
         <v>20220911</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -2938,10 +2936,10 @@
         <v>1</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>24</v>
@@ -2949,22 +2947,22 @@
       <c r="I65" s="1"/>
       <c r="K65" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220911OBMS</v>
+        <v>20220911U1720ME</v>
       </c>
       <c r="L65" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220911OBWS</v>
+        <v>20220911U1720WE</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>20220918</v>
+        <v>20220911</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -2973,22 +2971,22 @@
         <v>1</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="I66" s="1"/>
       <c r="K66" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220918U17MF</v>
+        <v>20220911OBMS</v>
       </c>
       <c r="L66" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220918U17WF</v>
+        <v>20220911OBWS</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -2999,7 +2997,7 @@
         <v>43</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -3019,11 +3017,11 @@
       <c r="I67" s="1"/>
       <c r="K67" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220918U17ME</v>
+        <v>20220918U17MF</v>
       </c>
       <c r="L67" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220918U17WE</v>
+        <v>20220918U17WF</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -3031,10 +3029,10 @@
         <v>20220918</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -3043,10 +3041,10 @@
         <v>1</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>44</v>
@@ -3054,11 +3052,11 @@
       <c r="I68" s="1"/>
       <c r="K68" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220918U17TMF</v>
+        <v>20220918U17ME</v>
       </c>
       <c r="L68" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220918U17TWF</v>
+        <v>20220918U17WE</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
@@ -3069,7 +3067,7 @@
         <v>40</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -3089,19 +3087,19 @@
       <c r="I69" s="1"/>
       <c r="K69" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220918U17TME</v>
+        <v>20220918U17TMF</v>
       </c>
       <c r="L69" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220918U17TWE</v>
+        <v>20220918U17TWF</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>20221016</v>
+        <v>20220918</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>12</v>
@@ -3113,22 +3111,22 @@
         <v>1</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="I70" s="1"/>
       <c r="K70" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221016OME</v>
+        <v>20220918U17TME</v>
       </c>
       <c r="L70" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221016OWE</v>
+        <v>20220918U17TWE</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
@@ -3139,7 +3137,7 @@
         <v>18</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -3148,10 +3146,10 @@
         <v>1</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>19</v>
@@ -3159,11 +3157,11 @@
       <c r="I71" s="1"/>
       <c r="K71" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221016OMS</v>
+        <v>20221016OME</v>
       </c>
       <c r="L71" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221016OWS</v>
+        <v>20221016OWE</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
@@ -3171,10 +3169,10 @@
         <v>20221016</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -3194,11 +3192,11 @@
       <c r="I72" s="1"/>
       <c r="K72" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221016VMF</v>
+        <v>20221016OMS</v>
       </c>
       <c r="L72" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221016VWF</v>
+        <v>20221016OWS</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -3206,7 +3204,7 @@
         <v>20221016</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>11</v>
@@ -3218,10 +3216,10 @@
         <v>1</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>19</v>
@@ -3229,11 +3227,11 @@
       <c r="I73" s="1"/>
       <c r="K73" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221016OMF</v>
+        <v>20221016VMF</v>
       </c>
       <c r="L73" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221016OWF</v>
+        <v>20221016VWF</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
@@ -3241,10 +3239,10 @@
         <v>20221016</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -3264,11 +3262,11 @@
       <c r="I74" s="1"/>
       <c r="K74" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221016VME</v>
+        <v>20221016OMF</v>
       </c>
       <c r="L74" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221016VWE</v>
+        <v>20221016OWF</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
@@ -3279,7 +3277,7 @@
         <v>9</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -3288,10 +3286,10 @@
         <v>1</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>19</v>
@@ -3299,22 +3297,22 @@
       <c r="I75" s="1"/>
       <c r="K75" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221016VMS</v>
+        <v>20221016VME</v>
       </c>
       <c r="L75" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221016VWS</v>
+        <v>20221016VWE</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>20221023</v>
+        <v>20221016</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -3323,10 +3321,10 @@
         <v>1</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>19</v>
@@ -3334,11 +3332,11 @@
       <c r="I76" s="1"/>
       <c r="K76" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221023U1720MF</v>
+        <v>20221016VMS</v>
       </c>
       <c r="L76" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221023U1720WF</v>
+        <v>20221016VWS</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
@@ -3346,10 +3344,10 @@
         <v>20221023</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -3369,11 +3367,11 @@
       <c r="I77" s="1"/>
       <c r="K77" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221023U15MS</v>
+        <v>20221023U1720MF</v>
       </c>
       <c r="L77" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221023U15WS</v>
+        <v>20221023U1720WF</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
@@ -3381,10 +3379,10 @@
         <v>20221023</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -3393,10 +3391,10 @@
         <v>1</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>19</v>
@@ -3404,11 +3402,11 @@
       <c r="I78" s="1"/>
       <c r="K78" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221023U13TMF</v>
+        <v>20221023U15MS</v>
       </c>
       <c r="L78" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221023U13TWF</v>
+        <v>20221023U15WS</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
@@ -3416,10 +3414,10 @@
         <v>20221023</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -3428,10 +3426,10 @@
         <v>1</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>19</v>
@@ -3439,11 +3437,11 @@
       <c r="I79" s="1"/>
       <c r="K79" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221023OBME</v>
+        <v>20221023U13TMF</v>
       </c>
       <c r="L79" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221023OBWE</v>
+        <v>20221023U13TWF</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
@@ -3451,10 +3449,10 @@
         <v>20221023</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -3463,10 +3461,10 @@
         <v>1</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>19</v>
@@ -3474,11 +3472,11 @@
       <c r="I80" s="1"/>
       <c r="K80" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221023U1720MS</v>
+        <v>20221023OBME</v>
       </c>
       <c r="L80" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221023U1720WS</v>
+        <v>20221023OBWE</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
@@ -3486,10 +3484,10 @@
         <v>20221023</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -3498,10 +3496,10 @@
         <v>1</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>19</v>
@@ -3509,11 +3507,11 @@
       <c r="I81" s="1"/>
       <c r="K81" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221023OBMF</v>
+        <v>20221023U1720MS</v>
       </c>
       <c r="L81" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221023OBWF</v>
+        <v>20221023U1720WS</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
@@ -3521,10 +3519,10 @@
         <v>20221023</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -3533,10 +3531,10 @@
         <v>1</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>19</v>
@@ -3544,11 +3542,11 @@
       <c r="I82" s="1"/>
       <c r="K82" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221023U1720ME</v>
+        <v>20221023OBMF</v>
       </c>
       <c r="L82" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221023U1720WE</v>
+        <v>20221023OBWF</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
@@ -3556,10 +3554,10 @@
         <v>20221023</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -3568,10 +3566,10 @@
         <v>1</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>19</v>
@@ -3579,22 +3577,22 @@
       <c r="I83" s="1"/>
       <c r="K83" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221023OBMS</v>
+        <v>20221023U1720ME</v>
       </c>
       <c r="L83" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221023OBWS</v>
+        <v>20221023U1720WE</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>20221106</v>
+        <v>20221023</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -3603,22 +3601,22 @@
         <v>1</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I84" s="1"/>
       <c r="K84" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221106U15MF</v>
+        <v>20221023OBMS</v>
       </c>
       <c r="L84" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221106U15WF</v>
+        <v>20221023OBWS</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
@@ -3626,7 +3624,7 @@
         <v>20221106</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>11</v>
@@ -3649,11 +3647,11 @@
       <c r="I85" s="1"/>
       <c r="K85" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221106U9BF</v>
+        <v>20221106U15MF</v>
       </c>
       <c r="L85" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221106U9GF</v>
+        <v>20221106U15WF</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
@@ -3661,10 +3659,10 @@
         <v>20221106</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -3673,10 +3671,10 @@
         <v>1</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>24</v>
@@ -3684,7 +3682,7 @@
       <c r="I86" s="1"/>
       <c r="K86" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221106U13BE</v>
+        <v>20221106U9BF</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
@@ -3692,10 +3690,10 @@
         <v>20221106</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -3704,10 +3702,10 @@
         <v>1</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>24</v>
@@ -3715,11 +3713,11 @@
       <c r="I87" s="1"/>
       <c r="K87" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221106U11BF</v>
+        <v>20221106U13BE</v>
       </c>
       <c r="L87" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221106U11GF</v>
+        <v>20221106U13GE</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
@@ -3727,7 +3725,7 @@
         <v>20221106</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>11</v>
@@ -3739,10 +3737,10 @@
         <v>1</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>24</v>
@@ -3750,11 +3748,11 @@
       <c r="I88" s="1"/>
       <c r="K88" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221106U13BF</v>
+        <v>20221106U11BF</v>
       </c>
       <c r="L88" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221106U13GF</v>
+        <v>20221106U11GF</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
@@ -3762,10 +3760,10 @@
         <v>20221106</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -3774,10 +3772,10 @@
         <v>1</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>24</v>
@@ -3785,11 +3783,11 @@
       <c r="I89" s="1"/>
       <c r="K89" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221106U11BE</v>
+        <v>20221106U13BF</v>
       </c>
       <c r="L89" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221106U11GE</v>
+        <v>20221106U13GF</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
@@ -3797,7 +3795,7 @@
         <v>20221106</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>12</v>
@@ -3809,10 +3807,10 @@
         <v>1</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>24</v>
@@ -3820,19 +3818,19 @@
       <c r="I90" s="1"/>
       <c r="K90" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221106U15ME</v>
+        <v>20221106U11BE</v>
       </c>
       <c r="L90" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221106U15WE</v>
+        <v>20221106U11GE</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>20221113</v>
+        <v>20221106</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>12</v>
@@ -3844,10 +3842,10 @@
         <v>1</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>24</v>
@@ -3855,11 +3853,11 @@
       <c r="I91" s="1"/>
       <c r="K91" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221113OME</v>
+        <v>20221106U15ME</v>
       </c>
       <c r="L91" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221113OWE</v>
+        <v>20221106U15WE</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
@@ -3870,7 +3868,7 @@
         <v>18</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -3879,10 +3877,10 @@
         <v>1</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>24</v>
@@ -3890,11 +3888,11 @@
       <c r="I92" s="1"/>
       <c r="K92" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221113OMS</v>
+        <v>20221113OME</v>
       </c>
       <c r="L92" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221113OWS</v>
+        <v>20221113OWE</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
@@ -3902,10 +3900,10 @@
         <v>20221113</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -3925,11 +3923,11 @@
       <c r="I93" s="1"/>
       <c r="K93" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221113VMF</v>
+        <v>20221113OMS</v>
       </c>
       <c r="L93" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221113VWF</v>
+        <v>20221113OWS</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
@@ -3937,7 +3935,7 @@
         <v>20221113</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>11</v>
@@ -3949,10 +3947,10 @@
         <v>1</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>24</v>
@@ -3960,11 +3958,11 @@
       <c r="I94" s="1"/>
       <c r="K94" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221113OMF</v>
+        <v>20221113VMF</v>
       </c>
       <c r="L94" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221113OWF</v>
+        <v>20221113VWF</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
@@ -3972,10 +3970,10 @@
         <v>20221113</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -3995,11 +3993,11 @@
       <c r="I95" s="1"/>
       <c r="K95" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221113VME</v>
+        <v>20221113OMF</v>
       </c>
       <c r="L95" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221113VWE</v>
+        <v>20221113OWF</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
@@ -4010,7 +4008,7 @@
         <v>9</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -4019,10 +4017,10 @@
         <v>1</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>24</v>
@@ -4030,30 +4028,49 @@
       <c r="I96" s="1"/>
       <c r="K96" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221113VMS</v>
+        <v>20221113VME</v>
       </c>
       <c r="L96" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221113VWS</v>
-      </c>
-    </row>
-    <row r="97" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
-      <c r="F97" s="1"/>
-      <c r="G97" s="1"/>
-      <c r="H97" s="1"/>
+        <v>20221113VWE</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>20221113</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="I97" s="1"/>
       <c r="K97" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v/>
+        <v>20221113VMS</v>
       </c>
       <c r="L97" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
-      </c>
-    </row>
-    <row r="98" spans="2:12" x14ac:dyDescent="0.25">
+        <v>20221113VWS</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="F98" s="1"/>
@@ -4069,7 +4086,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="99" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="F99" s="1"/>
@@ -4085,7 +4102,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="100" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="F100" s="1"/>
@@ -4101,7 +4118,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="101" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="F101" s="1"/>
@@ -4117,7 +4134,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="102" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="F102" s="1"/>
@@ -4133,7 +4150,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="103" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="F103" s="1"/>
@@ -4149,7 +4166,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="104" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="F104" s="1"/>
@@ -4165,7 +4182,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="105" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="F105" s="1"/>
@@ -4181,7 +4198,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="106" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="F106" s="1"/>
@@ -4197,7 +4214,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="107" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="F107" s="1"/>
@@ -4213,7 +4230,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="108" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="F108" s="1"/>
@@ -4229,7 +4246,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="109" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="F109" s="1"/>
@@ -4245,7 +4262,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="110" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="F110" s="1"/>
@@ -4261,7 +4278,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="111" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="F111" s="1"/>
@@ -4277,7 +4294,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="112" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="F112" s="1"/>
@@ -4308,6 +4325,14 @@
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
         <v>N/A</v>
       </c>
+    </row>
+    <row r="114" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+      <c r="F114" s="1"/>
+      <c r="G114" s="1"/>
+      <c r="H114" s="1"/>
+      <c r="I114" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/2022/2022FSAdates.xlsx
+++ b/2022/2022FSAdates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erwin\Dropbox\Competitions\GitHub\FencingSAResults\2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A88F81C0-02B6-4486-AB85-77748FE03318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ACE4868-1CA7-4492-B528-55BA9F5A758E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12045" yWindow="240" windowWidth="15330" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1995" yWindow="300" windowWidth="15330" windowHeight="10980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -660,8 +660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15:L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>26</v>
@@ -1197,11 +1197,11 @@
       <c r="I15" s="3"/>
       <c r="K15" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220410U1720MF</v>
+        <v>20220410U1720F</v>
       </c>
       <c r="L15" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220410U1720WF</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1215,7 +1215,7 @@
         <v>13</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1232,11 +1232,11 @@
       <c r="I16" s="3"/>
       <c r="K16" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220410U15MS</v>
+        <v>N/A</v>
       </c>
       <c r="L16" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220410U15WS</v>
+        <v/>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1285,7 +1285,7 @@
         <v>13</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1302,11 +1302,11 @@
       <c r="I18" s="3"/>
       <c r="K18" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220410U1720MS</v>
+        <v>N/A</v>
       </c>
       <c r="L18" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220410U1720WS</v>
+        <v/>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1355,7 +1355,7 @@
         <v>12</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1372,11 +1372,11 @@
       <c r="I20" s="3"/>
       <c r="K20" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220410U1720ME</v>
+        <v>N/A</v>
       </c>
       <c r="L20" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220410U1720WE</v>
+        <v/>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1390,7 +1390,7 @@
         <v>13</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1407,11 +1407,11 @@
       <c r="I21" s="3"/>
       <c r="K21" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220410OBMS</v>
+        <v>N/A</v>
       </c>
       <c r="L21" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220410OBWS</v>
+        <v/>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">

--- a/2022/2022FSAdates.xlsx
+++ b/2022/2022FSAdates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erwin\Dropbox\Competitions\GitHub\FencingSAResults\2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ACE4868-1CA7-4492-B528-55BA9F5A758E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82AA8358-D494-44A4-A95E-AC006C1FEE75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1995" yWindow="300" windowWidth="15330" windowHeight="10980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="50">
   <si>
     <t>Date</t>
   </si>
@@ -188,6 +188,9 @@
   </si>
   <si>
     <t>U9</t>
+  </si>
+  <si>
+    <t>20221106U13GF</t>
   </si>
 </sst>
 </file>
@@ -309,12 +312,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I114" tableType="xml" totalsRowShown="0" connectionId="2">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I113">
-    <sortCondition ref="A2:A113"/>
-    <sortCondition ref="F2:F113"/>
-    <sortCondition ref="B2:B113"/>
-    <sortCondition ref="C2:C113"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I115" tableType="xml" totalsRowShown="0" connectionId="2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I114">
+    <sortCondition ref="A2:A114"/>
+    <sortCondition ref="F2:F114"/>
+    <sortCondition ref="B2:B114"/>
+    <sortCondition ref="C2:C114"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="Date" name="Date">
@@ -658,10 +661,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L114"/>
+  <dimension ref="A1:L115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15:L21"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="D93" sqref="D93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1836,13 +1839,13 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>20220619</v>
+        <v>20220529</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -1851,22 +1854,22 @@
         <v>1</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I34" s="3"/>
+      <c r="I34" s="1"/>
       <c r="K34" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220619U15MF</v>
+        <v>20220529OTMS</v>
       </c>
       <c r="L34" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220619U15WF</v>
+        <v>20220529OTWS</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -1874,7 +1877,7 @@
         <v>20220619</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>11</v>
@@ -1897,11 +1900,11 @@
       <c r="I35" s="3"/>
       <c r="K35" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220619U9BF</v>
+        <v>20220619U13BF</v>
       </c>
       <c r="L35" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220619U9GF</v>
+        <v>20220619U13GF</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -1909,7 +1912,7 @@
         <v>20220619</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>12</v>
@@ -1932,11 +1935,11 @@
       <c r="I36" s="3"/>
       <c r="K36" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220619U13BE</v>
+        <v>20220619U15ME</v>
       </c>
       <c r="L36" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220619U13GE</v>
+        <v>20220619U15WE</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -1947,7 +1950,7 @@
         <v>20</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -1967,11 +1970,11 @@
       <c r="I37" s="3"/>
       <c r="K37" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220619U11BF</v>
+        <v>20220619U11BE</v>
       </c>
       <c r="L37" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220619U11GF</v>
+        <v>20220619U11GE</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -1979,7 +1982,7 @@
         <v>20220619</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>11</v>
@@ -1991,22 +1994,22 @@
         <v>1</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I38" s="3"/>
+      <c r="I38" s="1"/>
       <c r="K38" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220619U13BF</v>
+        <v>20220619U9BF</v>
       </c>
       <c r="L38" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220619U13GF</v>
+        <v>20220619U9GF</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -2014,10 +2017,10 @@
         <v>20220619</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -2026,10 +2029,10 @@
         <v>1</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>19</v>
@@ -2037,11 +2040,11 @@
       <c r="I39" s="3"/>
       <c r="K39" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220619U11BE</v>
+        <v>20220619U15MF</v>
       </c>
       <c r="L39" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220619U11GE</v>
+        <v>20220619U15WF</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -2049,7 +2052,7 @@
         <v>20220619</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>12</v>
@@ -2061,10 +2064,10 @@
         <v>1</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>19</v>
@@ -2072,19 +2075,19 @@
       <c r="I40" s="3"/>
       <c r="K40" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220619U15ME</v>
+        <v>20220619U13BE</v>
       </c>
       <c r="L40" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220619U15WE</v>
+        <v>20220619U13GE</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>20220626</v>
+        <v>20220619</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>11</v>
@@ -2096,10 +2099,10 @@
         <v>1</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>19</v>
@@ -2107,11 +2110,11 @@
       <c r="I41" s="3"/>
       <c r="K41" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220626U1720MF</v>
+        <v>20220619U11BF</v>
       </c>
       <c r="L41" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220626U1720WF</v>
+        <v>20220619U11GF</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -2119,10 +2122,10 @@
         <v>20220626</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -2142,11 +2145,11 @@
       <c r="I42" s="3"/>
       <c r="K42" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220626U15MS</v>
+        <v>20220626U1720MF</v>
       </c>
       <c r="L42" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220626U15WS</v>
+        <v>20220626U1720WF</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -2154,10 +2157,10 @@
         <v>20220626</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -2166,10 +2169,10 @@
         <v>1</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>19</v>
@@ -2177,11 +2180,11 @@
       <c r="I43" s="3"/>
       <c r="K43" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220626OBME</v>
+        <v>20220626U15MS</v>
       </c>
       <c r="L43" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220626OBWE</v>
+        <v>20220626U15WS</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -2189,10 +2192,10 @@
         <v>20220626</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -2201,10 +2204,10 @@
         <v>1</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>19</v>
@@ -2212,11 +2215,11 @@
       <c r="I44" s="3"/>
       <c r="K44" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220626U1720MS</v>
+        <v>20220626OBME</v>
       </c>
       <c r="L44" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220626U1720WS</v>
+        <v>20220626OBWE</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -2224,10 +2227,10 @@
         <v>20220626</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -2236,10 +2239,10 @@
         <v>1</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>19</v>
@@ -2247,11 +2250,11 @@
       <c r="I45" s="3"/>
       <c r="K45" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220626OBMF</v>
+        <v>20220626U1720MS</v>
       </c>
       <c r="L45" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220626OBWF</v>
+        <v>20220626U1720WS</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -2259,10 +2262,10 @@
         <v>20220626</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -2271,10 +2274,10 @@
         <v>1</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>19</v>
@@ -2282,11 +2285,11 @@
       <c r="I46" s="3"/>
       <c r="K46" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220626U1720ME</v>
+        <v>20220626OBMF</v>
       </c>
       <c r="L46" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220626U1720WE</v>
+        <v>20220626OBWF</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -2294,10 +2297,10 @@
         <v>20220626</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -2306,10 +2309,10 @@
         <v>1</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>19</v>
@@ -2317,22 +2320,22 @@
       <c r="I47" s="3"/>
       <c r="K47" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220626OBMS</v>
+        <v>20220626U1720ME</v>
       </c>
       <c r="L47" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220626OBWS</v>
+        <v>20220626U1720WE</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>20220807</v>
+        <v>20220626</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -2341,10 +2344,10 @@
         <v>1</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>19</v>
@@ -2352,11 +2355,11 @@
       <c r="I48" s="3"/>
       <c r="K48" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220807OME</v>
+        <v>20220626OBMS</v>
       </c>
       <c r="L48" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220807OWE</v>
+        <v>20220626OBWS</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -2367,7 +2370,7 @@
         <v>18</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -2376,10 +2379,10 @@
         <v>1</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>19</v>
@@ -2387,11 +2390,11 @@
       <c r="I49" s="3"/>
       <c r="K49" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220807OMS</v>
+        <v>20220807OME</v>
       </c>
       <c r="L49" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220807OWS</v>
+        <v>20220807OWE</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -2399,10 +2402,10 @@
         <v>20220807</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -2422,11 +2425,11 @@
       <c r="I50" s="3"/>
       <c r="K50" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220807VMF</v>
+        <v>20220807OMS</v>
       </c>
       <c r="L50" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220807VWF</v>
+        <v>20220807OWS</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -2434,7 +2437,7 @@
         <v>20220807</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>11</v>
@@ -2446,10 +2449,10 @@
         <v>1</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>19</v>
@@ -2457,11 +2460,11 @@
       <c r="I51" s="3"/>
       <c r="K51" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220807OMF</v>
+        <v>20220807VMF</v>
       </c>
       <c r="L51" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220807OWF</v>
+        <v>20220807VWF</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -2469,10 +2472,10 @@
         <v>20220807</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -2492,11 +2495,11 @@
       <c r="I52" s="3"/>
       <c r="K52" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220807VME</v>
+        <v>20220807OMF</v>
       </c>
       <c r="L52" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220807VWE</v>
+        <v>20220807OWF</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -2507,7 +2510,7 @@
         <v>9</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -2516,10 +2519,10 @@
         <v>1</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>19</v>
@@ -2527,22 +2530,22 @@
       <c r="I53" s="3"/>
       <c r="K53" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220807VMS</v>
+        <v>20220807VME</v>
       </c>
       <c r="L53" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220807VWS</v>
+        <v>20220807VWE</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>20220821</v>
+        <v>20220807</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -2551,10 +2554,10 @@
         <v>1</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>19</v>
@@ -2562,11 +2565,11 @@
       <c r="I54" s="3"/>
       <c r="K54" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220821U15MF</v>
+        <v>20220807VMS</v>
       </c>
       <c r="L54" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220821U15WF</v>
+        <v>20220807VWS</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
@@ -2577,7 +2580,7 @@
         <v>10</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -2586,10 +2589,10 @@
         <v>1</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>19</v>
@@ -2597,11 +2600,11 @@
       <c r="I55" s="3"/>
       <c r="K55" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220821U13BE</v>
+        <v>20220821U13BF</v>
       </c>
       <c r="L55" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220821U13GE</v>
+        <v>20220821U13GF</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -2609,10 +2612,10 @@
         <v>20220821</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -2621,10 +2624,10 @@
         <v>1</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>19</v>
@@ -2632,11 +2635,11 @@
       <c r="I56" s="3"/>
       <c r="K56" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220821U11BF</v>
+        <v>20220821U15ME</v>
       </c>
       <c r="L56" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220821U11GF</v>
+        <v>20220821U15WE</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
@@ -2644,10 +2647,10 @@
         <v>20220821</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -2656,10 +2659,10 @@
         <v>1</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>19</v>
@@ -2667,11 +2670,11 @@
       <c r="I57" s="3"/>
       <c r="K57" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220821U13BF</v>
+        <v>20220821U11BE</v>
       </c>
       <c r="L57" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220821U13GF</v>
+        <v>20220821U11GE</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
@@ -2679,10 +2682,10 @@
         <v>20220821</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -2691,10 +2694,10 @@
         <v>1</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>19</v>
@@ -2702,11 +2705,11 @@
       <c r="I58" s="3"/>
       <c r="K58" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220821U11BE</v>
+        <v>20220821U15MF</v>
       </c>
       <c r="L58" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220821U11GE</v>
+        <v>20220821U15WF</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -2714,7 +2717,7 @@
         <v>20220821</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>12</v>
@@ -2726,10 +2729,10 @@
         <v>1</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>19</v>
@@ -2737,19 +2740,19 @@
       <c r="I59" s="3"/>
       <c r="K59" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220821U15ME</v>
+        <v>20220821U13BE</v>
       </c>
       <c r="L59" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220821U15WE</v>
+        <v>20220821U13GE</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>20220911</v>
+        <v>20220821</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>11</v>
@@ -2761,22 +2764,22 @@
         <v>1</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I60" s="3"/>
       <c r="K60" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220911U1720MF</v>
+        <v>20220821U11BF</v>
       </c>
       <c r="L60" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220911U1720WF</v>
+        <v>20220821U11GF</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -2784,10 +2787,10 @@
         <v>20220911</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -2804,14 +2807,14 @@
       <c r="H61" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I61" s="1"/>
+      <c r="I61" s="3"/>
       <c r="K61" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220911U15MS</v>
+        <v>20220911U1720MF</v>
       </c>
       <c r="L61" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220911U15WS</v>
+        <v>20220911U1720WF</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -2819,10 +2822,10 @@
         <v>20220911</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -2831,10 +2834,10 @@
         <v>1</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>24</v>
@@ -2842,11 +2845,11 @@
       <c r="I62" s="1"/>
       <c r="K62" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220911OBME</v>
+        <v>20220911U15MS</v>
       </c>
       <c r="L62" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220911OBWE</v>
+        <v>20220911U15WS</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -2854,10 +2857,10 @@
         <v>20220911</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -2866,10 +2869,10 @@
         <v>1</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>24</v>
@@ -2877,11 +2880,11 @@
       <c r="I63" s="1"/>
       <c r="K63" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220911U1720MS</v>
+        <v>20220911OBME</v>
       </c>
       <c r="L63" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220911U1720WS</v>
+        <v>20220911OBWE</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
@@ -2889,10 +2892,10 @@
         <v>20220911</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -2901,10 +2904,10 @@
         <v>1</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>24</v>
@@ -2912,11 +2915,11 @@
       <c r="I64" s="1"/>
       <c r="K64" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220911OBMF</v>
+        <v>20220911U1720MS</v>
       </c>
       <c r="L64" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220911OBWF</v>
+        <v>20220911U1720WS</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -2924,10 +2927,10 @@
         <v>20220911</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -2936,10 +2939,10 @@
         <v>1</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>24</v>
@@ -2947,11 +2950,11 @@
       <c r="I65" s="1"/>
       <c r="K65" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220911U1720ME</v>
+        <v>20220911OBMF</v>
       </c>
       <c r="L65" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220911U1720WE</v>
+        <v>20220911OBWF</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -2959,10 +2962,10 @@
         <v>20220911</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -2971,10 +2974,10 @@
         <v>1</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>24</v>
@@ -2982,22 +2985,22 @@
       <c r="I66" s="1"/>
       <c r="K66" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220911OBMS</v>
+        <v>20220911U1720ME</v>
       </c>
       <c r="L66" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220911OBWS</v>
+        <v>20220911U1720WE</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>20220918</v>
+        <v>20220911</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -3006,22 +3009,22 @@
         <v>1</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="I67" s="1"/>
       <c r="K67" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220918U17MF</v>
+        <v>20220911OBMS</v>
       </c>
       <c r="L67" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220918U17WF</v>
+        <v>20220911OBWS</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -3032,7 +3035,7 @@
         <v>43</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -3052,11 +3055,11 @@
       <c r="I68" s="1"/>
       <c r="K68" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220918U17ME</v>
+        <v>20220918U17MF</v>
       </c>
       <c r="L68" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220918U17WE</v>
+        <v>20220918U17WF</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
@@ -3064,10 +3067,10 @@
         <v>20220918</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -3076,10 +3079,10 @@
         <v>1</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>44</v>
@@ -3087,11 +3090,11 @@
       <c r="I69" s="1"/>
       <c r="K69" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220918U17TMF</v>
+        <v>20220918U17ME</v>
       </c>
       <c r="L69" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220918U17TWF</v>
+        <v>20220918U17WE</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
@@ -3102,7 +3105,7 @@
         <v>40</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -3122,19 +3125,19 @@
       <c r="I70" s="1"/>
       <c r="K70" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220918U17TME</v>
+        <v>20220918U17TMF</v>
       </c>
       <c r="L70" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220918U17TWE</v>
+        <v>20220918U17TWF</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>20221016</v>
+        <v>20220918</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>12</v>
@@ -3146,22 +3149,22 @@
         <v>1</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="I71" s="1"/>
       <c r="K71" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221016OME</v>
+        <v>20220918U17TME</v>
       </c>
       <c r="L71" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221016OWE</v>
+        <v>20220918U17TWE</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
@@ -3172,7 +3175,7 @@
         <v>18</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -3181,10 +3184,10 @@
         <v>1</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>19</v>
@@ -3192,11 +3195,11 @@
       <c r="I72" s="1"/>
       <c r="K72" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221016OMS</v>
+        <v>20221016OME</v>
       </c>
       <c r="L72" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221016OWS</v>
+        <v>20221016OWE</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -3204,10 +3207,10 @@
         <v>20221016</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -3227,11 +3230,11 @@
       <c r="I73" s="1"/>
       <c r="K73" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221016VMF</v>
+        <v>20221016OMS</v>
       </c>
       <c r="L73" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221016VWF</v>
+        <v>20221016OWS</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
@@ -3239,7 +3242,7 @@
         <v>20221016</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>11</v>
@@ -3251,10 +3254,10 @@
         <v>1</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>19</v>
@@ -3262,11 +3265,11 @@
       <c r="I74" s="1"/>
       <c r="K74" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221016OMF</v>
+        <v>20221016VMF</v>
       </c>
       <c r="L74" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221016OWF</v>
+        <v>20221016VWF</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
@@ -3274,10 +3277,10 @@
         <v>20221016</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -3297,11 +3300,11 @@
       <c r="I75" s="1"/>
       <c r="K75" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221016VME</v>
+        <v>20221016OMF</v>
       </c>
       <c r="L75" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221016VWE</v>
+        <v>20221016OWF</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
@@ -3312,7 +3315,7 @@
         <v>9</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -3321,10 +3324,10 @@
         <v>1</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>19</v>
@@ -3332,22 +3335,22 @@
       <c r="I76" s="1"/>
       <c r="K76" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221016VMS</v>
+        <v>20221016VME</v>
       </c>
       <c r="L76" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221016VWS</v>
+        <v>20221016VWE</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>20221023</v>
+        <v>20221016</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -3356,10 +3359,10 @@
         <v>1</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>19</v>
@@ -3367,11 +3370,11 @@
       <c r="I77" s="1"/>
       <c r="K77" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221023U1720MF</v>
+        <v>20221016VMS</v>
       </c>
       <c r="L77" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221023U1720WF</v>
+        <v>20221016VWS</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
@@ -3379,10 +3382,10 @@
         <v>20221023</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -3402,11 +3405,11 @@
       <c r="I78" s="1"/>
       <c r="K78" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221023U15MS</v>
+        <v>20221023U1720MF</v>
       </c>
       <c r="L78" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221023U15WS</v>
+        <v>20221023U1720WF</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
@@ -3414,10 +3417,10 @@
         <v>20221023</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -3426,10 +3429,10 @@
         <v>1</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>19</v>
@@ -3437,11 +3440,11 @@
       <c r="I79" s="1"/>
       <c r="K79" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221023U13TMF</v>
+        <v>20221023U15MS</v>
       </c>
       <c r="L79" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221023U13TWF</v>
+        <v>20221023U15WS</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
@@ -3449,10 +3452,10 @@
         <v>20221023</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -3461,10 +3464,10 @@
         <v>1</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>19</v>
@@ -3472,11 +3475,11 @@
       <c r="I80" s="1"/>
       <c r="K80" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221023OBME</v>
+        <v>20221023U13TMF</v>
       </c>
       <c r="L80" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221023OBWE</v>
+        <v>20221023U13TWF</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
@@ -3484,10 +3487,10 @@
         <v>20221023</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -3496,10 +3499,10 @@
         <v>1</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>19</v>
@@ -3507,11 +3510,11 @@
       <c r="I81" s="1"/>
       <c r="K81" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221023U1720MS</v>
+        <v>20221023OBME</v>
       </c>
       <c r="L81" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221023U1720WS</v>
+        <v>20221023OBWE</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
@@ -3519,10 +3522,10 @@
         <v>20221023</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -3531,10 +3534,10 @@
         <v>1</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>19</v>
@@ -3542,11 +3545,11 @@
       <c r="I82" s="1"/>
       <c r="K82" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221023OBMF</v>
+        <v>20221023U1720MS</v>
       </c>
       <c r="L82" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221023OBWF</v>
+        <v>20221023U1720WS</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
@@ -3554,10 +3557,10 @@
         <v>20221023</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -3566,10 +3569,10 @@
         <v>1</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>19</v>
@@ -3577,11 +3580,11 @@
       <c r="I83" s="1"/>
       <c r="K83" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221023U1720ME</v>
+        <v>20221023OBMF</v>
       </c>
       <c r="L83" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221023U1720WE</v>
+        <v>20221023OBWF</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
@@ -3589,10 +3592,10 @@
         <v>20221023</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -3601,10 +3604,10 @@
         <v>1</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>19</v>
@@ -3612,22 +3615,22 @@
       <c r="I84" s="1"/>
       <c r="K84" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221023OBMS</v>
+        <v>20221023U1720ME</v>
       </c>
       <c r="L84" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221023OBWS</v>
+        <v>20221023U1720WE</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>20221106</v>
+        <v>20221023</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -3636,22 +3639,22 @@
         <v>1</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I85" s="1"/>
       <c r="K85" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221106U15MF</v>
+        <v>20221023OBMS</v>
       </c>
       <c r="L85" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221106U15WF</v>
+        <v>20221023OBWS</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
@@ -3659,7 +3662,7 @@
         <v>20221106</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>11</v>
@@ -3677,12 +3680,15 @@
         <v>33</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I86" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="I86" s="3"/>
       <c r="K86" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221106U9BF</v>
+        <v>20221106U13BF</v>
+      </c>
+      <c r="L86" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
@@ -3690,7 +3696,7 @@
         <v>20221106</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>12</v>
@@ -3708,16 +3714,16 @@
         <v>45</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I87" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="I87" s="3"/>
       <c r="K87" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221106U13BE</v>
+        <v>20221106U15ME</v>
       </c>
       <c r="L87" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221106U13GE</v>
+        <v>20221106U15WE</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
@@ -3728,7 +3734,7 @@
         <v>20</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -3743,16 +3749,16 @@
         <v>34</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I88" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="I88" s="3"/>
       <c r="K88" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221106U11BF</v>
+        <v>20221106U11BE</v>
       </c>
       <c r="L88" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221106U11GF</v>
+        <v>20221106U11GE</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
@@ -3760,7 +3766,7 @@
         <v>20221106</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>11</v>
@@ -3772,22 +3778,22 @@
         <v>1</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I89" s="1"/>
       <c r="K89" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221106U13BF</v>
+        <v>20221106U9BF</v>
       </c>
       <c r="L89" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221106U13GF</v>
+        <v>20221106U9GF</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
@@ -3795,10 +3801,10 @@
         <v>20221106</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -3807,22 +3813,22 @@
         <v>1</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I90" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="I90" s="3"/>
       <c r="K90" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221106U11BE</v>
+        <v>20221106U15MF</v>
       </c>
       <c r="L90" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221106U11GE</v>
+        <v>20221106U15WF</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
@@ -3830,7 +3836,7 @@
         <v>20221106</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>12</v>
@@ -3842,33 +3848,33 @@
         <v>1</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I91" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="I91" s="3"/>
       <c r="K91" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221106U15ME</v>
+        <v>20221106U13BE</v>
       </c>
       <c r="L91" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221106U15WE</v>
+        <v>20221106U13GE</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>20221113</v>
+        <v>20221106</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -3877,22 +3883,22 @@
         <v>1</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I92" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="I92" s="3"/>
       <c r="K92" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221113OME</v>
+        <v>20221106U11BF</v>
       </c>
       <c r="L92" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221113OWE</v>
+        <v>20221106U11GF</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
@@ -3903,7 +3909,7 @@
         <v>18</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -3912,10 +3918,10 @@
         <v>1</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>24</v>
@@ -3923,11 +3929,11 @@
       <c r="I93" s="1"/>
       <c r="K93" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221113OMS</v>
+        <v>20221113OME</v>
       </c>
       <c r="L93" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221113OWS</v>
+        <v>20221113OWE</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
@@ -3935,10 +3941,10 @@
         <v>20221113</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -3958,11 +3964,11 @@
       <c r="I94" s="1"/>
       <c r="K94" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221113VMF</v>
+        <v>20221113OMS</v>
       </c>
       <c r="L94" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221113VWF</v>
+        <v>20221113OWS</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
@@ -3970,7 +3976,7 @@
         <v>20221113</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>11</v>
@@ -3982,10 +3988,10 @@
         <v>1</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>24</v>
@@ -3993,11 +3999,11 @@
       <c r="I95" s="1"/>
       <c r="K95" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221113OMF</v>
+        <v>20221113VMF</v>
       </c>
       <c r="L95" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221113OWF</v>
+        <v>20221113VWF</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
@@ -4005,10 +4011,10 @@
         <v>20221113</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -4028,11 +4034,11 @@
       <c r="I96" s="1"/>
       <c r="K96" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221113VME</v>
+        <v>20221113OMF</v>
       </c>
       <c r="L96" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221113VWE</v>
+        <v>20221113OWF</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
@@ -4043,7 +4049,7 @@
         <v>9</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -4052,10 +4058,10 @@
         <v>1</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>24</v>
@@ -4063,27 +4069,46 @@
       <c r="I97" s="1"/>
       <c r="K97" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221113VMS</v>
+        <v>20221113VME</v>
       </c>
       <c r="L97" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221113VWS</v>
+        <v>20221113VWE</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-      <c r="F98" s="1"/>
-      <c r="G98" s="1"/>
-      <c r="H98" s="1"/>
+      <c r="A98">
+        <v>20221113</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="I98" s="1"/>
       <c r="K98" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v/>
+        <v>20221113VMS</v>
       </c>
       <c r="L98" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
+        <v>20221113VWS</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
@@ -4333,6 +4358,14 @@
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
+    </row>
+    <row r="115" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+      <c r="F115" s="1"/>
+      <c r="G115" s="1"/>
+      <c r="H115" s="1"/>
+      <c r="I115" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/2022/2022FSAdates.xlsx
+++ b/2022/2022FSAdates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erwin\Dropbox\Competitions\GitHub\FencingSAResults\2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82AA8358-D494-44A4-A95E-AC006C1FEE75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A3CCCF-5DB1-41E1-AFDF-646D794FBFE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5535" yWindow="1080" windowWidth="16380" windowHeight="10980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="50">
   <si>
     <t>Date</t>
   </si>
@@ -312,12 +312,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I115" tableType="xml" totalsRowShown="0" connectionId="2">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I114">
-    <sortCondition ref="A2:A114"/>
-    <sortCondition ref="F2:F114"/>
-    <sortCondition ref="B2:B114"/>
-    <sortCondition ref="C2:C114"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I116" tableType="xml" totalsRowShown="0" connectionId="2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I115">
+    <sortCondition ref="A2:A115"/>
+    <sortCondition ref="F2:F115"/>
+    <sortCondition ref="B2:B115"/>
+    <sortCondition ref="C2:C115"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="Date" name="Date">
@@ -661,10 +661,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L115"/>
+  <dimension ref="A1:L116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="D93" sqref="D93"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>31</v>
@@ -1480,11 +1480,11 @@
       <c r="I23" s="3"/>
       <c r="K23" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220515OMS</v>
+        <v>20220515OS</v>
       </c>
       <c r="L23" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220515OWS</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -1498,7 +1498,7 @@
         <v>11</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -1515,11 +1515,11 @@
       <c r="I24" s="3"/>
       <c r="K24" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220515VMF</v>
+        <v>N/A</v>
       </c>
       <c r="L24" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220515VWF</v>
+        <v/>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -1571,7 +1571,7 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>32</v>
@@ -1582,14 +1582,14 @@
       <c r="H26" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I26" s="3"/>
+      <c r="I26" s="1"/>
       <c r="K26" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220515VME</v>
+        <v>20220515VE</v>
       </c>
       <c r="L26" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220515VWE</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -1600,7 +1600,7 @@
         <v>9</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1609,10 +1609,10 @@
         <v>1</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>19</v>
@@ -1620,34 +1620,34 @@
       <c r="I27" s="3"/>
       <c r="K27" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220515VMS</v>
+        <v>20220515VME</v>
       </c>
       <c r="L27" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220515VWS</v>
+        <v>20220515VWE</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>20220529</v>
+        <v>20220515</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28">
         <v>1</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>19</v>
@@ -1655,11 +1655,11 @@
       <c r="I28" s="3"/>
       <c r="K28" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220529U13TMF</v>
+        <v>N/A</v>
       </c>
       <c r="L28" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220529U13TWF</v>
+        <v/>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -1670,7 +1670,7 @@
         <v>41</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -1690,11 +1690,11 @@
       <c r="I29" s="3"/>
       <c r="K29" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220529U13TME</v>
+        <v>20220529U13TMF</v>
       </c>
       <c r="L29" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220529U13TWE</v>
+        <v>20220529U13TWF</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -1702,10 +1702,10 @@
         <v>20220529</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -1714,10 +1714,10 @@
         <v>1</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>19</v>
@@ -1725,11 +1725,11 @@
       <c r="I30" s="3"/>
       <c r="K30" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220529U17TMF</v>
+        <v>20220529U13TME</v>
       </c>
       <c r="L30" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220529U17TWF</v>
+        <v>20220529U13TWE</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -1740,7 +1740,7 @@
         <v>40</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1760,11 +1760,11 @@
       <c r="I31" s="3"/>
       <c r="K31" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220529U17TME</v>
+        <v>20220529U17TMF</v>
       </c>
       <c r="L31" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220529U17TWE</v>
+        <v>20220529U17TWF</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -1772,10 +1772,10 @@
         <v>20220529</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1784,10 +1784,10 @@
         <v>1</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>19</v>
@@ -1795,11 +1795,11 @@
       <c r="I32" s="3"/>
       <c r="K32" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220529OTMF</v>
+        <v>20220529U17TME</v>
       </c>
       <c r="L32" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220529OTWF</v>
+        <v>20220529U17TWE</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -1810,7 +1810,7 @@
         <v>39</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -1830,11 +1830,11 @@
       <c r="I33" s="3"/>
       <c r="K33" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220529OTME</v>
+        <v>20220529OTMF</v>
       </c>
       <c r="L33" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220529OTWE</v>
+        <v>20220529OTWF</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -1845,7 +1845,7 @@
         <v>39</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -1862,25 +1862,25 @@
       <c r="H34" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I34" s="1"/>
+      <c r="I34" s="3"/>
       <c r="K34" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220529OTMS</v>
+        <v>20220529OTME</v>
       </c>
       <c r="L34" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220529OTWS</v>
+        <v>20220529OTWE</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>20220619</v>
+        <v>20220529</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1889,22 +1889,22 @@
         <v>1</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I35" s="3"/>
+      <c r="I35" s="1"/>
       <c r="K35" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220619U13BF</v>
+        <v>20220529OTMS</v>
       </c>
       <c r="L35" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220619U13GF</v>
+        <v>20220529OTWS</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -1912,10 +1912,10 @@
         <v>20220619</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -1924,10 +1924,10 @@
         <v>1</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>19</v>
@@ -1935,11 +1935,11 @@
       <c r="I36" s="3"/>
       <c r="K36" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220619U15ME</v>
+        <v>20220619U13BF</v>
       </c>
       <c r="L36" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220619U15WE</v>
+        <v>20220619U13GF</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -1947,7 +1947,7 @@
         <v>20220619</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>12</v>
@@ -1959,10 +1959,10 @@
         <v>1</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>19</v>
@@ -1970,11 +1970,11 @@
       <c r="I37" s="3"/>
       <c r="K37" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220619U11BE</v>
+        <v>20220619U15ME</v>
       </c>
       <c r="L37" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220619U11GE</v>
+        <v>20220619U15WE</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -1982,10 +1982,10 @@
         <v>20220619</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -2002,14 +2002,14 @@
       <c r="H38" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I38" s="1"/>
+      <c r="I38" s="3"/>
       <c r="K38" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220619U9BF</v>
+        <v>20220619U11BE</v>
       </c>
       <c r="L38" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220619U9GF</v>
+        <v>20220619U11GE</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -2017,7 +2017,7 @@
         <v>20220619</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>11</v>
@@ -2029,22 +2029,22 @@
         <v>1</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I39" s="3"/>
+      <c r="I39" s="1"/>
       <c r="K39" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220619U15MF</v>
+        <v>20220619U9BF</v>
       </c>
       <c r="L39" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220619U15WF</v>
+        <v>20220619U9GF</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -2052,10 +2052,10 @@
         <v>20220619</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -2064,10 +2064,10 @@
         <v>1</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>19</v>
@@ -2075,11 +2075,11 @@
       <c r="I40" s="3"/>
       <c r="K40" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220619U13BE</v>
+        <v>20220619U15MF</v>
       </c>
       <c r="L40" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220619U13GE</v>
+        <v>20220619U15WF</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -2087,10 +2087,10 @@
         <v>20220619</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -2110,19 +2110,19 @@
       <c r="I41" s="3"/>
       <c r="K41" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220619U11BF</v>
+        <v>20220619U13BE</v>
       </c>
       <c r="L41" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220619U11GF</v>
+        <v>20220619U13GE</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>20220626</v>
+        <v>20220619</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>11</v>
@@ -2134,10 +2134,10 @@
         <v>1</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>19</v>
@@ -2145,11 +2145,11 @@
       <c r="I42" s="3"/>
       <c r="K42" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220626U1720MF</v>
+        <v>20220619U11BF</v>
       </c>
       <c r="L42" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220626U1720WF</v>
+        <v>20220619U11GF</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -2157,10 +2157,10 @@
         <v>20220626</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -2180,11 +2180,11 @@
       <c r="I43" s="3"/>
       <c r="K43" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220626U15MS</v>
+        <v>20220626U1720MF</v>
       </c>
       <c r="L43" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220626U15WS</v>
+        <v>20220626U1720WF</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -2192,10 +2192,10 @@
         <v>20220626</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -2204,10 +2204,10 @@
         <v>1</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>19</v>
@@ -2215,11 +2215,11 @@
       <c r="I44" s="3"/>
       <c r="K44" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220626OBME</v>
+        <v>20220626U15MS</v>
       </c>
       <c r="L44" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220626OBWE</v>
+        <v>20220626U15WS</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -2227,10 +2227,10 @@
         <v>20220626</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -2239,10 +2239,10 @@
         <v>1</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>19</v>
@@ -2250,11 +2250,11 @@
       <c r="I45" s="3"/>
       <c r="K45" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220626U1720MS</v>
+        <v>20220626OBME</v>
       </c>
       <c r="L45" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220626U1720WS</v>
+        <v>20220626OBWE</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -2262,10 +2262,10 @@
         <v>20220626</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -2274,10 +2274,10 @@
         <v>1</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>19</v>
@@ -2285,11 +2285,11 @@
       <c r="I46" s="3"/>
       <c r="K46" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220626OBMF</v>
+        <v>20220626U1720MS</v>
       </c>
       <c r="L46" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220626OBWF</v>
+        <v>20220626U1720WS</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -2297,10 +2297,10 @@
         <v>20220626</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -2309,10 +2309,10 @@
         <v>1</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>19</v>
@@ -2320,11 +2320,11 @@
       <c r="I47" s="3"/>
       <c r="K47" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220626U1720ME</v>
+        <v>20220626OBMF</v>
       </c>
       <c r="L47" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220626U1720WE</v>
+        <v>20220626OBWF</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -2332,10 +2332,10 @@
         <v>20220626</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -2344,10 +2344,10 @@
         <v>1</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>19</v>
@@ -2355,22 +2355,22 @@
       <c r="I48" s="3"/>
       <c r="K48" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220626OBMS</v>
+        <v>20220626U1720ME</v>
       </c>
       <c r="L48" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220626OBWS</v>
+        <v>20220626U1720WE</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>20220807</v>
+        <v>20220626</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -2379,10 +2379,10 @@
         <v>1</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>19</v>
@@ -2390,11 +2390,11 @@
       <c r="I49" s="3"/>
       <c r="K49" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220807OME</v>
+        <v>20220626OBMS</v>
       </c>
       <c r="L49" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220807OWE</v>
+        <v>20220626OBWS</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -2405,7 +2405,7 @@
         <v>18</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -2414,10 +2414,10 @@
         <v>1</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>19</v>
@@ -2425,11 +2425,11 @@
       <c r="I50" s="3"/>
       <c r="K50" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220807OMS</v>
+        <v>20220807OME</v>
       </c>
       <c r="L50" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220807OWS</v>
+        <v>20220807OWE</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -2437,10 +2437,10 @@
         <v>20220807</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -2460,11 +2460,11 @@
       <c r="I51" s="3"/>
       <c r="K51" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220807VMF</v>
+        <v>20220807OMS</v>
       </c>
       <c r="L51" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220807VWF</v>
+        <v>20220807OWS</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -2472,7 +2472,7 @@
         <v>20220807</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>11</v>
@@ -2484,10 +2484,10 @@
         <v>1</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>19</v>
@@ -2495,11 +2495,11 @@
       <c r="I52" s="3"/>
       <c r="K52" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220807OMF</v>
+        <v>20220807VMF</v>
       </c>
       <c r="L52" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220807OWF</v>
+        <v>20220807VWF</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -2507,10 +2507,10 @@
         <v>20220807</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -2530,11 +2530,11 @@
       <c r="I53" s="3"/>
       <c r="K53" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220807VME</v>
+        <v>20220807OMF</v>
       </c>
       <c r="L53" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220807VWE</v>
+        <v>20220807OWF</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
@@ -2545,7 +2545,7 @@
         <v>9</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -2554,10 +2554,10 @@
         <v>1</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>19</v>
@@ -2565,22 +2565,22 @@
       <c r="I54" s="3"/>
       <c r="K54" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220807VMS</v>
+        <v>20220807VME</v>
       </c>
       <c r="L54" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220807VWS</v>
+        <v>20220807VWE</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>20220821</v>
+        <v>20220807</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -2589,10 +2589,10 @@
         <v>1</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>19</v>
@@ -2600,11 +2600,11 @@
       <c r="I55" s="3"/>
       <c r="K55" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220821U13BF</v>
+        <v>20220807VMS</v>
       </c>
       <c r="L55" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220821U13GF</v>
+        <v>20220807VWS</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -2612,10 +2612,10 @@
         <v>20220821</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -2624,10 +2624,10 @@
         <v>1</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>19</v>
@@ -2635,11 +2635,11 @@
       <c r="I56" s="3"/>
       <c r="K56" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220821U15ME</v>
+        <v>20220821U13BF</v>
       </c>
       <c r="L56" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220821U15WE</v>
+        <v>20220821U13GF</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
@@ -2647,7 +2647,7 @@
         <v>20220821</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>12</v>
@@ -2659,10 +2659,10 @@
         <v>1</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>19</v>
@@ -2670,11 +2670,11 @@
       <c r="I57" s="3"/>
       <c r="K57" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220821U11BE</v>
+        <v>20220821U15ME</v>
       </c>
       <c r="L57" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220821U11GE</v>
+        <v>20220821U15WE</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
@@ -2682,10 +2682,10 @@
         <v>20220821</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -2694,10 +2694,10 @@
         <v>1</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>19</v>
@@ -2705,11 +2705,11 @@
       <c r="I58" s="3"/>
       <c r="K58" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220821U15MF</v>
+        <v>20220821U11BE</v>
       </c>
       <c r="L58" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220821U15WF</v>
+        <v>20220821U11GE</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -2717,10 +2717,10 @@
         <v>20220821</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -2729,10 +2729,10 @@
         <v>1</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>19</v>
@@ -2740,11 +2740,11 @@
       <c r="I59" s="3"/>
       <c r="K59" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220821U13BE</v>
+        <v>20220821U15MF</v>
       </c>
       <c r="L59" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220821U13GE</v>
+        <v>20220821U15WF</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -2752,10 +2752,10 @@
         <v>20220821</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -2775,19 +2775,19 @@
       <c r="I60" s="3"/>
       <c r="K60" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220821U11BF</v>
+        <v>20220821U13BE</v>
       </c>
       <c r="L60" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220821U11GF</v>
+        <v>20220821U13GE</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>20220911</v>
+        <v>20220821</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>11</v>
@@ -2799,22 +2799,22 @@
         <v>1</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I61" s="3"/>
       <c r="K61" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220911U1720MF</v>
+        <v>20220821U11BF</v>
       </c>
       <c r="L61" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220911U1720WF</v>
+        <v>20220821U11GF</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -2822,10 +2822,10 @@
         <v>20220911</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -2842,14 +2842,14 @@
       <c r="H62" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I62" s="1"/>
+      <c r="I62" s="3"/>
       <c r="K62" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220911U15MS</v>
+        <v>20220911U1720MF</v>
       </c>
       <c r="L62" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220911U15WS</v>
+        <v>20220911U1720WF</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -2857,10 +2857,10 @@
         <v>20220911</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -2869,10 +2869,10 @@
         <v>1</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>24</v>
@@ -2880,11 +2880,11 @@
       <c r="I63" s="1"/>
       <c r="K63" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220911OBME</v>
+        <v>20220911U15MS</v>
       </c>
       <c r="L63" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220911OBWE</v>
+        <v>20220911U15WS</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
@@ -2892,10 +2892,10 @@
         <v>20220911</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -2904,10 +2904,10 @@
         <v>1</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>24</v>
@@ -2915,11 +2915,11 @@
       <c r="I64" s="1"/>
       <c r="K64" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220911U1720MS</v>
+        <v>20220911OBME</v>
       </c>
       <c r="L64" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220911U1720WS</v>
+        <v>20220911OBWE</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -2927,10 +2927,10 @@
         <v>20220911</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -2939,10 +2939,10 @@
         <v>1</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>24</v>
@@ -2950,11 +2950,11 @@
       <c r="I65" s="1"/>
       <c r="K65" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220911OBMF</v>
+        <v>20220911U1720MS</v>
       </c>
       <c r="L65" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220911OBWF</v>
+        <v>20220911U1720WS</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -2962,10 +2962,10 @@
         <v>20220911</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -2974,10 +2974,10 @@
         <v>1</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>24</v>
@@ -2985,11 +2985,11 @@
       <c r="I66" s="1"/>
       <c r="K66" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220911U1720ME</v>
+        <v>20220911OBMF</v>
       </c>
       <c r="L66" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220911U1720WE</v>
+        <v>20220911OBWF</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -2997,10 +2997,10 @@
         <v>20220911</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -3009,10 +3009,10 @@
         <v>1</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>24</v>
@@ -3020,22 +3020,22 @@
       <c r="I67" s="1"/>
       <c r="K67" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220911OBMS</v>
+        <v>20220911U1720ME</v>
       </c>
       <c r="L67" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220911OBWS</v>
+        <v>20220911U1720WE</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>20220918</v>
+        <v>20220911</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -3044,22 +3044,22 @@
         <v>1</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="I68" s="1"/>
       <c r="K68" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220918U17MF</v>
+        <v>20220911OBMS</v>
       </c>
       <c r="L68" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220918U17WF</v>
+        <v>20220911OBWS</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
@@ -3070,7 +3070,7 @@
         <v>43</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -3090,11 +3090,11 @@
       <c r="I69" s="1"/>
       <c r="K69" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220918U17ME</v>
+        <v>20220918U17MF</v>
       </c>
       <c r="L69" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220918U17WE</v>
+        <v>20220918U17WF</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
@@ -3102,10 +3102,10 @@
         <v>20220918</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -3114,10 +3114,10 @@
         <v>1</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>44</v>
@@ -3125,11 +3125,11 @@
       <c r="I70" s="1"/>
       <c r="K70" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220918U17TMF</v>
+        <v>20220918U17ME</v>
       </c>
       <c r="L70" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220918U17TWF</v>
+        <v>20220918U17WE</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
@@ -3140,7 +3140,7 @@
         <v>40</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -3160,19 +3160,19 @@
       <c r="I71" s="1"/>
       <c r="K71" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220918U17TME</v>
+        <v>20220918U17TMF</v>
       </c>
       <c r="L71" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220918U17TWE</v>
+        <v>20220918U17TWF</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>20221016</v>
+        <v>20220918</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>12</v>
@@ -3184,22 +3184,22 @@
         <v>1</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="I72" s="1"/>
       <c r="K72" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221016OME</v>
+        <v>20220918U17TME</v>
       </c>
       <c r="L72" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221016OWE</v>
+        <v>20220918U17TWE</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -3210,7 +3210,7 @@
         <v>18</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -3219,10 +3219,10 @@
         <v>1</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>19</v>
@@ -3230,11 +3230,11 @@
       <c r="I73" s="1"/>
       <c r="K73" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221016OMS</v>
+        <v>20221016OME</v>
       </c>
       <c r="L73" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221016OWS</v>
+        <v>20221016OWE</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
@@ -3242,10 +3242,10 @@
         <v>20221016</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -3265,11 +3265,11 @@
       <c r="I74" s="1"/>
       <c r="K74" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221016VMF</v>
+        <v>20221016OMS</v>
       </c>
       <c r="L74" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221016VWF</v>
+        <v>20221016OWS</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
@@ -3277,7 +3277,7 @@
         <v>20221016</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>11</v>
@@ -3289,10 +3289,10 @@
         <v>1</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>19</v>
@@ -3300,11 +3300,11 @@
       <c r="I75" s="1"/>
       <c r="K75" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221016OMF</v>
+        <v>20221016VMF</v>
       </c>
       <c r="L75" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221016OWF</v>
+        <v>20221016VWF</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
@@ -3312,10 +3312,10 @@
         <v>20221016</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -3335,11 +3335,11 @@
       <c r="I76" s="1"/>
       <c r="K76" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221016VME</v>
+        <v>20221016OMF</v>
       </c>
       <c r="L76" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221016VWE</v>
+        <v>20221016OWF</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
@@ -3350,7 +3350,7 @@
         <v>9</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -3359,10 +3359,10 @@
         <v>1</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>19</v>
@@ -3370,22 +3370,22 @@
       <c r="I77" s="1"/>
       <c r="K77" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221016VMS</v>
+        <v>20221016VME</v>
       </c>
       <c r="L77" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221016VWS</v>
+        <v>20221016VWE</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>20221023</v>
+        <v>20221016</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -3394,10 +3394,10 @@
         <v>1</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>19</v>
@@ -3405,11 +3405,11 @@
       <c r="I78" s="1"/>
       <c r="K78" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221023U1720MF</v>
+        <v>20221016VMS</v>
       </c>
       <c r="L78" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221023U1720WF</v>
+        <v>20221016VWS</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
@@ -3417,10 +3417,10 @@
         <v>20221023</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -3440,11 +3440,11 @@
       <c r="I79" s="1"/>
       <c r="K79" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221023U15MS</v>
+        <v>20221023U1720MF</v>
       </c>
       <c r="L79" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221023U15WS</v>
+        <v>20221023U1720WF</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
@@ -3452,10 +3452,10 @@
         <v>20221023</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -3464,10 +3464,10 @@
         <v>1</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>19</v>
@@ -3475,11 +3475,11 @@
       <c r="I80" s="1"/>
       <c r="K80" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221023U13TMF</v>
+        <v>20221023U15MS</v>
       </c>
       <c r="L80" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221023U13TWF</v>
+        <v>20221023U15WS</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
@@ -3487,10 +3487,10 @@
         <v>20221023</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -3499,10 +3499,10 @@
         <v>1</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>19</v>
@@ -3510,11 +3510,11 @@
       <c r="I81" s="1"/>
       <c r="K81" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221023OBME</v>
+        <v>20221023U13TMF</v>
       </c>
       <c r="L81" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221023OBWE</v>
+        <v>20221023U13TWF</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
@@ -3522,10 +3522,10 @@
         <v>20221023</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -3534,10 +3534,10 @@
         <v>1</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>19</v>
@@ -3545,11 +3545,11 @@
       <c r="I82" s="1"/>
       <c r="K82" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221023U1720MS</v>
+        <v>20221023OBME</v>
       </c>
       <c r="L82" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221023U1720WS</v>
+        <v>20221023OBWE</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
@@ -3557,10 +3557,10 @@
         <v>20221023</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -3569,10 +3569,10 @@
         <v>1</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>19</v>
@@ -3580,11 +3580,11 @@
       <c r="I83" s="1"/>
       <c r="K83" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221023OBMF</v>
+        <v>20221023U1720MS</v>
       </c>
       <c r="L83" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221023OBWF</v>
+        <v>20221023U1720WS</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
@@ -3592,10 +3592,10 @@
         <v>20221023</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -3604,10 +3604,10 @@
         <v>1</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>19</v>
@@ -3615,11 +3615,11 @@
       <c r="I84" s="1"/>
       <c r="K84" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221023U1720ME</v>
+        <v>20221023OBMF</v>
       </c>
       <c r="L84" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221023U1720WE</v>
+        <v>20221023OBWF</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
@@ -3627,10 +3627,10 @@
         <v>20221023</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -3639,10 +3639,10 @@
         <v>1</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>19</v>
@@ -3650,22 +3650,22 @@
       <c r="I85" s="1"/>
       <c r="K85" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221023OBMS</v>
+        <v>20221023U1720ME</v>
       </c>
       <c r="L85" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221023OBWS</v>
+        <v>20221023U1720WE</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>20221106</v>
+        <v>20221023</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -3674,18 +3674,18 @@
         <v>1</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I86" s="3"/>
+      <c r="I86" s="1"/>
       <c r="K86" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221106U13BF</v>
+        <v>20221023OBMS</v>
       </c>
       <c r="L86" t="s">
         <v>49</v>
@@ -3696,10 +3696,10 @@
         <v>20221106</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>1</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>19</v>
@@ -3719,11 +3719,11 @@
       <c r="I87" s="3"/>
       <c r="K87" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221106U15ME</v>
+        <v>20221106U13BF</v>
       </c>
       <c r="L87" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221106U15WE</v>
+        <v>20221106U13GF</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
@@ -3731,7 +3731,7 @@
         <v>20221106</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>12</v>
@@ -3743,10 +3743,10 @@
         <v>1</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>19</v>
@@ -3754,11 +3754,11 @@
       <c r="I88" s="3"/>
       <c r="K88" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221106U11BE</v>
+        <v>20221106U15ME</v>
       </c>
       <c r="L88" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221106U11GE</v>
+        <v>20221106U15WE</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
@@ -3766,10 +3766,10 @@
         <v>20221106</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -3786,14 +3786,14 @@
       <c r="H89" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I89" s="1"/>
+      <c r="I89" s="3"/>
       <c r="K89" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221106U9BF</v>
+        <v>20221106U11BE</v>
       </c>
       <c r="L89" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221106U9GF</v>
+        <v>20221106U11GE</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
@@ -3801,7 +3801,7 @@
         <v>20221106</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>11</v>
@@ -3813,22 +3813,22 @@
         <v>1</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I90" s="3"/>
+      <c r="I90" s="1"/>
       <c r="K90" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221106U15MF</v>
+        <v>20221106U9BF</v>
       </c>
       <c r="L90" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221106U15WF</v>
+        <v>20221106U9GF</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
@@ -3836,10 +3836,10 @@
         <v>20221106</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -3848,10 +3848,10 @@
         <v>1</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>19</v>
@@ -3859,11 +3859,11 @@
       <c r="I91" s="3"/>
       <c r="K91" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221106U13BE</v>
+        <v>20221106U15MF</v>
       </c>
       <c r="L91" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221106U13GE</v>
+        <v>20221106U15WF</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
@@ -3871,10 +3871,10 @@
         <v>20221106</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -3894,22 +3894,22 @@
       <c r="I92" s="3"/>
       <c r="K92" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221106U11BF</v>
+        <v>20221106U13BE</v>
       </c>
       <c r="L92" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221106U11GF</v>
+        <v>20221106U13GE</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>20221113</v>
+        <v>20221106</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -3918,22 +3918,22 @@
         <v>1</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I93" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="I93" s="3"/>
       <c r="K93" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221113OME</v>
+        <v>20221106U11BF</v>
       </c>
       <c r="L93" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221113OWE</v>
+        <v>20221106U11GF</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
@@ -3944,7 +3944,7 @@
         <v>18</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -3953,10 +3953,10 @@
         <v>1</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>24</v>
@@ -3964,11 +3964,11 @@
       <c r="I94" s="1"/>
       <c r="K94" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221113OMS</v>
+        <v>20221113OME</v>
       </c>
       <c r="L94" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221113OWS</v>
+        <v>20221113OWE</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
@@ -3976,10 +3976,10 @@
         <v>20221113</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -3999,11 +3999,11 @@
       <c r="I95" s="1"/>
       <c r="K95" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221113VMF</v>
+        <v>20221113OMS</v>
       </c>
       <c r="L95" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221113VWF</v>
+        <v>20221113OWS</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
@@ -4011,7 +4011,7 @@
         <v>20221113</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>11</v>
@@ -4023,10 +4023,10 @@
         <v>1</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>24</v>
@@ -4034,11 +4034,11 @@
       <c r="I96" s="1"/>
       <c r="K96" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221113OMF</v>
+        <v>20221113VMF</v>
       </c>
       <c r="L96" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221113OWF</v>
+        <v>20221113VWF</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
@@ -4046,10 +4046,10 @@
         <v>20221113</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -4069,11 +4069,11 @@
       <c r="I97" s="1"/>
       <c r="K97" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221113VME</v>
+        <v>20221113OMF</v>
       </c>
       <c r="L97" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221113VWE</v>
+        <v>20221113OWF</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
@@ -4084,7 +4084,7 @@
         <v>9</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -4093,10 +4093,10 @@
         <v>1</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>24</v>
@@ -4104,27 +4104,46 @@
       <c r="I98" s="1"/>
       <c r="K98" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221113VMS</v>
+        <v>20221113VME</v>
       </c>
       <c r="L98" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221113VWS</v>
+        <v>20221113VWE</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
-      <c r="F99" s="1"/>
-      <c r="G99" s="1"/>
-      <c r="H99" s="1"/>
+      <c r="A99">
+        <v>20221113</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="I99" s="1"/>
       <c r="K99" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v/>
+        <v>20221113VMS</v>
       </c>
       <c r="L99" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
+        <v>20221113VWS</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
@@ -4366,6 +4385,14 @@
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
+    </row>
+    <row r="116" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+      <c r="F116" s="1"/>
+      <c r="G116" s="1"/>
+      <c r="H116" s="1"/>
+      <c r="I116" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/2022/2022FSAdates.xlsx
+++ b/2022/2022FSAdates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erwin\Dropbox\Competitions\GitHub\FencingSAResults\2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A3CCCF-5DB1-41E1-AFDF-646D794FBFE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB6029E-38D2-42F0-82B2-9A9327FBF6B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5535" yWindow="1080" windowWidth="16380" windowHeight="10980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15765" yWindow="2085" windowWidth="13035" windowHeight="10980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -663,8 +663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:L28"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1676,7 +1676,7 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>26</v>
@@ -1690,11 +1690,11 @@
       <c r="I29" s="3"/>
       <c r="K29" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220529U13TMF</v>
+        <v>20220529U13TF</v>
       </c>
       <c r="L29" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220529U13TWF</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -1711,7 +1711,7 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>26</v>
@@ -1725,11 +1725,11 @@
       <c r="I30" s="3"/>
       <c r="K30" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220529U13TME</v>
+        <v>20220529U13TE</v>
       </c>
       <c r="L30" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220529U13TWE</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>27</v>
@@ -1760,11 +1760,11 @@
       <c r="I31" s="3"/>
       <c r="K31" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220529U17TMF</v>
+        <v>20220529U17TF</v>
       </c>
       <c r="L31" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220529U17TWF</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -1778,7 +1778,7 @@
         <v>12</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -1795,11 +1795,11 @@
       <c r="I32" s="3"/>
       <c r="K32" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220529U17TME</v>
+        <v>N/A</v>
       </c>
       <c r="L32" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220529U17TWE</v>
+        <v/>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -1816,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>32</v>
@@ -1830,11 +1830,11 @@
       <c r="I33" s="3"/>
       <c r="K33" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220529OTMF</v>
+        <v>20220529OTF</v>
       </c>
       <c r="L33" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220529OTWF</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -1851,7 +1851,7 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>32</v>
@@ -1865,11 +1865,11 @@
       <c r="I34" s="3"/>
       <c r="K34" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220529OTME</v>
+        <v>20220529OTE</v>
       </c>
       <c r="L34" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220529OTWE</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -1883,7 +1883,7 @@
         <v>13</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -1900,11 +1900,11 @@
       <c r="I35" s="1"/>
       <c r="K35" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220529OTMS</v>
+        <v>N/A</v>
       </c>
       <c r="L35" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220529OTWS</v>
+        <v/>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">

--- a/2022/2022FSAdates.xlsx
+++ b/2022/2022FSAdates.xlsx
@@ -5,24 +5,27 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erwin\Dropbox\Competitions\GitHub\FencingSAResults\2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FSA\Dropbox\Competitions\GitHub\FencingSAResults\2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB6029E-38D2-42F0-82B2-9A9327FBF6B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A94980-178E-46CD-98F9-52D525A927CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15765" yWindow="2085" windowWidth="13035" windowHeight="10980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -41,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="50">
   <si>
     <t>Date</t>
   </si>
@@ -312,12 +315,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I116" tableType="xml" totalsRowShown="0" connectionId="2">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I115">
-    <sortCondition ref="A2:A115"/>
-    <sortCondition ref="F2:F115"/>
-    <sortCondition ref="B2:B115"/>
-    <sortCondition ref="C2:C115"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I119" tableType="xml" totalsRowShown="0" connectionId="2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I118">
+    <sortCondition ref="A2:A118"/>
+    <sortCondition ref="F2:F118"/>
+    <sortCondition ref="B2:B118"/>
+    <sortCondition ref="C2:C118"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="Date" name="Date">
@@ -653,7 +656,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -661,28 +664,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L116"/>
+  <dimension ref="A1:L119"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" customWidth="1"/>
+    <col min="11" max="11" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -717,7 +720,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>20220227</v>
       </c>
@@ -752,7 +755,7 @@
         <v>20220227OWE</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>20220227</v>
       </c>
@@ -787,7 +790,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>20220227</v>
       </c>
@@ -822,7 +825,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>20220227</v>
       </c>
@@ -857,7 +860,7 @@
         <v>20220227OWF</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>20220227</v>
       </c>
@@ -892,7 +895,7 @@
         <v>20220227VWE</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>20210227</v>
       </c>
@@ -927,7 +930,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>20220327</v>
       </c>
@@ -962,7 +965,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>20220327</v>
       </c>
@@ -997,7 +1000,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20220327</v>
       </c>
@@ -1032,7 +1035,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>20220327</v>
       </c>
@@ -1067,7 +1070,7 @@
         <v>20220327U11GF</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>20220327</v>
       </c>
@@ -1102,7 +1105,7 @@
         <v>20220327U13GF</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>20220327</v>
       </c>
@@ -1137,7 +1140,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>20220327</v>
       </c>
@@ -1172,7 +1175,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>20220410</v>
       </c>
@@ -1207,7 +1210,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>20220410</v>
       </c>
@@ -1242,7 +1245,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>20220410</v>
       </c>
@@ -1277,7 +1280,7 @@
         <v>20220410OBWE</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>20220410</v>
       </c>
@@ -1312,7 +1315,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>20220410</v>
       </c>
@@ -1347,7 +1350,7 @@
         <v>20220410OBWF</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>20220410</v>
       </c>
@@ -1382,7 +1385,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20220410</v>
       </c>
@@ -1417,7 +1420,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20220515</v>
       </c>
@@ -1452,7 +1455,7 @@
         <v>20220515OWE</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>20220515</v>
       </c>
@@ -1487,7 +1490,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>20220515</v>
       </c>
@@ -1522,7 +1525,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>20220515</v>
       </c>
@@ -1557,7 +1560,7 @@
         <v>20220515OWF</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>20220515</v>
       </c>
@@ -1592,7 +1595,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>20220515</v>
       </c>
@@ -1627,7 +1630,7 @@
         <v>20220515VWE</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>20220515</v>
       </c>
@@ -1662,7 +1665,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>20220529</v>
       </c>
@@ -1697,7 +1700,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>20220529</v>
       </c>
@@ -1732,7 +1735,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>20220529</v>
       </c>
@@ -1767,7 +1770,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>20220529</v>
       </c>
@@ -1802,7 +1805,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>20220529</v>
       </c>
@@ -1837,7 +1840,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>20220529</v>
       </c>
@@ -1872,7 +1875,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>20220529</v>
       </c>
@@ -1907,7 +1910,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>20220619</v>
       </c>
@@ -1921,7 +1924,7 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>26</v>
@@ -1935,22 +1938,22 @@
       <c r="I36" s="3"/>
       <c r="K36" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220619U13BF</v>
+        <v>20220619U13F</v>
       </c>
       <c r="L36" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220619U13GF</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>20220619</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -1959,10 +1962,10 @@
         <v>1</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>19</v>
@@ -1970,34 +1973,34 @@
       <c r="I37" s="3"/>
       <c r="K37" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220619U15ME</v>
+        <v>20220619U13BF</v>
       </c>
       <c r="L37" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220619U15WE</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20220619U13GF</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>20220619</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38">
         <v>1</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>19</v>
@@ -2005,25 +2008,25 @@
       <c r="I38" s="3"/>
       <c r="K38" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220619U11BE</v>
+        <v>N/A</v>
       </c>
       <c r="L38" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220619U11GE</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>20220619</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -2037,22 +2040,22 @@
       <c r="H39" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I39" s="1"/>
+      <c r="I39" s="3"/>
       <c r="K39" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220619U9BF</v>
+        <v>N/A</v>
       </c>
       <c r="L39" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220619U9GF</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>20220619</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>11</v>
@@ -2061,68 +2064,68 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I40" s="3"/>
+      <c r="I40" s="1"/>
       <c r="K40" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220619U15MF</v>
+        <v>20220619U9F</v>
       </c>
       <c r="L40" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220619U15WF</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>20220619</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I41" s="3"/>
+      <c r="I41" s="1"/>
       <c r="K41" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220619U13BE</v>
+        <v>20220619U15F</v>
       </c>
       <c r="L41" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220619U13GE</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>20220619</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>11</v>
@@ -2134,10 +2137,10 @@
         <v>1</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>19</v>
@@ -2145,34 +2148,34 @@
       <c r="I42" s="3"/>
       <c r="K42" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220619U11BF</v>
+        <v>20220619U15MF</v>
       </c>
       <c r="L42" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220619U11GF</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20220619U15WF</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>20220626</v>
+        <v>20220619</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43">
         <v>1</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>19</v>
@@ -2180,34 +2183,34 @@
       <c r="I43" s="3"/>
       <c r="K43" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220626U1720MF</v>
+        <v>N/A</v>
       </c>
       <c r="L43" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220626U1720WF</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>20220626</v>
+        <v>20220619</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>19</v>
@@ -2215,22 +2218,22 @@
       <c r="I44" s="3"/>
       <c r="K44" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220626U15MS</v>
+        <v>20220619U11F</v>
       </c>
       <c r="L44" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220626U15WS</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>20220626</v>
+        <v>20220619</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -2239,10 +2242,10 @@
         <v>1</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>19</v>
@@ -2250,14 +2253,14 @@
       <c r="I45" s="3"/>
       <c r="K45" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220626OBME</v>
+        <v>20220619U11BF</v>
       </c>
       <c r="L45" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220626OBWE</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20220619U11GF</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>20220626</v>
       </c>
@@ -2265,7 +2268,7 @@
         <v>25</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -2274,10 +2277,10 @@
         <v>1</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>19</v>
@@ -2285,22 +2288,22 @@
       <c r="I46" s="3"/>
       <c r="K46" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220626U1720MS</v>
+        <v>20220626U1720MF</v>
       </c>
       <c r="L46" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220626U1720WS</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20220626U1720WF</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>20220626</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -2309,10 +2312,10 @@
         <v>1</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>19</v>
@@ -2320,19 +2323,19 @@
       <c r="I47" s="3"/>
       <c r="K47" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220626OBMF</v>
+        <v>20220626U15MS</v>
       </c>
       <c r="L47" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220626OBWF</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20220626U15WS</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>20220626</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>12</v>
@@ -2344,10 +2347,10 @@
         <v>1</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>19</v>
@@ -2355,19 +2358,19 @@
       <c r="I48" s="3"/>
       <c r="K48" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220626U1720ME</v>
+        <v>20220626OBME</v>
       </c>
       <c r="L48" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220626U1720WE</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20220626OBWE</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>20220626</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>13</v>
@@ -2379,10 +2382,10 @@
         <v>1</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>19</v>
@@ -2390,22 +2393,22 @@
       <c r="I49" s="3"/>
       <c r="K49" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220626OBMS</v>
+        <v>20220626U1720MS</v>
       </c>
       <c r="L49" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220626OBWS</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20220626U1720WS</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>20220807</v>
+        <v>20220626</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -2414,10 +2417,10 @@
         <v>1</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>19</v>
@@ -2425,22 +2428,22 @@
       <c r="I50" s="3"/>
       <c r="K50" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220807OME</v>
+        <v>20220626OBMF</v>
       </c>
       <c r="L50" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220807OWE</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20220626OBWF</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>20220807</v>
+        <v>20220626</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -2449,10 +2452,10 @@
         <v>1</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>19</v>
@@ -2460,22 +2463,22 @@
       <c r="I51" s="3"/>
       <c r="K51" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220807OMS</v>
+        <v>20220626U1720ME</v>
       </c>
       <c r="L51" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220807OWS</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20220626U1720WE</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>20220807</v>
+        <v>20220626</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -2484,10 +2487,10 @@
         <v>1</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>19</v>
@@ -2495,14 +2498,14 @@
       <c r="I52" s="3"/>
       <c r="K52" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220807VMF</v>
+        <v>20220626OBMS</v>
       </c>
       <c r="L52" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220807VWF</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20220626OBWS</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>20220807</v>
       </c>
@@ -2510,7 +2513,7 @@
         <v>18</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -2519,10 +2522,10 @@
         <v>1</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>19</v>
@@ -2530,22 +2533,22 @@
       <c r="I53" s="3"/>
       <c r="K53" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220807OMF</v>
+        <v>20220807OME</v>
       </c>
       <c r="L53" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220807OWF</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20220807OWE</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>20220807</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -2554,10 +2557,10 @@
         <v>1</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>19</v>
@@ -2565,14 +2568,14 @@
       <c r="I54" s="3"/>
       <c r="K54" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220807VME</v>
+        <v>20220807OMS</v>
       </c>
       <c r="L54" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220807VWE</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20220807OWS</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>20220807</v>
       </c>
@@ -2580,7 +2583,7 @@
         <v>9</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -2589,10 +2592,10 @@
         <v>1</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>19</v>
@@ -2600,19 +2603,19 @@
       <c r="I55" s="3"/>
       <c r="K55" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220807VMS</v>
+        <v>20220807VMF</v>
       </c>
       <c r="L55" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220807VWS</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20220807VWF</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>20220821</v>
+        <v>20220807</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>11</v>
@@ -2624,10 +2627,10 @@
         <v>1</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>19</v>
@@ -2635,19 +2638,19 @@
       <c r="I56" s="3"/>
       <c r="K56" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220821U13BF</v>
+        <v>20220807OMF</v>
       </c>
       <c r="L56" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220821U13GF</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20220807OWF</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>20220821</v>
+        <v>20220807</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>12</v>
@@ -2659,10 +2662,10 @@
         <v>1</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>19</v>
@@ -2670,22 +2673,22 @@
       <c r="I57" s="3"/>
       <c r="K57" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220821U15ME</v>
+        <v>20220807VME</v>
       </c>
       <c r="L57" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220821U15WE</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20220807VWE</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>20220821</v>
+        <v>20220807</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -2694,10 +2697,10 @@
         <v>1</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>19</v>
@@ -2705,19 +2708,19 @@
       <c r="I58" s="3"/>
       <c r="K58" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220821U11BE</v>
+        <v>20220807VMS</v>
       </c>
       <c r="L58" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220821U11GE</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20220807VWS</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>20220821</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>11</v>
@@ -2729,10 +2732,10 @@
         <v>1</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>19</v>
@@ -2740,19 +2743,19 @@
       <c r="I59" s="3"/>
       <c r="K59" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220821U15MF</v>
+        <v>20220821U13BF</v>
       </c>
       <c r="L59" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220821U15WF</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20220821U13GF</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>20220821</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>12</v>
@@ -2764,10 +2767,10 @@
         <v>1</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>19</v>
@@ -2775,14 +2778,14 @@
       <c r="I60" s="3"/>
       <c r="K60" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220821U13BE</v>
+        <v>20220821U15ME</v>
       </c>
       <c r="L60" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220821U13GE</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20220821U15WE</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>20220821</v>
       </c>
@@ -2790,7 +2793,7 @@
         <v>20</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -2799,10 +2802,10 @@
         <v>1</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>19</v>
@@ -2810,19 +2813,19 @@
       <c r="I61" s="3"/>
       <c r="K61" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220821U11BF</v>
+        <v>20220821U11BE</v>
       </c>
       <c r="L61" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220821U11GF</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20220821U11GE</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>20220911</v>
+        <v>20220821</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>11</v>
@@ -2834,33 +2837,33 @@
         <v>1</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I62" s="3"/>
       <c r="K62" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220911U1720MF</v>
+        <v>20220821U15MF</v>
       </c>
       <c r="L62" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220911U1720WF</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20220821U15WF</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>20220911</v>
+        <v>20220821</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -2869,33 +2872,33 @@
         <v>1</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I63" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="I63" s="3"/>
       <c r="K63" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220911U15MS</v>
+        <v>20220821U13BE</v>
       </c>
       <c r="L63" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220911U15WS</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20220821U13GE</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>20220911</v>
+        <v>20220821</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -2904,25 +2907,25 @@
         <v>1</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I64" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="I64" s="3"/>
       <c r="K64" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220911OBME</v>
+        <v>20220821U11BF</v>
       </c>
       <c r="L64" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220911OBWE</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20220821U11GF</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>20220911</v>
       </c>
@@ -2930,7 +2933,7 @@
         <v>25</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -2939,33 +2942,33 @@
         <v>1</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I65" s="1"/>
+      <c r="I65" s="3"/>
       <c r="K65" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220911U1720MS</v>
+        <v>20220911U1720MF</v>
       </c>
       <c r="L65" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220911U1720WS</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20220911U1720WF</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>20220911</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -2974,10 +2977,10 @@
         <v>1</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>24</v>
@@ -2985,19 +2988,19 @@
       <c r="I66" s="1"/>
       <c r="K66" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220911OBMF</v>
+        <v>20220911U15MS</v>
       </c>
       <c r="L66" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220911OBWF</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20220911U15WS</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>20220911</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>12</v>
@@ -3009,10 +3012,10 @@
         <v>1</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>24</v>
@@ -3020,19 +3023,19 @@
       <c r="I67" s="1"/>
       <c r="K67" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220911U1720ME</v>
+        <v>20220911OBME</v>
       </c>
       <c r="L67" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220911U1720WE</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20220911OBWE</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>20220911</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>13</v>
@@ -3044,10 +3047,10 @@
         <v>1</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>24</v>
@@ -3055,19 +3058,19 @@
       <c r="I68" s="1"/>
       <c r="K68" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220911OBMS</v>
+        <v>20220911U1720MS</v>
       </c>
       <c r="L68" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220911OBWS</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20220911U1720WS</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>20220918</v>
+        <v>20220911</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>11</v>
@@ -3079,30 +3082,30 @@
         <v>1</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="I69" s="1"/>
       <c r="K69" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220918U17MF</v>
+        <v>20220911OBMF</v>
       </c>
       <c r="L69" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220918U17WF</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20220911OBWF</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>20220918</v>
+        <v>20220911</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>12</v>
@@ -3114,33 +3117,33 @@
         <v>1</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="I70" s="1"/>
       <c r="K70" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220918U17ME</v>
+        <v>20220911U1720ME</v>
       </c>
       <c r="L70" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220918U17WE</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20220911U1720WE</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>20220918</v>
+        <v>20220911</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -3149,33 +3152,33 @@
         <v>1</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="I71" s="1"/>
       <c r="K71" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220918U17TMF</v>
+        <v>20220911OBMS</v>
       </c>
       <c r="L71" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220918U17TWF</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20220911OBWS</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>20220918</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -3184,10 +3187,10 @@
         <v>1</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>44</v>
@@ -3195,19 +3198,19 @@
       <c r="I72" s="1"/>
       <c r="K72" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220918U17TME</v>
+        <v>20220918U17MF</v>
       </c>
       <c r="L72" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220918U17TWE</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20220918U17WF</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>20221016</v>
+        <v>20220918</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>12</v>
@@ -3225,27 +3228,27 @@
         <v>33</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="I73" s="1"/>
       <c r="K73" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221016OME</v>
+        <v>20220918U17ME</v>
       </c>
       <c r="L73" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221016OWE</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20220918U17WE</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>20221016</v>
+        <v>20220918</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -3254,33 +3257,33 @@
         <v>1</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="I74" s="1"/>
       <c r="K74" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221016OMS</v>
+        <v>20220918U17TMF</v>
       </c>
       <c r="L74" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221016OWS</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20220918U17TWF</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>20221016</v>
+        <v>20220918</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -3289,25 +3292,25 @@
         <v>1</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="I75" s="1"/>
       <c r="K75" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221016VMF</v>
+        <v>20220918U17TME</v>
       </c>
       <c r="L75" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221016VWF</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20220918U17TWE</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>20221016</v>
       </c>
@@ -3315,7 +3318,7 @@
         <v>18</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -3324,10 +3327,10 @@
         <v>1</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>19</v>
@@ -3335,22 +3338,22 @@
       <c r="I76" s="1"/>
       <c r="K76" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221016OMF</v>
+        <v>20221016OME</v>
       </c>
       <c r="L76" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221016OWF</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20221016OWE</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>20221016</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -3359,10 +3362,10 @@
         <v>1</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>19</v>
@@ -3370,14 +3373,14 @@
       <c r="I77" s="1"/>
       <c r="K77" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221016VME</v>
+        <v>20221016OMS</v>
       </c>
       <c r="L77" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221016VWE</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20221016OWS</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>20221016</v>
       </c>
@@ -3385,7 +3388,7 @@
         <v>9</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -3394,10 +3397,10 @@
         <v>1</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>19</v>
@@ -3405,19 +3408,19 @@
       <c r="I78" s="1"/>
       <c r="K78" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221016VMS</v>
+        <v>20221016VMF</v>
       </c>
       <c r="L78" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221016VWS</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20221016VWF</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>20221023</v>
+        <v>20221016</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>11</v>
@@ -3429,10 +3432,10 @@
         <v>1</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>19</v>
@@ -3440,22 +3443,22 @@
       <c r="I79" s="1"/>
       <c r="K79" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221023U1720MF</v>
+        <v>20221016OMF</v>
       </c>
       <c r="L79" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221023U1720WF</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20221016OWF</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>20221023</v>
+        <v>20221016</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -3464,10 +3467,10 @@
         <v>1</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>19</v>
@@ -3475,22 +3478,22 @@
       <c r="I80" s="1"/>
       <c r="K80" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221023U15MS</v>
+        <v>20221016VME</v>
       </c>
       <c r="L80" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221023U15WS</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20221016VWE</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>20221023</v>
+        <v>20221016</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -3499,10 +3502,10 @@
         <v>1</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>19</v>
@@ -3510,22 +3513,22 @@
       <c r="I81" s="1"/>
       <c r="K81" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221023U13TMF</v>
+        <v>20221016VMS</v>
       </c>
       <c r="L81" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221023U13TWF</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20221016VWS</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>20221023</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -3534,10 +3537,10 @@
         <v>1</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>19</v>
@@ -3545,19 +3548,19 @@
       <c r="I82" s="1"/>
       <c r="K82" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221023OBME</v>
+        <v>20221023U1720MF</v>
       </c>
       <c r="L82" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221023OBWE</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20221023U1720WF</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>20221023</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>13</v>
@@ -3569,10 +3572,10 @@
         <v>1</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>19</v>
@@ -3580,19 +3583,19 @@
       <c r="I83" s="1"/>
       <c r="K83" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221023U1720MS</v>
+        <v>20221023U15MS</v>
       </c>
       <c r="L83" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221023U1720WS</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20221023U15WS</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>20221023</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>11</v>
@@ -3604,10 +3607,10 @@
         <v>1</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>19</v>
@@ -3615,19 +3618,19 @@
       <c r="I84" s="1"/>
       <c r="K84" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221023OBMF</v>
+        <v>20221023U13TMF</v>
       </c>
       <c r="L84" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221023OBWF</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20221023U13TWF</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>20221023</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>12</v>
@@ -3639,10 +3642,10 @@
         <v>1</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>19</v>
@@ -3650,19 +3653,19 @@
       <c r="I85" s="1"/>
       <c r="K85" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221023U1720ME</v>
+        <v>20221023OBME</v>
       </c>
       <c r="L85" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221023U1720WE</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20221023OBWE</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>20221023</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>13</v>
@@ -3674,10 +3677,10 @@
         <v>1</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>19</v>
@@ -3685,18 +3688,18 @@
       <c r="I86" s="1"/>
       <c r="K86" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221023OBMS</v>
+        <v>20221023U1720MS</v>
       </c>
       <c r="L86" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>20221106</v>
+        <v>20221023</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>11</v>
@@ -3708,30 +3711,30 @@
         <v>1</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I87" s="3"/>
+      <c r="I87" s="1"/>
       <c r="K87" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221106U13BF</v>
+        <v>20221023OBMF</v>
       </c>
       <c r="L87" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221106U13GF</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20221023OBWF</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>20221106</v>
+        <v>20221023</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>12</v>
@@ -3743,33 +3746,33 @@
         <v>1</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I88" s="3"/>
+      <c r="I88" s="1"/>
       <c r="K88" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221106U15ME</v>
+        <v>20221023U1720ME</v>
       </c>
       <c r="L88" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221106U15WE</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20221023U1720WE</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>20221106</v>
+        <v>20221023</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -3778,30 +3781,30 @@
         <v>1</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I89" s="3"/>
+      <c r="I89" s="1"/>
       <c r="K89" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221106U11BE</v>
+        <v>20221023OBMS</v>
       </c>
       <c r="L89" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221106U11GE</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20221023OBWS</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>20221106</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>11</v>
@@ -3813,25 +3816,25 @@
         <v>1</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I90" s="1"/>
+      <c r="I90" s="3"/>
       <c r="K90" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221106U9BF</v>
+        <v>20221106U13BF</v>
       </c>
       <c r="L90" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221106U9GF</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20221106U13GF</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>20221106</v>
       </c>
@@ -3839,7 +3842,7 @@
         <v>8</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -3848,10 +3851,10 @@
         <v>1</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>19</v>
@@ -3859,19 +3862,19 @@
       <c r="I91" s="3"/>
       <c r="K91" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221106U15MF</v>
+        <v>20221106U15ME</v>
       </c>
       <c r="L91" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221106U15WF</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20221106U15WE</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>20221106</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>12</v>
@@ -3883,10 +3886,10 @@
         <v>1</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>19</v>
@@ -3894,19 +3897,19 @@
       <c r="I92" s="3"/>
       <c r="K92" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221106U13BE</v>
+        <v>20221106U11BE</v>
       </c>
       <c r="L92" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221106U13GE</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20221106U11GE</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>20221106</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>11</v>
@@ -3918,100 +3921,100 @@
         <v>1</v>
       </c>
       <c r="F93" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I93" s="1"/>
+      <c r="K93" t="str">
+        <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
+        <v>20221106U9BF</v>
+      </c>
+      <c r="L93" t="str">
+        <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
+        <v>20221106U9GF</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>20221106</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I94" s="3"/>
+      <c r="K94" t="str">
+        <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
+        <v>20221106U15MF</v>
+      </c>
+      <c r="L94" t="str">
+        <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
+        <v>20221106U15WF</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>20221106</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="F95" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G93" s="1" t="s">
+      <c r="G95" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H93" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I93" s="3"/>
-      <c r="K93" t="str">
-        <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221106U11BF</v>
-      </c>
-      <c r="L93" t="str">
-        <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221106U11GF</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>20221113</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D94">
-        <v>0</v>
-      </c>
-      <c r="E94">
-        <v>1</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H94" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I94" s="1"/>
-      <c r="K94" t="str">
-        <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221113OME</v>
-      </c>
-      <c r="L94" t="str">
-        <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221113OWE</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>20221113</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D95">
-        <v>0</v>
-      </c>
-      <c r="E95">
-        <v>1</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="H95" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I95" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="I95" s="3"/>
       <c r="K95" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221113OMS</v>
+        <v>20221106U13BE</v>
       </c>
       <c r="L95" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221113OWS</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20221106U13GE</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>20221113</v>
+        <v>20221106</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>11</v>
@@ -4023,25 +4026,25 @@
         <v>1</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I96" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="I96" s="3"/>
       <c r="K96" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221113VMF</v>
+        <v>20221106U11BF</v>
       </c>
       <c r="L96" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221113VWF</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20221106U11GF</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>20221113</v>
       </c>
@@ -4049,7 +4052,7 @@
         <v>18</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -4058,10 +4061,10 @@
         <v>1</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>24</v>
@@ -4069,22 +4072,22 @@
       <c r="I97" s="1"/>
       <c r="K97" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221113OMF</v>
+        <v>20221113OME</v>
       </c>
       <c r="L97" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221113OWF</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20221113OWE</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>20221113</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -4093,10 +4096,10 @@
         <v>1</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>24</v>
@@ -4104,14 +4107,14 @@
       <c r="I98" s="1"/>
       <c r="K98" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221113VME</v>
+        <v>20221113OMS</v>
       </c>
       <c r="L98" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221113VWE</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20221113OWS</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>20221113</v>
       </c>
@@ -4119,7 +4122,7 @@
         <v>9</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -4128,10 +4131,10 @@
         <v>1</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>24</v>
@@ -4139,62 +4142,119 @@
       <c r="I99" s="1"/>
       <c r="K99" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221113VMS</v>
+        <v>20221113VMF</v>
       </c>
       <c r="L99" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221113VWS</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
-      <c r="F100" s="1"/>
-      <c r="G100" s="1"/>
-      <c r="H100" s="1"/>
+        <v>20221113VWF</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>20221113</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="I100" s="1"/>
       <c r="K100" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v/>
+        <v>20221113OMF</v>
       </c>
       <c r="L100" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
-      <c r="F101" s="1"/>
-      <c r="G101" s="1"/>
-      <c r="H101" s="1"/>
+        <v>20221113OWF</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>20221113</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="I101" s="1"/>
       <c r="K101" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v/>
+        <v>20221113VME</v>
       </c>
       <c r="L101" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
-      <c r="F102" s="1"/>
-      <c r="G102" s="1"/>
-      <c r="H102" s="1"/>
+        <v>20221113VWE</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>20221113</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="I102" s="1"/>
       <c r="K102" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v/>
+        <v>20221113VMS</v>
       </c>
       <c r="L102" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20221113VWS</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="F103" s="1"/>
@@ -4210,7 +4270,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="F104" s="1"/>
@@ -4226,7 +4286,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="F105" s="1"/>
@@ -4242,7 +4302,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="F106" s="1"/>
@@ -4258,7 +4318,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="F107" s="1"/>
@@ -4274,7 +4334,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="F108" s="1"/>
@@ -4290,7 +4350,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="F109" s="1"/>
@@ -4306,7 +4366,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="F110" s="1"/>
@@ -4322,7 +4382,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="F111" s="1"/>
@@ -4338,7 +4398,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="F112" s="1"/>
@@ -4354,7 +4414,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="113" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="F113" s="1"/>
@@ -4370,7 +4430,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="114" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="F114" s="1"/>
@@ -4378,7 +4438,7 @@
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
     </row>
-    <row r="115" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="F115" s="1"/>
@@ -4386,13 +4446,37 @@
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
     </row>
-    <row r="116" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
+    </row>
+    <row r="117" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+      <c r="F117" s="1"/>
+      <c r="G117" s="1"/>
+      <c r="H117" s="1"/>
+      <c r="I117" s="1"/>
+    </row>
+    <row r="118" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+      <c r="F118" s="1"/>
+      <c r="G118" s="1"/>
+      <c r="H118" s="1"/>
+      <c r="I118" s="1"/>
+    </row>
+    <row r="119" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
+      <c r="F119" s="1"/>
+      <c r="G119" s="1"/>
+      <c r="H119" s="1"/>
+      <c r="I119" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/2022/2022FSAdates.xlsx
+++ b/2022/2022FSAdates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FSA\Dropbox\Competitions\GitHub\FencingSAResults\2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A94980-178E-46CD-98F9-52D525A927CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD4EE44-7BCA-482D-A1BE-4186B7AA8DE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -666,8 +666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A81" sqref="A81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2927,7 +2927,7 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>20220911</v>
+        <v>20220918</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>25</v>
@@ -2953,16 +2953,16 @@
       <c r="I65" s="3"/>
       <c r="K65" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220911U1720MF</v>
+        <v>20220918U1720MF</v>
       </c>
       <c r="L65" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220911U1720WF</v>
+        <v>20220918U1720WF</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>20220911</v>
+        <v>20220918</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>8</v>
@@ -2988,16 +2988,16 @@
       <c r="I66" s="1"/>
       <c r="K66" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220911U15MS</v>
+        <v>20220918U15MS</v>
       </c>
       <c r="L66" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220911U15WS</v>
+        <v>20220918U15WS</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>20220911</v>
+        <v>20220918</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>7</v>
@@ -3023,16 +3023,16 @@
       <c r="I67" s="1"/>
       <c r="K67" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220911OBME</v>
+        <v>20220918OBME</v>
       </c>
       <c r="L67" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220911OBWE</v>
+        <v>20220918OBWE</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>20220911</v>
+        <v>20220918</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>25</v>
@@ -3058,16 +3058,16 @@
       <c r="I68" s="1"/>
       <c r="K68" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220911U1720MS</v>
+        <v>20220918U1720MS</v>
       </c>
       <c r="L68" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220911U1720WS</v>
+        <v>20220918U1720WS</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>20220911</v>
+        <v>20220918</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>7</v>
@@ -3093,16 +3093,16 @@
       <c r="I69" s="1"/>
       <c r="K69" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220911OBMF</v>
+        <v>20220918OBMF</v>
       </c>
       <c r="L69" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220911OBWF</v>
+        <v>20220918OBWF</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>20220911</v>
+        <v>20220918</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>25</v>
@@ -3128,16 +3128,16 @@
       <c r="I70" s="1"/>
       <c r="K70" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220911U1720ME</v>
+        <v>20220918U1720ME</v>
       </c>
       <c r="L70" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220911U1720WE</v>
+        <v>20220918U1720WE</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>20220911</v>
+        <v>20220918</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>7</v>
@@ -3163,16 +3163,16 @@
       <c r="I71" s="1"/>
       <c r="K71" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220911OBMS</v>
+        <v>20220918OBMS</v>
       </c>
       <c r="L71" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220911OBWS</v>
+        <v>20220918OBWS</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>20220918</v>
+        <v>20220911</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>43</v>
@@ -3198,16 +3198,16 @@
       <c r="I72" s="1"/>
       <c r="K72" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220918U17MF</v>
+        <v>20220911U17MF</v>
       </c>
       <c r="L72" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220918U17WF</v>
+        <v>20220911U17WF</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>20220918</v>
+        <v>20220911</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>43</v>
@@ -3233,16 +3233,16 @@
       <c r="I73" s="1"/>
       <c r="K73" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220918U17ME</v>
+        <v>20220911U17ME</v>
       </c>
       <c r="L73" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220918U17WE</v>
+        <v>20220911U17WE</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>20220918</v>
+        <v>20220911</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>40</v>
@@ -3268,16 +3268,16 @@
       <c r="I74" s="1"/>
       <c r="K74" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220918U17TMF</v>
+        <v>20220911U17TMF</v>
       </c>
       <c r="L74" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220918U17TWF</v>
+        <v>20220911U17TWF</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>20220918</v>
+        <v>20220911</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>40</v>
@@ -3303,16 +3303,16 @@
       <c r="I75" s="1"/>
       <c r="K75" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220918U17TME</v>
+        <v>20220911U17TME</v>
       </c>
       <c r="L75" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220918U17TWE</v>
+        <v>20220911U17TWE</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>20221016</v>
+        <v>20221008</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>18</v>
@@ -3338,16 +3338,16 @@
       <c r="I76" s="1"/>
       <c r="K76" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221016OME</v>
+        <v>20221008OME</v>
       </c>
       <c r="L76" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221016OWE</v>
+        <v>20221008OWE</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>20221016</v>
+        <v>20221008</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>18</v>
@@ -3373,16 +3373,16 @@
       <c r="I77" s="1"/>
       <c r="K77" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221016OMS</v>
+        <v>20221008OMS</v>
       </c>
       <c r="L77" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221016OWS</v>
+        <v>20221008OWS</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>20221016</v>
+        <v>20221008</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>9</v>
@@ -3408,16 +3408,16 @@
       <c r="I78" s="1"/>
       <c r="K78" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221016VMF</v>
+        <v>20221008VMF</v>
       </c>
       <c r="L78" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221016VWF</v>
+        <v>20221008VWF</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>20221016</v>
+        <v>20221008</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>18</v>
@@ -3443,16 +3443,16 @@
       <c r="I79" s="1"/>
       <c r="K79" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221016OMF</v>
+        <v>20221008OMF</v>
       </c>
       <c r="L79" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221016OWF</v>
+        <v>20221008OWF</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>20221016</v>
+        <v>20221008</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>9</v>
@@ -3478,16 +3478,16 @@
       <c r="I80" s="1"/>
       <c r="K80" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221016VME</v>
+        <v>20221008VME</v>
       </c>
       <c r="L80" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221016VWE</v>
+        <v>20221008VWE</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>20221016</v>
+        <v>20221008</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>9</v>
@@ -3513,11 +3513,11 @@
       <c r="I81" s="1"/>
       <c r="K81" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221016VMS</v>
+        <v>20221008VMS</v>
       </c>
       <c r="L81" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221016VWS</v>
+        <v>20221008VWS</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">

--- a/2022/2022FSAdates.xlsx
+++ b/2022/2022FSAdates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FSA\Dropbox\Competitions\GitHub\FencingSAResults\2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD4EE44-7BCA-482D-A1BE-4186B7AA8DE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A7FF70-C646-4549-9C2C-B21711F5805D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="50">
   <si>
     <t>Date</t>
   </si>
@@ -315,12 +315,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I119" tableType="xml" totalsRowShown="0" connectionId="2">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I118">
-    <sortCondition ref="A2:A118"/>
-    <sortCondition ref="F2:F118"/>
-    <sortCondition ref="B2:B118"/>
-    <sortCondition ref="C2:C118"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I121" tableType="xml" totalsRowShown="0" connectionId="2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I120">
+    <sortCondition ref="A2:A120"/>
+    <sortCondition ref="F2:F120"/>
+    <sortCondition ref="B2:B120"/>
+    <sortCondition ref="C2:C120"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="Date" name="Date">
@@ -664,10 +664,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L119"/>
+  <dimension ref="A1:L121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A81" sqref="A81"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2519,7 +2519,7 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>26</v>
@@ -2533,11 +2533,11 @@
       <c r="I53" s="3"/>
       <c r="K53" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220807OME</v>
+        <v>20220807OE</v>
       </c>
       <c r="L53" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220807OWE</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
@@ -2548,7 +2548,7 @@
         <v>18</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -2557,10 +2557,10 @@
         <v>1</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>19</v>
@@ -2568,11 +2568,11 @@
       <c r="I54" s="3"/>
       <c r="K54" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220807OMS</v>
+        <v>20220807OME</v>
       </c>
       <c r="L54" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220807OWS</v>
+        <v>20220807OWE</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
@@ -2580,16 +2580,16 @@
         <v>20220807</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>31</v>
@@ -2603,11 +2603,11 @@
       <c r="I55" s="3"/>
       <c r="K55" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220807VMF</v>
+        <v>20220807OS</v>
       </c>
       <c r="L55" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220807VWF</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
@@ -2615,22 +2615,22 @@
         <v>20220807</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E56">
         <v>1</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>19</v>
@@ -2638,11 +2638,11 @@
       <c r="I56" s="3"/>
       <c r="K56" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220807OMF</v>
+        <v>N/A</v>
       </c>
       <c r="L56" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220807OWF</v>
+        <v/>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
@@ -2650,16 +2650,16 @@
         <v>20220807</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>32</v>
@@ -2673,11 +2673,11 @@
       <c r="I57" s="3"/>
       <c r="K57" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220807VME</v>
+        <v>20220807OF</v>
       </c>
       <c r="L57" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220807VWE</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
@@ -2685,10 +2685,10 @@
         <v>20220807</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -2697,10 +2697,10 @@
         <v>1</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>19</v>
@@ -2708,34 +2708,34 @@
       <c r="I58" s="3"/>
       <c r="K58" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220807VMS</v>
+        <v>20220807OMF</v>
       </c>
       <c r="L58" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220807VWS</v>
+        <v>20220807OWF</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>20220821</v>
+        <v>20220807</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D59">
         <v>0</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>19</v>
@@ -2743,34 +2743,34 @@
       <c r="I59" s="3"/>
       <c r="K59" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220821U13BF</v>
+        <v>20220807VE</v>
       </c>
       <c r="L59" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220821U13GF</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>20220821</v>
+        <v>20220807</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E60">
         <v>1</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>19</v>
@@ -2778,11 +2778,11 @@
       <c r="I60" s="3"/>
       <c r="K60" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220821U15ME</v>
+        <v>N/A</v>
       </c>
       <c r="L60" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220821U15WE</v>
+        <v/>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
@@ -2790,10 +2790,10 @@
         <v>20220821</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -2802,10 +2802,10 @@
         <v>1</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>19</v>
@@ -2813,11 +2813,11 @@
       <c r="I61" s="3"/>
       <c r="K61" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220821U11BE</v>
+        <v>20220821U13BF</v>
       </c>
       <c r="L61" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220821U11GE</v>
+        <v>20220821U13GF</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
@@ -2828,7 +2828,7 @@
         <v>8</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -2837,10 +2837,10 @@
         <v>1</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>19</v>
@@ -2848,11 +2848,11 @@
       <c r="I62" s="3"/>
       <c r="K62" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220821U15MF</v>
+        <v>20220821U15ME</v>
       </c>
       <c r="L62" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220821U15WF</v>
+        <v>20220821U15WE</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
@@ -2860,7 +2860,7 @@
         <v>20220821</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>12</v>
@@ -2872,10 +2872,10 @@
         <v>1</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>19</v>
@@ -2883,11 +2883,11 @@
       <c r="I63" s="3"/>
       <c r="K63" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220821U13BE</v>
+        <v>20220821U11BE</v>
       </c>
       <c r="L63" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220821U13GE</v>
+        <v>20220821U11GE</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
@@ -2895,7 +2895,7 @@
         <v>20220821</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>11</v>
@@ -2907,10 +2907,10 @@
         <v>1</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>19</v>
@@ -2918,22 +2918,22 @@
       <c r="I64" s="3"/>
       <c r="K64" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220821U11BF</v>
+        <v>20220821U15MF</v>
       </c>
       <c r="L64" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220821U11GF</v>
+        <v>20220821U15WF</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>20220918</v>
+        <v>20220821</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -2942,33 +2942,33 @@
         <v>1</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I65" s="3"/>
       <c r="K65" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220918U1720MF</v>
+        <v>20220821U13BE</v>
       </c>
       <c r="L65" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220918U1720WF</v>
+        <v>20220821U13GE</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>20220918</v>
+        <v>20220821</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -2977,22 +2977,22 @@
         <v>1</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I66" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="I66" s="3"/>
       <c r="K66" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220918U15MS</v>
+        <v>20220821U11BF</v>
       </c>
       <c r="L66" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220918U15WS</v>
+        <v>20220821U11GF</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
@@ -3000,10 +3000,10 @@
         <v>20220918</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -3012,22 +3012,22 @@
         <v>1</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I67" s="1"/>
+      <c r="I67" s="3"/>
       <c r="K67" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220918OBME</v>
+        <v>20220918U1720MF</v>
       </c>
       <c r="L67" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220918OBWE</v>
+        <v>20220918U1720WF</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
@@ -3035,7 +3035,7 @@
         <v>20220918</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>13</v>
@@ -3047,10 +3047,10 @@
         <v>1</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>24</v>
@@ -3058,11 +3058,11 @@
       <c r="I68" s="1"/>
       <c r="K68" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220918U1720MS</v>
+        <v>20220918U15MS</v>
       </c>
       <c r="L68" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220918U1720WS</v>
+        <v>20220918U15WS</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
@@ -3073,7 +3073,7 @@
         <v>7</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -3082,10 +3082,10 @@
         <v>1</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>24</v>
@@ -3093,11 +3093,11 @@
       <c r="I69" s="1"/>
       <c r="K69" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220918OBMF</v>
+        <v>20220918OBME</v>
       </c>
       <c r="L69" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220918OBWF</v>
+        <v>20220918OBWE</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
@@ -3108,7 +3108,7 @@
         <v>25</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -3117,10 +3117,10 @@
         <v>1</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>24</v>
@@ -3128,11 +3128,11 @@
       <c r="I70" s="1"/>
       <c r="K70" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220918U1720ME</v>
+        <v>20220918U1720MS</v>
       </c>
       <c r="L70" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220918U1720WE</v>
+        <v>20220918U1720WS</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
@@ -3143,7 +3143,7 @@
         <v>7</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -3152,10 +3152,10 @@
         <v>1</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>24</v>
@@ -3163,22 +3163,22 @@
       <c r="I71" s="1"/>
       <c r="K71" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220918OBMS</v>
+        <v>20220918OBMF</v>
       </c>
       <c r="L71" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220918OBWS</v>
+        <v>20220918OBWF</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>20220911</v>
+        <v>20220918</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -3187,33 +3187,33 @@
         <v>1</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="I72" s="1"/>
       <c r="K72" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220911U17MF</v>
+        <v>20220918U1720ME</v>
       </c>
       <c r="L72" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220911U17WF</v>
+        <v>20220918U1720WE</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>20220911</v>
+        <v>20220918</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -3222,22 +3222,22 @@
         <v>1</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="I73" s="1"/>
       <c r="K73" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220911U17ME</v>
+        <v>20220918OBMS</v>
       </c>
       <c r="L73" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220911U17WE</v>
+        <v>20220918OBWS</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
@@ -3245,7 +3245,7 @@
         <v>20220911</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>11</v>
@@ -3257,10 +3257,10 @@
         <v>1</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>44</v>
@@ -3268,11 +3268,11 @@
       <c r="I74" s="1"/>
       <c r="K74" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220911U17TMF</v>
+        <v>20220911U17MF</v>
       </c>
       <c r="L74" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220911U17TWF</v>
+        <v>20220911U17WF</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
@@ -3280,7 +3280,7 @@
         <v>20220911</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>12</v>
@@ -3292,10 +3292,10 @@
         <v>1</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>44</v>
@@ -3303,22 +3303,22 @@
       <c r="I75" s="1"/>
       <c r="K75" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220911U17TME</v>
+        <v>20220911U17ME</v>
       </c>
       <c r="L75" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220911U17TWE</v>
+        <v>20220911U17WE</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>20221008</v>
+        <v>20220911</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -3327,33 +3327,33 @@
         <v>1</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="I76" s="1"/>
       <c r="K76" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221008OME</v>
+        <v>20220911U17TMF</v>
       </c>
       <c r="L76" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221008OWE</v>
+        <v>20220911U17TWF</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>20221008</v>
+        <v>20220911</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -3362,22 +3362,22 @@
         <v>1</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="I77" s="1"/>
       <c r="K77" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221008OMS</v>
+        <v>20220911U17TME</v>
       </c>
       <c r="L77" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221008OWS</v>
+        <v>20220911U17TWE</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
@@ -3385,10 +3385,10 @@
         <v>20221008</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -3397,10 +3397,10 @@
         <v>1</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>19</v>
@@ -3408,11 +3408,11 @@
       <c r="I78" s="1"/>
       <c r="K78" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221008VMF</v>
+        <v>20221008OME</v>
       </c>
       <c r="L78" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221008VWF</v>
+        <v>20221008OWE</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
@@ -3423,7 +3423,7 @@
         <v>18</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -3432,10 +3432,10 @@
         <v>1</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>19</v>
@@ -3443,11 +3443,11 @@
       <c r="I79" s="1"/>
       <c r="K79" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221008OMF</v>
+        <v>20221008OMS</v>
       </c>
       <c r="L79" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221008OWF</v>
+        <v>20221008OWS</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
@@ -3458,7 +3458,7 @@
         <v>9</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -3467,10 +3467,10 @@
         <v>1</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>19</v>
@@ -3478,11 +3478,11 @@
       <c r="I80" s="1"/>
       <c r="K80" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221008VME</v>
+        <v>20221008VMF</v>
       </c>
       <c r="L80" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221008VWE</v>
+        <v>20221008VWF</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
@@ -3490,10 +3490,10 @@
         <v>20221008</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -3502,10 +3502,10 @@
         <v>1</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>19</v>
@@ -3513,22 +3513,22 @@
       <c r="I81" s="1"/>
       <c r="K81" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221008VMS</v>
+        <v>20221008OMF</v>
       </c>
       <c r="L81" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221008VWS</v>
+        <v>20221008OWF</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>20221023</v>
+        <v>20221008</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -3537,10 +3537,10 @@
         <v>1</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>19</v>
@@ -3548,19 +3548,19 @@
       <c r="I82" s="1"/>
       <c r="K82" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221023U1720MF</v>
+        <v>20221008VME</v>
       </c>
       <c r="L82" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221023U1720WF</v>
+        <v>20221008VWE</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>20221023</v>
+        <v>20221008</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>13</v>
@@ -3572,10 +3572,10 @@
         <v>1</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>19</v>
@@ -3583,11 +3583,11 @@
       <c r="I83" s="1"/>
       <c r="K83" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221023U15MS</v>
+        <v>20221008VMS</v>
       </c>
       <c r="L83" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221023U15WS</v>
+        <v>20221008VWS</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
@@ -3595,7 +3595,7 @@
         <v>20221023</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>11</v>
@@ -3607,10 +3607,10 @@
         <v>1</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>19</v>
@@ -3618,11 +3618,11 @@
       <c r="I84" s="1"/>
       <c r="K84" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221023U13TMF</v>
+        <v>20221023U1720MF</v>
       </c>
       <c r="L84" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221023U13TWF</v>
+        <v>20221023U1720WF</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
@@ -3630,10 +3630,10 @@
         <v>20221023</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -3642,10 +3642,10 @@
         <v>1</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>19</v>
@@ -3653,11 +3653,11 @@
       <c r="I85" s="1"/>
       <c r="K85" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221023OBME</v>
+        <v>20221023U15MS</v>
       </c>
       <c r="L85" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221023OBWE</v>
+        <v>20221023U15WS</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
@@ -3665,10 +3665,10 @@
         <v>20221023</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -3677,10 +3677,10 @@
         <v>1</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>19</v>
@@ -3688,7 +3688,7 @@
       <c r="I86" s="1"/>
       <c r="K86" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221023U1720MS</v>
+        <v>20221023U13TMF</v>
       </c>
       <c r="L86" t="s">
         <v>49</v>
@@ -3702,7 +3702,7 @@
         <v>7</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>1</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>19</v>
@@ -3722,11 +3722,11 @@
       <c r="I87" s="1"/>
       <c r="K87" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221023OBMF</v>
+        <v>20221023OBME</v>
       </c>
       <c r="L87" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221023OBWF</v>
+        <v>20221023OBWE</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
@@ -3737,7 +3737,7 @@
         <v>25</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -3746,10 +3746,10 @@
         <v>1</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>19</v>
@@ -3757,11 +3757,11 @@
       <c r="I88" s="1"/>
       <c r="K88" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221023U1720ME</v>
+        <v>20221023U1720MS</v>
       </c>
       <c r="L88" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221023U1720WE</v>
+        <v>20221023U1720WS</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
@@ -3772,7 +3772,7 @@
         <v>7</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -3781,10 +3781,10 @@
         <v>1</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>19</v>
@@ -3792,22 +3792,22 @@
       <c r="I89" s="1"/>
       <c r="K89" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221023OBMS</v>
+        <v>20221023OBMF</v>
       </c>
       <c r="L89" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221023OBWS</v>
+        <v>20221023OBWF</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>20221106</v>
+        <v>20221023</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -3816,33 +3816,33 @@
         <v>1</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I90" s="3"/>
+      <c r="I90" s="1"/>
       <c r="K90" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221106U13BF</v>
+        <v>20221023U1720ME</v>
       </c>
       <c r="L90" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221106U13GF</v>
+        <v>20221023U1720WE</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>20221106</v>
+        <v>20221023</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -3851,22 +3851,22 @@
         <v>1</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I91" s="3"/>
+      <c r="I91" s="1"/>
       <c r="K91" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221106U15ME</v>
+        <v>20221023OBMS</v>
       </c>
       <c r="L91" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221106U15WE</v>
+        <v>20221023OBWS</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
@@ -3874,10 +3874,10 @@
         <v>20221106</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -3886,10 +3886,10 @@
         <v>1</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>19</v>
@@ -3897,11 +3897,11 @@
       <c r="I92" s="3"/>
       <c r="K92" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221106U11BE</v>
+        <v>20221106U13BF</v>
       </c>
       <c r="L92" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221106U11GE</v>
+        <v>20221106U13GF</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
@@ -3909,10 +3909,10 @@
         <v>20221106</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -3921,22 +3921,22 @@
         <v>1</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I93" s="1"/>
+      <c r="I93" s="3"/>
       <c r="K93" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221106U9BF</v>
+        <v>20221106U15ME</v>
       </c>
       <c r="L93" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221106U9GF</v>
+        <v>20221106U15WE</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
@@ -3944,10 +3944,10 @@
         <v>20221106</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -3956,10 +3956,10 @@
         <v>1</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>19</v>
@@ -3967,11 +3967,11 @@
       <c r="I94" s="3"/>
       <c r="K94" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221106U15MF</v>
+        <v>20221106U11BE</v>
       </c>
       <c r="L94" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221106U15WF</v>
+        <v>20221106U11GE</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
@@ -3979,10 +3979,10 @@
         <v>20221106</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -3991,22 +3991,22 @@
         <v>1</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I95" s="3"/>
+      <c r="I95" s="1"/>
       <c r="K95" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221106U13BE</v>
+        <v>20221106U9BF</v>
       </c>
       <c r="L95" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221106U13GE</v>
+        <v>20221106U9GF</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
@@ -4014,7 +4014,7 @@
         <v>20221106</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>11</v>
@@ -4026,10 +4026,10 @@
         <v>1</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>19</v>
@@ -4037,19 +4037,19 @@
       <c r="I96" s="3"/>
       <c r="K96" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221106U11BF</v>
+        <v>20221106U15MF</v>
       </c>
       <c r="L96" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221106U11GF</v>
+        <v>20221106U15WF</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>20221113</v>
+        <v>20221106</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>12</v>
@@ -4061,33 +4061,33 @@
         <v>1</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I97" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="I97" s="3"/>
       <c r="K97" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221113OME</v>
+        <v>20221106U13BE</v>
       </c>
       <c r="L97" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221113OWE</v>
+        <v>20221106U13GE</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>20221113</v>
+        <v>20221106</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -4096,22 +4096,22 @@
         <v>1</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I98" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="I98" s="3"/>
       <c r="K98" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221113OMS</v>
+        <v>20221106U11BF</v>
       </c>
       <c r="L98" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221113OWS</v>
+        <v>20221106U11GF</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
@@ -4119,10 +4119,10 @@
         <v>20221113</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -4131,10 +4131,10 @@
         <v>1</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>24</v>
@@ -4142,11 +4142,11 @@
       <c r="I99" s="1"/>
       <c r="K99" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221113VMF</v>
+        <v>20221113OME</v>
       </c>
       <c r="L99" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221113VWF</v>
+        <v>20221113OWE</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
@@ -4157,7 +4157,7 @@
         <v>18</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -4166,10 +4166,10 @@
         <v>1</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H100" s="1" t="s">
         <v>24</v>
@@ -4177,11 +4177,11 @@
       <c r="I100" s="1"/>
       <c r="K100" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221113OMF</v>
+        <v>20221113OMS</v>
       </c>
       <c r="L100" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221113OWF</v>
+        <v>20221113OWS</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
@@ -4192,7 +4192,7 @@
         <v>9</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -4201,10 +4201,10 @@
         <v>1</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H101" s="1" t="s">
         <v>24</v>
@@ -4212,11 +4212,11 @@
       <c r="I101" s="1"/>
       <c r="K101" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221113VME</v>
+        <v>20221113VMF</v>
       </c>
       <c r="L101" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221113VWE</v>
+        <v>20221113VWF</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
@@ -4224,10 +4224,10 @@
         <v>20221113</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -4236,10 +4236,10 @@
         <v>1</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H102" s="1" t="s">
         <v>24</v>
@@ -4247,43 +4247,81 @@
       <c r="I102" s="1"/>
       <c r="K102" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221113VMS</v>
+        <v>20221113OMF</v>
       </c>
       <c r="L102" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221113VWS</v>
+        <v>20221113OWF</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B103" s="1"/>
-      <c r="C103" s="1"/>
-      <c r="F103" s="1"/>
-      <c r="G103" s="1"/>
-      <c r="H103" s="1"/>
+      <c r="A103">
+        <v>20221113</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="I103" s="1"/>
       <c r="K103" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v/>
+        <v>20221113VME</v>
       </c>
       <c r="L103" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
+        <v>20221113VWE</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
-      <c r="F104" s="1"/>
-      <c r="G104" s="1"/>
-      <c r="H104" s="1"/>
+      <c r="A104">
+        <v>20221113</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>1</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="I104" s="1"/>
       <c r="K104" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v/>
+        <v>20221113VMS</v>
       </c>
       <c r="L104" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
+        <v>20221113VWS</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
@@ -4477,6 +4515,22 @@
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
+    </row>
+    <row r="120" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
+      <c r="F120" s="1"/>
+      <c r="G120" s="1"/>
+      <c r="H120" s="1"/>
+      <c r="I120" s="1"/>
+    </row>
+    <row r="121" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
+      <c r="F121" s="1"/>
+      <c r="G121" s="1"/>
+      <c r="H121" s="1"/>
+      <c r="I121" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/2022/2022FSAdates.xlsx
+++ b/2022/2022FSAdates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FSA\Dropbox\Competitions\GitHub\FencingSAResults\2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A7FF70-C646-4549-9C2C-B21711F5805D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C40288E1-6571-4EDD-BD56-86D8B4EAAD3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9636" yWindow="1284" windowWidth="13404" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="50">
   <si>
     <t>Date</t>
   </si>
@@ -315,12 +315,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I121" tableType="xml" totalsRowShown="0" connectionId="2">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I120">
-    <sortCondition ref="A2:A120"/>
-    <sortCondition ref="F2:F120"/>
-    <sortCondition ref="B2:B120"/>
-    <sortCondition ref="C2:C120"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I123" tableType="xml" totalsRowShown="0" connectionId="2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I122">
+    <sortCondition ref="A2:A122"/>
+    <sortCondition ref="F2:F122"/>
+    <sortCondition ref="B2:B122"/>
+    <sortCondition ref="C2:C122"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="Date" name="Date">
@@ -664,10 +664,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L121"/>
+  <dimension ref="A1:L123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="G60" sqref="G60"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61:L68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2799,7 +2799,7 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>26</v>
@@ -2810,14 +2810,14 @@
       <c r="H61" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I61" s="3"/>
+      <c r="I61" s="1"/>
       <c r="K61" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220821U13BF</v>
+        <v>20220821U13F</v>
       </c>
       <c r="L61" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220821U13GF</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
@@ -2825,10 +2825,10 @@
         <v>20220821</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -2837,10 +2837,10 @@
         <v>1</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>19</v>
@@ -2848,11 +2848,11 @@
       <c r="I62" s="3"/>
       <c r="K62" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220821U15ME</v>
+        <v>20220821U13BF</v>
       </c>
       <c r="L62" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220821U15WE</v>
+        <v>20220821U13GF</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
@@ -2860,7 +2860,7 @@
         <v>20220821</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>12</v>
@@ -2869,13 +2869,13 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>19</v>
@@ -2883,11 +2883,11 @@
       <c r="I63" s="3"/>
       <c r="K63" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220821U11BE</v>
+        <v>20220821U15E</v>
       </c>
       <c r="L63" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220821U11GE</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
@@ -2895,22 +2895,22 @@
         <v>20220821</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D64">
         <v>0</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>19</v>
@@ -2918,11 +2918,11 @@
       <c r="I64" s="3"/>
       <c r="K64" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220821U15MF</v>
+        <v>20220821U11E</v>
       </c>
       <c r="L64" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220821U15WF</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -2930,34 +2930,34 @@
         <v>20220821</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D65">
         <v>0</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I65" s="3"/>
+      <c r="I65" s="1"/>
       <c r="K65" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220821U13BE</v>
+        <v>20220821U15F</v>
       </c>
       <c r="L65" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220821U13GE</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
@@ -2965,7 +2965,7 @@
         <v>20220821</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>11</v>
@@ -2977,10 +2977,10 @@
         <v>1</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>19</v>
@@ -2988,57 +2988,57 @@
       <c r="I66" s="3"/>
       <c r="K66" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220821U11BF</v>
+        <v>20220821U15MF</v>
       </c>
       <c r="L66" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220821U11GF</v>
+        <v>20220821U15WF</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>20220918</v>
+        <v>20220821</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D67">
         <v>0</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I67" s="3"/>
       <c r="K67" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220918U1720MF</v>
+        <v>20220821U13E</v>
       </c>
       <c r="L67" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220918U1720WF</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>20220918</v>
+        <v>20220821</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -3047,22 +3047,22 @@
         <v>1</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I68" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="I68" s="3"/>
       <c r="K68" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220918U15MS</v>
+        <v>20220821U11BF</v>
       </c>
       <c r="L68" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220918U15WS</v>
+        <v>20220821U11GF</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
@@ -3070,10 +3070,10 @@
         <v>20220918</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -3082,22 +3082,22 @@
         <v>1</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I69" s="1"/>
+      <c r="I69" s="3"/>
       <c r="K69" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220918OBME</v>
+        <v>20220918U1720MF</v>
       </c>
       <c r="L69" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220918OBWE</v>
+        <v>20220918U1720WF</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
@@ -3105,7 +3105,7 @@
         <v>20220918</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>13</v>
@@ -3117,10 +3117,10 @@
         <v>1</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>24</v>
@@ -3128,11 +3128,11 @@
       <c r="I70" s="1"/>
       <c r="K70" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220918U1720MS</v>
+        <v>20220918U15MS</v>
       </c>
       <c r="L70" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220918U1720WS</v>
+        <v>20220918U15WS</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
@@ -3143,7 +3143,7 @@
         <v>7</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -3152,10 +3152,10 @@
         <v>1</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>24</v>
@@ -3163,11 +3163,11 @@
       <c r="I71" s="1"/>
       <c r="K71" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220918OBMF</v>
+        <v>20220918OBME</v>
       </c>
       <c r="L71" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220918OBWF</v>
+        <v>20220918OBWE</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
@@ -3178,7 +3178,7 @@
         <v>25</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -3187,10 +3187,10 @@
         <v>1</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>24</v>
@@ -3198,11 +3198,11 @@
       <c r="I72" s="1"/>
       <c r="K72" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220918U1720ME</v>
+        <v>20220918U1720MS</v>
       </c>
       <c r="L72" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220918U1720WE</v>
+        <v>20220918U1720WS</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
@@ -3213,7 +3213,7 @@
         <v>7</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -3222,10 +3222,10 @@
         <v>1</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>24</v>
@@ -3233,22 +3233,22 @@
       <c r="I73" s="1"/>
       <c r="K73" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220918OBMS</v>
+        <v>20220918OBMF</v>
       </c>
       <c r="L73" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220918OBWS</v>
+        <v>20220918OBWF</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>20220911</v>
+        <v>20220918</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -3257,33 +3257,33 @@
         <v>1</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="I74" s="1"/>
       <c r="K74" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220911U17MF</v>
+        <v>20220918U1720ME</v>
       </c>
       <c r="L74" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220911U17WF</v>
+        <v>20220918U1720WE</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>20220911</v>
+        <v>20220918</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -3292,22 +3292,22 @@
         <v>1</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="I75" s="1"/>
       <c r="K75" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220911U17ME</v>
+        <v>20220918OBMS</v>
       </c>
       <c r="L75" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220911U17WE</v>
+        <v>20220918OBWS</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
@@ -3315,7 +3315,7 @@
         <v>20220911</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>11</v>
@@ -3327,10 +3327,10 @@
         <v>1</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>44</v>
@@ -3338,11 +3338,11 @@
       <c r="I76" s="1"/>
       <c r="K76" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220911U17TMF</v>
+        <v>20220911U17MF</v>
       </c>
       <c r="L76" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220911U17TWF</v>
+        <v>20220911U17WF</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
@@ -3350,7 +3350,7 @@
         <v>20220911</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>12</v>
@@ -3362,10 +3362,10 @@
         <v>1</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>44</v>
@@ -3373,22 +3373,22 @@
       <c r="I77" s="1"/>
       <c r="K77" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220911U17TME</v>
+        <v>20220911U17ME</v>
       </c>
       <c r="L77" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220911U17TWE</v>
+        <v>20220911U17WE</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>20221008</v>
+        <v>20220911</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -3397,33 +3397,33 @@
         <v>1</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="I78" s="1"/>
       <c r="K78" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221008OME</v>
+        <v>20220911U17TMF</v>
       </c>
       <c r="L78" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221008OWE</v>
+        <v>20220911U17TWF</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>20221008</v>
+        <v>20220911</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -3432,22 +3432,22 @@
         <v>1</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="I79" s="1"/>
       <c r="K79" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221008OMS</v>
+        <v>20220911U17TME</v>
       </c>
       <c r="L79" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221008OWS</v>
+        <v>20220911U17TWE</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
@@ -3455,10 +3455,10 @@
         <v>20221008</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -3467,10 +3467,10 @@
         <v>1</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>19</v>
@@ -3478,11 +3478,11 @@
       <c r="I80" s="1"/>
       <c r="K80" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221008VMF</v>
+        <v>20221008OME</v>
       </c>
       <c r="L80" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221008VWF</v>
+        <v>20221008OWE</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
@@ -3493,7 +3493,7 @@
         <v>18</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -3502,10 +3502,10 @@
         <v>1</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>19</v>
@@ -3513,11 +3513,11 @@
       <c r="I81" s="1"/>
       <c r="K81" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221008OMF</v>
+        <v>20221008OMS</v>
       </c>
       <c r="L81" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221008OWF</v>
+        <v>20221008OWS</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
@@ -3528,7 +3528,7 @@
         <v>9</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -3537,10 +3537,10 @@
         <v>1</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>19</v>
@@ -3548,11 +3548,11 @@
       <c r="I82" s="1"/>
       <c r="K82" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221008VME</v>
+        <v>20221008VMF</v>
       </c>
       <c r="L82" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221008VWE</v>
+        <v>20221008VWF</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
@@ -3560,10 +3560,10 @@
         <v>20221008</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -3572,10 +3572,10 @@
         <v>1</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>19</v>
@@ -3583,22 +3583,22 @@
       <c r="I83" s="1"/>
       <c r="K83" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221008VMS</v>
+        <v>20221008OMF</v>
       </c>
       <c r="L83" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221008VWS</v>
+        <v>20221008OWF</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>20221023</v>
+        <v>20221008</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -3607,10 +3607,10 @@
         <v>1</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>19</v>
@@ -3618,19 +3618,19 @@
       <c r="I84" s="1"/>
       <c r="K84" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221023U1720MF</v>
+        <v>20221008VME</v>
       </c>
       <c r="L84" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221023U1720WF</v>
+        <v>20221008VWE</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>20221023</v>
+        <v>20221008</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>13</v>
@@ -3642,10 +3642,10 @@
         <v>1</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>19</v>
@@ -3653,11 +3653,11 @@
       <c r="I85" s="1"/>
       <c r="K85" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221023U15MS</v>
+        <v>20221008VMS</v>
       </c>
       <c r="L85" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221023U15WS</v>
+        <v>20221008VWS</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
@@ -3665,7 +3665,7 @@
         <v>20221023</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>11</v>
@@ -3677,10 +3677,10 @@
         <v>1</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>19</v>
@@ -3688,7 +3688,7 @@
       <c r="I86" s="1"/>
       <c r="K86" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221023U13TMF</v>
+        <v>20221023U1720MF</v>
       </c>
       <c r="L86" t="s">
         <v>49</v>
@@ -3699,10 +3699,10 @@
         <v>20221023</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>1</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>19</v>
@@ -3722,11 +3722,11 @@
       <c r="I87" s="1"/>
       <c r="K87" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221023OBME</v>
+        <v>20221023U15MS</v>
       </c>
       <c r="L87" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221023OBWE</v>
+        <v>20221023U15WS</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
@@ -3734,10 +3734,10 @@
         <v>20221023</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -3746,10 +3746,10 @@
         <v>1</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>19</v>
@@ -3757,11 +3757,11 @@
       <c r="I88" s="1"/>
       <c r="K88" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221023U1720MS</v>
+        <v>20221023U13TMF</v>
       </c>
       <c r="L88" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221023U1720WS</v>
+        <v>20221023U13TWF</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
@@ -3772,7 +3772,7 @@
         <v>7</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -3781,10 +3781,10 @@
         <v>1</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>19</v>
@@ -3792,11 +3792,11 @@
       <c r="I89" s="1"/>
       <c r="K89" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221023OBMF</v>
+        <v>20221023OBME</v>
       </c>
       <c r="L89" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221023OBWF</v>
+        <v>20221023OBWE</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
@@ -3807,7 +3807,7 @@
         <v>25</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -3816,10 +3816,10 @@
         <v>1</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>19</v>
@@ -3827,11 +3827,11 @@
       <c r="I90" s="1"/>
       <c r="K90" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221023U1720ME</v>
+        <v>20221023U1720MS</v>
       </c>
       <c r="L90" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221023U1720WE</v>
+        <v>20221023U1720WS</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
@@ -3842,7 +3842,7 @@
         <v>7</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -3851,10 +3851,10 @@
         <v>1</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>19</v>
@@ -3862,22 +3862,22 @@
       <c r="I91" s="1"/>
       <c r="K91" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221023OBMS</v>
+        <v>20221023OBMF</v>
       </c>
       <c r="L91" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221023OBWS</v>
+        <v>20221023OBWF</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>20221106</v>
+        <v>20221023</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -3886,33 +3886,33 @@
         <v>1</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I92" s="3"/>
+      <c r="I92" s="1"/>
       <c r="K92" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221106U13BF</v>
+        <v>20221023U1720ME</v>
       </c>
       <c r="L92" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221106U13GF</v>
+        <v>20221023U1720WE</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>20221106</v>
+        <v>20221023</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -3921,22 +3921,22 @@
         <v>1</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I93" s="3"/>
+      <c r="I93" s="1"/>
       <c r="K93" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221106U15ME</v>
+        <v>20221023OBMS</v>
       </c>
       <c r="L93" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221106U15WE</v>
+        <v>20221023OBWS</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
@@ -3944,10 +3944,10 @@
         <v>20221106</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -3956,10 +3956,10 @@
         <v>1</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>19</v>
@@ -3967,11 +3967,11 @@
       <c r="I94" s="3"/>
       <c r="K94" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221106U11BE</v>
+        <v>20221106U13BF</v>
       </c>
       <c r="L94" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221106U11GE</v>
+        <v>20221106U13GF</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
@@ -3979,10 +3979,10 @@
         <v>20221106</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -3991,22 +3991,22 @@
         <v>1</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I95" s="1"/>
+      <c r="I95" s="3"/>
       <c r="K95" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221106U9BF</v>
+        <v>20221106U15ME</v>
       </c>
       <c r="L95" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221106U9GF</v>
+        <v>20221106U15WE</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
@@ -4014,10 +4014,10 @@
         <v>20221106</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -4026,10 +4026,10 @@
         <v>1</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>19</v>
@@ -4037,11 +4037,11 @@
       <c r="I96" s="3"/>
       <c r="K96" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221106U15MF</v>
+        <v>20221106U11BE</v>
       </c>
       <c r="L96" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221106U15WF</v>
+        <v>20221106U11GE</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
@@ -4049,10 +4049,10 @@
         <v>20221106</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -4061,22 +4061,22 @@
         <v>1</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I97" s="3"/>
+      <c r="I97" s="1"/>
       <c r="K97" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221106U13BE</v>
+        <v>20221106U9BF</v>
       </c>
       <c r="L97" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221106U13GE</v>
+        <v>20221106U9GF</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
@@ -4084,7 +4084,7 @@
         <v>20221106</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>11</v>
@@ -4096,10 +4096,10 @@
         <v>1</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>19</v>
@@ -4107,19 +4107,19 @@
       <c r="I98" s="3"/>
       <c r="K98" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221106U11BF</v>
+        <v>20221106U15MF</v>
       </c>
       <c r="L98" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221106U11GF</v>
+        <v>20221106U15WF</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>20221113</v>
+        <v>20221106</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>12</v>
@@ -4131,33 +4131,33 @@
         <v>1</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I99" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="I99" s="3"/>
       <c r="K99" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221113OME</v>
+        <v>20221106U13BE</v>
       </c>
       <c r="L99" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221113OWE</v>
+        <v>20221106U13GE</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>20221113</v>
+        <v>20221106</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -4166,22 +4166,22 @@
         <v>1</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I100" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="I100" s="3"/>
       <c r="K100" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221113OMS</v>
+        <v>20221106U11BF</v>
       </c>
       <c r="L100" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221113OWS</v>
+        <v>20221106U11GF</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
@@ -4189,10 +4189,10 @@
         <v>20221113</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -4201,10 +4201,10 @@
         <v>1</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H101" s="1" t="s">
         <v>24</v>
@@ -4212,11 +4212,11 @@
       <c r="I101" s="1"/>
       <c r="K101" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221113VMF</v>
+        <v>20221113OME</v>
       </c>
       <c r="L101" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221113VWF</v>
+        <v>20221113OWE</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
@@ -4227,7 +4227,7 @@
         <v>18</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -4236,10 +4236,10 @@
         <v>1</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H102" s="1" t="s">
         <v>24</v>
@@ -4247,11 +4247,11 @@
       <c r="I102" s="1"/>
       <c r="K102" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221113OMF</v>
+        <v>20221113OMS</v>
       </c>
       <c r="L102" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221113OWF</v>
+        <v>20221113OWS</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
@@ -4262,7 +4262,7 @@
         <v>9</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -4271,10 +4271,10 @@
         <v>1</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H103" s="1" t="s">
         <v>24</v>
@@ -4282,11 +4282,11 @@
       <c r="I103" s="1"/>
       <c r="K103" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221113VME</v>
+        <v>20221113VMF</v>
       </c>
       <c r="L103" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221113VWE</v>
+        <v>20221113VWF</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
@@ -4294,10 +4294,10 @@
         <v>20221113</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -4306,10 +4306,10 @@
         <v>1</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H104" s="1" t="s">
         <v>24</v>
@@ -4317,43 +4317,81 @@
       <c r="I104" s="1"/>
       <c r="K104" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221113VMS</v>
+        <v>20221113OMF</v>
       </c>
       <c r="L104" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221113VWS</v>
+        <v>20221113OWF</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
-      <c r="F105" s="1"/>
-      <c r="G105" s="1"/>
-      <c r="H105" s="1"/>
+      <c r="A105">
+        <v>20221113</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>1</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="I105" s="1"/>
       <c r="K105" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v/>
+        <v>20221113VME</v>
       </c>
       <c r="L105" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
+        <v>20221113VWE</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B106" s="1"/>
-      <c r="C106" s="1"/>
-      <c r="F106" s="1"/>
-      <c r="G106" s="1"/>
-      <c r="H106" s="1"/>
+      <c r="A106">
+        <v>20221113</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>1</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="I106" s="1"/>
       <c r="K106" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v/>
+        <v>20221113VMS</v>
       </c>
       <c r="L106" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
+        <v>20221113VWS</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
@@ -4531,6 +4569,22 @@
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
+    </row>
+    <row r="122" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B122" s="1"/>
+      <c r="C122" s="1"/>
+      <c r="F122" s="1"/>
+      <c r="G122" s="1"/>
+      <c r="H122" s="1"/>
+      <c r="I122" s="1"/>
+    </row>
+    <row r="123" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B123" s="1"/>
+      <c r="C123" s="1"/>
+      <c r="F123" s="1"/>
+      <c r="G123" s="1"/>
+      <c r="H123" s="1"/>
+      <c r="I123" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/2022/2022FSAdates.xlsx
+++ b/2022/2022FSAdates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FSA\Dropbox\Competitions\GitHub\FencingSAResults\2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C40288E1-6571-4EDD-BD56-86D8B4EAAD3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57FA0B0-C93D-4F68-BC42-CB136C2B5093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9636" yWindow="1284" windowWidth="13404" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8568" yWindow="1404" windowWidth="13404" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="51">
   <si>
     <t>Date</t>
   </si>
@@ -194,6 +194,9 @@
   </si>
   <si>
     <t>20221106U13GF</t>
+  </si>
+  <si>
+    <t>U20</t>
   </si>
 </sst>
 </file>
@@ -315,12 +318,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I123" tableType="xml" totalsRowShown="0" connectionId="2">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I122">
-    <sortCondition ref="A2:A122"/>
-    <sortCondition ref="F2:F122"/>
-    <sortCondition ref="B2:B122"/>
-    <sortCondition ref="C2:C122"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I128" tableType="xml" totalsRowShown="0" connectionId="2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I127">
+    <sortCondition ref="A2:A127"/>
+    <sortCondition ref="F2:F127"/>
+    <sortCondition ref="B2:B127"/>
+    <sortCondition ref="C2:C127"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="Date" name="Date">
@@ -664,10 +667,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L123"/>
+  <dimension ref="A1:L128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61:L68"/>
+    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2271,10 +2274,10 @@
         <v>11</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>26</v>
@@ -2288,11 +2291,11 @@
       <c r="I46" s="3"/>
       <c r="K46" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220626U1720MF</v>
+        <v>N/A</v>
       </c>
       <c r="L46" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220626U1720WF</v>
+        <v/>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
@@ -2306,7 +2309,7 @@
         <v>13</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -2323,11 +2326,11 @@
       <c r="I47" s="3"/>
       <c r="K47" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220626U15MS</v>
+        <v>N/A</v>
       </c>
       <c r="L47" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220626U15WS</v>
+        <v/>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
@@ -2341,10 +2344,10 @@
         <v>12</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>27</v>
@@ -2358,11 +2361,11 @@
       <c r="I48" s="3"/>
       <c r="K48" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220626OBME</v>
+        <v>N/A</v>
       </c>
       <c r="L48" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220626OBWE</v>
+        <v/>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
@@ -2376,7 +2379,7 @@
         <v>13</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -2393,11 +2396,11 @@
       <c r="I49" s="3"/>
       <c r="K49" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220626U1720MS</v>
+        <v>N/A</v>
       </c>
       <c r="L49" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220626U1720WS</v>
+        <v/>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
@@ -2411,10 +2414,10 @@
         <v>11</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>32</v>
@@ -2428,11 +2431,11 @@
       <c r="I50" s="3"/>
       <c r="K50" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220626OBMF</v>
+        <v>N/A</v>
       </c>
       <c r="L50" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220626OBWF</v>
+        <v/>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
@@ -2446,7 +2449,7 @@
         <v>12</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -2463,11 +2466,11 @@
       <c r="I51" s="3"/>
       <c r="K51" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220626U1720ME</v>
+        <v>N/A</v>
       </c>
       <c r="L51" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220626U1720WE</v>
+        <v/>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
@@ -2481,7 +2484,7 @@
         <v>13</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -2498,11 +2501,11 @@
       <c r="I52" s="3"/>
       <c r="K52" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220626OBMS</v>
+        <v>N/A</v>
       </c>
       <c r="L52" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220626OBWS</v>
+        <v/>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
@@ -3079,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>26</v>
@@ -3090,14 +3093,14 @@
       <c r="H69" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I69" s="3"/>
+      <c r="I69" s="1"/>
       <c r="K69" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220918U1720MF</v>
+        <v>20220918U1720F</v>
       </c>
       <c r="L69" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220918U1720WF</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
@@ -3105,10 +3108,10 @@
         <v>20220918</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -3125,14 +3128,14 @@
       <c r="H70" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I70" s="1"/>
+      <c r="I70" s="3"/>
       <c r="K70" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220918U15MS</v>
+        <v>20220918U17MF</v>
       </c>
       <c r="L70" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220918U15WS</v>
+        <v>20220918U17WF</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
@@ -3140,34 +3143,34 @@
         <v>20220918</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D71">
         <v>0</v>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I71" s="1"/>
+      <c r="I71" s="3"/>
       <c r="K71" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220918OBME</v>
+        <v>20220918U20F</v>
       </c>
       <c r="L71" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220918OBWE</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
@@ -3175,22 +3178,22 @@
         <v>20220918</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E72">
         <v>1</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>24</v>
@@ -3198,11 +3201,11 @@
       <c r="I72" s="1"/>
       <c r="K72" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220918U1720MS</v>
+        <v>N/A</v>
       </c>
       <c r="L72" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220918U1720WS</v>
+        <v/>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
@@ -3213,7 +3216,7 @@
         <v>7</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -3222,10 +3225,10 @@
         <v>1</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>24</v>
@@ -3233,11 +3236,11 @@
       <c r="I73" s="1"/>
       <c r="K73" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220918OBMF</v>
+        <v>20220918OBME</v>
       </c>
       <c r="L73" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220918OBWF</v>
+        <v>20220918OBWE</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
@@ -3248,19 +3251,19 @@
         <v>25</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E74">
         <v>1</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>24</v>
@@ -3268,11 +3271,11 @@
       <c r="I74" s="1"/>
       <c r="K74" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220918U1720ME</v>
+        <v>N/A</v>
       </c>
       <c r="L74" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220918U1720WE</v>
+        <v/>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
@@ -3283,19 +3286,19 @@
         <v>7</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D75">
         <v>0</v>
       </c>
       <c r="E75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>24</v>
@@ -3303,19 +3306,19 @@
       <c r="I75" s="1"/>
       <c r="K75" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220918OBMS</v>
+        <v>20220918OBF</v>
       </c>
       <c r="L75" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220918OBWS</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>20220911</v>
+        <v>20220918</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>11</v>
@@ -3327,30 +3330,30 @@
         <v>1</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="I76" s="1"/>
       <c r="K76" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220911U17MF</v>
+        <v>20220918OBMF</v>
       </c>
       <c r="L76" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220911U17WF</v>
+        <v>20220918OBWF</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>20220911</v>
+        <v>20220918</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>12</v>
@@ -3359,36 +3362,36 @@
         <v>0</v>
       </c>
       <c r="E77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="I77" s="1"/>
       <c r="K77" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220911U17ME</v>
+        <v>20220918U1720E</v>
       </c>
       <c r="L77" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220911U17WE</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>20220911</v>
+        <v>20220918</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -3397,30 +3400,30 @@
         <v>1</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="I78" s="1"/>
       <c r="K78" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220911U17TMF</v>
+        <v>20220918U17ME</v>
       </c>
       <c r="L78" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220911U17TWF</v>
+        <v>20220918U17WE</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>20220911</v>
+        <v>20220918</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>12</v>
@@ -3429,71 +3432,71 @@
         <v>0</v>
       </c>
       <c r="E79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="I79" s="1"/>
       <c r="K79" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20220911U17TME</v>
+        <v>20220918U20E</v>
       </c>
       <c r="L79" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20220911U17TWE</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>20221008</v>
+        <v>20220918</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D80">
         <v>0</v>
       </c>
       <c r="E80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I80" s="1"/>
       <c r="K80" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221008OME</v>
+        <v>20220918OBS</v>
       </c>
       <c r="L80" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221008OWE</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>20221008</v>
+        <v>20220911</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -3502,33 +3505,33 @@
         <v>1</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="I81" s="1"/>
       <c r="K81" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221008OMS</v>
+        <v>20220911U17MF</v>
       </c>
       <c r="L81" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221008OWS</v>
+        <v>20220911U17WF</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>20221008</v>
+        <v>20220911</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -3537,30 +3540,30 @@
         <v>1</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="I82" s="1"/>
       <c r="K82" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221008VMF</v>
+        <v>20220911U17ME</v>
       </c>
       <c r="L82" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221008VWF</v>
+        <v>20220911U17WE</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>20221008</v>
+        <v>20220911</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>11</v>
@@ -3578,24 +3581,24 @@
         <v>38</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="I83" s="1"/>
       <c r="K83" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221008OMF</v>
+        <v>20220911U17TMF</v>
       </c>
       <c r="L83" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221008OWF</v>
+        <v>20220911U17TWF</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>20221008</v>
+        <v>20220911</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>12</v>
@@ -3613,16 +3616,16 @@
         <v>38</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="I84" s="1"/>
       <c r="K84" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221008VME</v>
+        <v>20220911U17TME</v>
       </c>
       <c r="L84" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221008VWE</v>
+        <v>20220911U17TWE</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
@@ -3630,10 +3633,10 @@
         <v>20221008</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -3642,10 +3645,10 @@
         <v>1</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>19</v>
@@ -3653,22 +3656,22 @@
       <c r="I85" s="1"/>
       <c r="K85" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221008VMS</v>
+        <v>20221008OME</v>
       </c>
       <c r="L85" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221008VWS</v>
+        <v>20221008OWE</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>20221023</v>
+        <v>20221008</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -3677,10 +3680,10 @@
         <v>1</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>19</v>
@@ -3688,7 +3691,7 @@
       <c r="I86" s="1"/>
       <c r="K86" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221023U1720MF</v>
+        <v>20221008OMS</v>
       </c>
       <c r="L86" t="s">
         <v>49</v>
@@ -3696,13 +3699,13 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>20221023</v>
+        <v>20221008</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -3711,10 +3714,10 @@
         <v>1</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>19</v>
@@ -3722,19 +3725,19 @@
       <c r="I87" s="1"/>
       <c r="K87" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221023U15MS</v>
+        <v>20221008VMF</v>
       </c>
       <c r="L87" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221023U15WS</v>
+        <v>20221008VWF</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>20221023</v>
+        <v>20221008</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>11</v>
@@ -3746,10 +3749,10 @@
         <v>1</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>19</v>
@@ -3757,19 +3760,19 @@
       <c r="I88" s="1"/>
       <c r="K88" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221023U13TMF</v>
+        <v>20221008OMF</v>
       </c>
       <c r="L88" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221023U13TWF</v>
+        <v>20221008OWF</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>20221023</v>
+        <v>20221008</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>12</v>
@@ -3781,10 +3784,10 @@
         <v>1</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>19</v>
@@ -3792,19 +3795,19 @@
       <c r="I89" s="1"/>
       <c r="K89" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221023OBME</v>
+        <v>20221008VME</v>
       </c>
       <c r="L89" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221023OBWE</v>
+        <v>20221008VWE</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>20221023</v>
+        <v>20221008</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>13</v>
@@ -3816,10 +3819,10 @@
         <v>1</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>19</v>
@@ -3827,11 +3830,11 @@
       <c r="I90" s="1"/>
       <c r="K90" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221023U1720MS</v>
+        <v>20221008VMS</v>
       </c>
       <c r="L90" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221023U1720WS</v>
+        <v>20221008VWS</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
@@ -3839,7 +3842,7 @@
         <v>20221023</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>11</v>
@@ -3851,10 +3854,10 @@
         <v>1</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>19</v>
@@ -3862,11 +3865,11 @@
       <c r="I91" s="1"/>
       <c r="K91" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221023OBMF</v>
+        <v>20221023U1720MF</v>
       </c>
       <c r="L91" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221023OBWF</v>
+        <v>20221023U1720WF</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
@@ -3874,10 +3877,10 @@
         <v>20221023</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -3886,10 +3889,10 @@
         <v>1</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>19</v>
@@ -3897,11 +3900,11 @@
       <c r="I92" s="1"/>
       <c r="K92" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221023U1720ME</v>
+        <v>20221023U15MS</v>
       </c>
       <c r="L92" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221023U1720WE</v>
+        <v>20221023U15WS</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
@@ -3909,10 +3912,10 @@
         <v>20221023</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -3921,10 +3924,10 @@
         <v>1</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>19</v>
@@ -3932,22 +3935,22 @@
       <c r="I93" s="1"/>
       <c r="K93" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221023OBMS</v>
+        <v>20221023U13TMF</v>
       </c>
       <c r="L93" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221023OBWS</v>
+        <v>20221023U13TWF</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>20221106</v>
+        <v>20221023</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -3956,33 +3959,33 @@
         <v>1</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I94" s="3"/>
+      <c r="I94" s="1"/>
       <c r="K94" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221106U13BF</v>
+        <v>20221023OBME</v>
       </c>
       <c r="L94" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221106U13GF</v>
+        <v>20221023OBWE</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>20221106</v>
+        <v>20221023</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -3991,33 +3994,33 @@
         <v>1</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I95" s="3"/>
+      <c r="I95" s="1"/>
       <c r="K95" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221106U15ME</v>
+        <v>20221023U1720MS</v>
       </c>
       <c r="L95" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221106U15WE</v>
+        <v>20221023U1720WS</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>20221106</v>
+        <v>20221023</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -4026,33 +4029,33 @@
         <v>1</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I96" s="3"/>
+      <c r="I96" s="1"/>
       <c r="K96" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221106U11BE</v>
+        <v>20221023OBMF</v>
       </c>
       <c r="L96" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221106U11GE</v>
+        <v>20221023OBWF</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>20221106</v>
+        <v>20221023</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -4061,10 +4064,10 @@
         <v>1</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>19</v>
@@ -4072,22 +4075,22 @@
       <c r="I97" s="1"/>
       <c r="K97" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221106U9BF</v>
+        <v>20221023U1720ME</v>
       </c>
       <c r="L97" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221106U9GF</v>
+        <v>20221023U1720WE</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>20221106</v>
+        <v>20221023</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -4096,22 +4099,22 @@
         <v>1</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I98" s="3"/>
+      <c r="I98" s="1"/>
       <c r="K98" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221106U15MF</v>
+        <v>20221023OBMS</v>
       </c>
       <c r="L98" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221106U15WF</v>
+        <v>20221023OBWS</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
@@ -4122,7 +4125,7 @@
         <v>10</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -4131,10 +4134,10 @@
         <v>1</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>19</v>
@@ -4142,11 +4145,11 @@
       <c r="I99" s="3"/>
       <c r="K99" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221106U13BE</v>
+        <v>20221106U13BF</v>
       </c>
       <c r="L99" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221106U13GE</v>
+        <v>20221106U13GF</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
@@ -4154,10 +4157,10 @@
         <v>20221106</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -4166,10 +4169,10 @@
         <v>1</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H100" s="1" t="s">
         <v>19</v>
@@ -4177,19 +4180,19 @@
       <c r="I100" s="3"/>
       <c r="K100" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221106U11BF</v>
+        <v>20221106U15ME</v>
       </c>
       <c r="L100" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221106U11GF</v>
+        <v>20221106U15WE</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>20221113</v>
+        <v>20221106</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>12</v>
@@ -4201,33 +4204,33 @@
         <v>1</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I101" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="I101" s="3"/>
       <c r="K101" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221113OME</v>
+        <v>20221106U11BE</v>
       </c>
       <c r="L101" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221113OWE</v>
+        <v>20221106U11GE</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>20221113</v>
+        <v>20221106</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -4236,30 +4239,30 @@
         <v>1</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I102" s="1"/>
       <c r="K102" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221113OMS</v>
+        <v>20221106U9BF</v>
       </c>
       <c r="L102" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221113OWS</v>
+        <v>20221106U9GF</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>20221113</v>
+        <v>20221106</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>11</v>
@@ -4271,33 +4274,33 @@
         <v>1</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I103" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="I103" s="3"/>
       <c r="K103" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221113VMF</v>
+        <v>20221106U15MF</v>
       </c>
       <c r="L103" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221113VWF</v>
+        <v>20221106U15WF</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>20221113</v>
+        <v>20221106</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -4306,33 +4309,33 @@
         <v>1</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I104" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="I104" s="3"/>
       <c r="K104" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221113OMF</v>
+        <v>20221106U13BE</v>
       </c>
       <c r="L104" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221113OWF</v>
+        <v>20221106U13GE</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>20221113</v>
+        <v>20221106</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -4341,22 +4344,22 @@
         <v>1</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I105" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="I105" s="3"/>
       <c r="K105" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221113VME</v>
+        <v>20221106U11BF</v>
       </c>
       <c r="L105" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221113VWE</v>
+        <v>20221106U11GF</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
@@ -4364,10 +4367,10 @@
         <v>20221113</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -4376,10 +4379,10 @@
         <v>1</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>24</v>
@@ -4387,91 +4390,186 @@
       <c r="I106" s="1"/>
       <c r="K106" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221113VMS</v>
+        <v>20221113OME</v>
       </c>
       <c r="L106" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221113VWS</v>
+        <v>20221113OWE</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B107" s="1"/>
-      <c r="C107" s="1"/>
-      <c r="F107" s="1"/>
-      <c r="G107" s="1"/>
-      <c r="H107" s="1"/>
+      <c r="A107">
+        <v>20221113</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>1</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="I107" s="1"/>
       <c r="K107" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v/>
+        <v>20221113OMS</v>
       </c>
       <c r="L107" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
+        <v>20221113OWS</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B108" s="1"/>
-      <c r="C108" s="1"/>
-      <c r="F108" s="1"/>
-      <c r="G108" s="1"/>
-      <c r="H108" s="1"/>
+      <c r="A108">
+        <v>20221113</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>1</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="I108" s="1"/>
       <c r="K108" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v/>
+        <v>20221113VMF</v>
       </c>
       <c r="L108" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
+        <v>20221113VWF</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B109" s="1"/>
-      <c r="C109" s="1"/>
-      <c r="F109" s="1"/>
-      <c r="G109" s="1"/>
-      <c r="H109" s="1"/>
+      <c r="A109">
+        <v>20221113</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>1</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="I109" s="1"/>
       <c r="K109" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v/>
+        <v>20221113OMF</v>
       </c>
       <c r="L109" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
+        <v>20221113OWF</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B110" s="1"/>
-      <c r="C110" s="1"/>
-      <c r="F110" s="1"/>
-      <c r="G110" s="1"/>
-      <c r="H110" s="1"/>
+      <c r="A110">
+        <v>20221113</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>1</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="I110" s="1"/>
       <c r="K110" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v/>
+        <v>20221113VME</v>
       </c>
       <c r="L110" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
+        <v>20221113VWE</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B111" s="1"/>
-      <c r="C111" s="1"/>
-      <c r="F111" s="1"/>
-      <c r="G111" s="1"/>
-      <c r="H111" s="1"/>
+      <c r="A111">
+        <v>20221113</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>1</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="I111" s="1"/>
       <c r="K111" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v/>
+        <v>20221113VMS</v>
       </c>
       <c r="L111" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
+        <v>20221113VWS</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
@@ -4585,6 +4683,46 @@
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
+    </row>
+    <row r="124" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B124" s="1"/>
+      <c r="C124" s="1"/>
+      <c r="F124" s="1"/>
+      <c r="G124" s="1"/>
+      <c r="H124" s="1"/>
+      <c r="I124" s="1"/>
+    </row>
+    <row r="125" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B125" s="1"/>
+      <c r="C125" s="1"/>
+      <c r="F125" s="1"/>
+      <c r="G125" s="1"/>
+      <c r="H125" s="1"/>
+      <c r="I125" s="1"/>
+    </row>
+    <row r="126" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B126" s="1"/>
+      <c r="C126" s="1"/>
+      <c r="F126" s="1"/>
+      <c r="G126" s="1"/>
+      <c r="H126" s="1"/>
+      <c r="I126" s="1"/>
+    </row>
+    <row r="127" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B127" s="1"/>
+      <c r="C127" s="1"/>
+      <c r="F127" s="1"/>
+      <c r="G127" s="1"/>
+      <c r="H127" s="1"/>
+      <c r="I127" s="1"/>
+    </row>
+    <row r="128" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B128" s="1"/>
+      <c r="C128" s="1"/>
+      <c r="F128" s="1"/>
+      <c r="G128" s="1"/>
+      <c r="H128" s="1"/>
+      <c r="I128" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/2022/2022FSAdates.xlsx
+++ b/2022/2022FSAdates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FSA\Dropbox\Competitions\GitHub\FencingSAResults\2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57FA0B0-C93D-4F68-BC42-CB136C2B5093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{639C7AB8-41C2-4C98-B7C3-E46D6A7951D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8568" yWindow="1404" windowWidth="13404" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8808" yWindow="1344" windowWidth="13404" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="50">
   <si>
     <t>Date</t>
   </si>
@@ -191,9 +191,6 @@
   </si>
   <si>
     <t>U9</t>
-  </si>
-  <si>
-    <t>20221106U13GF</t>
   </si>
   <si>
     <t>U20</t>
@@ -669,8 +666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="K89" sqref="K89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3143,7 +3140,7 @@
         <v>20220918</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>11</v>
@@ -3423,7 +3420,7 @@
         <v>20220918</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>12</v>
@@ -3642,7 +3639,7 @@
         <v>0</v>
       </c>
       <c r="E85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>26</v>
@@ -3656,11 +3653,11 @@
       <c r="I85" s="1"/>
       <c r="K85" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221008OME</v>
+        <v>20221008OE</v>
       </c>
       <c r="L85" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221008OWE</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
@@ -3674,10 +3671,10 @@
         <v>13</v>
       </c>
       <c r="D86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>31</v>
@@ -3691,10 +3688,11 @@
       <c r="I86" s="1"/>
       <c r="K86" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221008OMS</v>
-      </c>
-      <c r="L86" t="s">
-        <v>49</v>
+        <v>N/A</v>
+      </c>
+      <c r="L86" t="str">
+        <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
+        <v/>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
@@ -3708,7 +3706,7 @@
         <v>11</v>
       </c>
       <c r="D87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -3725,11 +3723,11 @@
       <c r="I87" s="1"/>
       <c r="K87" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221008VMF</v>
+        <v>N/A</v>
       </c>
       <c r="L87" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221008VWF</v>
+        <v/>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
@@ -3781,7 +3779,7 @@
         <v>0</v>
       </c>
       <c r="E89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>32</v>
@@ -3795,11 +3793,11 @@
       <c r="I89" s="1"/>
       <c r="K89" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221008VME</v>
+        <v>20221008VE</v>
       </c>
       <c r="L89" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221008VWE</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
@@ -3813,7 +3811,7 @@
         <v>13</v>
       </c>
       <c r="D90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E90">
         <v>1</v>
@@ -3830,11 +3828,11 @@
       <c r="I90" s="1"/>
       <c r="K90" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221008VMS</v>
+        <v>N/A</v>
       </c>
       <c r="L90" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221008VWS</v>
+        <v/>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">

--- a/2022/2022FSAdates.xlsx
+++ b/2022/2022FSAdates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FSA\Dropbox\Competitions\GitHub\FencingSAResults\2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{639C7AB8-41C2-4C98-B7C3-E46D6A7951D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F117F21C-D4B3-416B-A836-EA2A0E60979F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8808" yWindow="1344" windowWidth="13404" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9420" yWindow="1128" windowWidth="13404" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -666,8 +666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="K89" sqref="K89"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="L92" sqref="L92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3849,7 +3849,7 @@
         <v>0</v>
       </c>
       <c r="E91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>26</v>
@@ -3863,11 +3863,11 @@
       <c r="I91" s="1"/>
       <c r="K91" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221023U1720MF</v>
+        <v>20221023U1720F</v>
       </c>
       <c r="L91" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221023U1720WF</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
@@ -3875,10 +3875,10 @@
         <v>20221023</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -3898,11 +3898,11 @@
       <c r="I92" s="1"/>
       <c r="K92" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221023U15MS</v>
+        <v>20221023U1720MF</v>
       </c>
       <c r="L92" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221023U15WS</v>
+        <v>20221023U1720WF</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
@@ -3910,22 +3910,22 @@
         <v>20221023</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E93">
         <v>1</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>19</v>
@@ -3933,11 +3933,11 @@
       <c r="I93" s="1"/>
       <c r="K93" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221023U13TMF</v>
+        <v>N/A</v>
       </c>
       <c r="L93" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221023U13TWF</v>
+        <v/>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>27</v>
@@ -3968,11 +3968,11 @@
       <c r="I94" s="1"/>
       <c r="K94" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221023OBME</v>
+        <v>20221023OBE</v>
       </c>
       <c r="L94" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221023OBWE</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
@@ -3986,7 +3986,7 @@
         <v>13</v>
       </c>
       <c r="D95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -4003,11 +4003,11 @@
       <c r="I95" s="1"/>
       <c r="K95" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221023U1720MS</v>
+        <v>N/A</v>
       </c>
       <c r="L95" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221023U1720WS</v>
+        <v/>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="E96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>32</v>
@@ -4038,11 +4038,11 @@
       <c r="I96" s="1"/>
       <c r="K96" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221023OBMF</v>
+        <v>20221023OBF</v>
       </c>
       <c r="L96" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221023OBWF</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
@@ -4056,7 +4056,7 @@
         <v>12</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E97">
         <v>1</v>
@@ -4073,11 +4073,11 @@
       <c r="I97" s="1"/>
       <c r="K97" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221023U1720ME</v>
+        <v>N/A</v>
       </c>
       <c r="L97" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221023U1720WE</v>
+        <v/>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
@@ -4094,7 +4094,7 @@
         <v>0</v>
       </c>
       <c r="E98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>30</v>
@@ -4108,11 +4108,11 @@
       <c r="I98" s="1"/>
       <c r="K98" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221023OBMS</v>
+        <v>20221023OBS</v>
       </c>
       <c r="L98" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221023OBWS</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">

--- a/2022/2022FSAdates.xlsx
+++ b/2022/2022FSAdates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FSA\Dropbox\Competitions\GitHub\FencingSAResults\2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F117F21C-D4B3-416B-A836-EA2A0E60979F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D1550A-6F5D-4F89-AE5A-B463798FE629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9420" yWindow="1128" windowWidth="13404" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9912" yWindow="408" windowWidth="13404" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="50">
   <si>
     <t>Date</t>
   </si>
@@ -315,12 +315,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I128" tableType="xml" totalsRowShown="0" connectionId="2">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I127">
-    <sortCondition ref="A2:A127"/>
-    <sortCondition ref="F2:F127"/>
-    <sortCondition ref="B2:B127"/>
-    <sortCondition ref="C2:C127"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I130" tableType="xml" totalsRowShown="0" connectionId="2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I129">
+    <sortCondition ref="A2:A129"/>
+    <sortCondition ref="F2:F129"/>
+    <sortCondition ref="B2:B129"/>
+    <sortCondition ref="C2:C129"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="Date" name="Date">
@@ -664,10 +664,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L128"/>
+  <dimension ref="A1:L130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="L92" sqref="L92"/>
+    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="K100" sqref="K100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4164,7 +4164,7 @@
         <v>0</v>
       </c>
       <c r="E100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>42</v>
@@ -4178,11 +4178,11 @@
       <c r="I100" s="3"/>
       <c r="K100" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221106U15ME</v>
+        <v>20221106U15E</v>
       </c>
       <c r="L100" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221106U15WE</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
@@ -4199,7 +4199,7 @@
         <v>0</v>
       </c>
       <c r="E101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>27</v>
@@ -4213,11 +4213,11 @@
       <c r="I101" s="3"/>
       <c r="K101" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221106U11BE</v>
+        <v>20221106U11E</v>
       </c>
       <c r="L101" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221106U11GE</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
@@ -4234,7 +4234,7 @@
         <v>0</v>
       </c>
       <c r="E102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>27</v>
@@ -4248,11 +4248,11 @@
       <c r="I102" s="1"/>
       <c r="K102" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221106U9BF</v>
+        <v>20221106U9F</v>
       </c>
       <c r="L102" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221106U9GF</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
@@ -4269,7 +4269,7 @@
         <v>0</v>
       </c>
       <c r="E103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>32</v>
@@ -4280,14 +4280,14 @@
       <c r="H103" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I103" s="3"/>
+      <c r="I103" s="1"/>
       <c r="K103" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221106U15MF</v>
+        <v>20221106U15F</v>
       </c>
       <c r="L103" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221106U15WF</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
@@ -4295,10 +4295,10 @@
         <v>20221106</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -4307,10 +4307,10 @@
         <v>1</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H104" s="1" t="s">
         <v>19</v>
@@ -4318,11 +4318,11 @@
       <c r="I104" s="3"/>
       <c r="K104" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221106U13BE</v>
+        <v>20221106U15MF</v>
       </c>
       <c r="L104" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221106U13GE</v>
+        <v>20221106U15WF</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
@@ -4330,16 +4330,16 @@
         <v>20221106</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D105">
         <v>0</v>
       </c>
       <c r="E105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>29</v>
@@ -4353,19 +4353,19 @@
       <c r="I105" s="3"/>
       <c r="K105" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221106U11BF</v>
+        <v>20221106U13E</v>
       </c>
       <c r="L105" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221106U11GF</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>20221113</v>
+        <v>20221106</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>12</v>
@@ -4377,33 +4377,33 @@
         <v>1</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I106" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="I106" s="3"/>
       <c r="K106" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221113OME</v>
+        <v>20221106U13BE</v>
       </c>
       <c r="L106" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221113OWE</v>
+        <v>20221106U13GE</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>20221113</v>
+        <v>20221106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -4412,22 +4412,22 @@
         <v>1</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I107" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="I107" s="3"/>
       <c r="K107" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221113OMS</v>
+        <v>20221106U11BF</v>
       </c>
       <c r="L107" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221113OWS</v>
+        <v>20221106U11GF</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
@@ -4435,10 +4435,10 @@
         <v>20221113</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D108">
         <v>0</v>
@@ -4447,10 +4447,10 @@
         <v>1</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>24</v>
@@ -4458,11 +4458,11 @@
       <c r="I108" s="1"/>
       <c r="K108" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221113VMF</v>
+        <v>20221113OME</v>
       </c>
       <c r="L108" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221113VWF</v>
+        <v>20221113OWE</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
@@ -4473,7 +4473,7 @@
         <v>18</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D109">
         <v>0</v>
@@ -4482,10 +4482,10 @@
         <v>1</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H109" s="1" t="s">
         <v>24</v>
@@ -4493,11 +4493,11 @@
       <c r="I109" s="1"/>
       <c r="K109" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221113OMF</v>
+        <v>20221113OMS</v>
       </c>
       <c r="L109" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221113OWF</v>
+        <v>20221113OWS</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.3">
@@ -4508,7 +4508,7 @@
         <v>9</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D110">
         <v>0</v>
@@ -4517,10 +4517,10 @@
         <v>1</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>24</v>
@@ -4528,11 +4528,11 @@
       <c r="I110" s="1"/>
       <c r="K110" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221113VME</v>
+        <v>20221113VMF</v>
       </c>
       <c r="L110" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221113VWE</v>
+        <v>20221113VWF</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
@@ -4540,10 +4540,10 @@
         <v>20221113</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -4552,10 +4552,10 @@
         <v>1</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H111" s="1" t="s">
         <v>24</v>
@@ -4563,46 +4563,84 @@
       <c r="I111" s="1"/>
       <c r="K111" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221113VMS</v>
+        <v>20221113OMF</v>
       </c>
       <c r="L111" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221113VWS</v>
+        <v>20221113OWF</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B112" s="1"/>
-      <c r="C112" s="1"/>
-      <c r="F112" s="1"/>
-      <c r="G112" s="1"/>
-      <c r="H112" s="1"/>
+      <c r="A112">
+        <v>20221113</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>1</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="I112" s="1"/>
       <c r="K112" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v/>
+        <v>20221113VME</v>
       </c>
       <c r="L112" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
-      </c>
-    </row>
-    <row r="113" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B113" s="1"/>
-      <c r="C113" s="1"/>
-      <c r="F113" s="1"/>
-      <c r="G113" s="1"/>
-      <c r="H113" s="1"/>
+        <v>20221113VWE</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>20221113</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="I113" s="1"/>
       <c r="K113" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v/>
+        <v>20221113VMS</v>
       </c>
       <c r="L113" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>N/A</v>
-      </c>
-    </row>
-    <row r="114" spans="2:12" x14ac:dyDescent="0.3">
+        <v>20221113VWS</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="F114" s="1"/>
@@ -4610,7 +4648,7 @@
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
     </row>
-    <row r="115" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="F115" s="1"/>
@@ -4618,7 +4656,7 @@
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
     </row>
-    <row r="116" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="F116" s="1"/>
@@ -4626,7 +4664,7 @@
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
     </row>
-    <row r="117" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="F117" s="1"/>
@@ -4634,7 +4672,7 @@
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
     </row>
-    <row r="118" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="F118" s="1"/>
@@ -4642,7 +4680,7 @@
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
     </row>
-    <row r="119" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="F119" s="1"/>
@@ -4650,7 +4688,7 @@
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
     </row>
-    <row r="120" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="F120" s="1"/>
@@ -4658,7 +4696,7 @@
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
     </row>
-    <row r="121" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="F121" s="1"/>
@@ -4666,7 +4704,7 @@
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
     </row>
-    <row r="122" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="F122" s="1"/>
@@ -4674,7 +4712,7 @@
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
     </row>
-    <row r="123" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="F123" s="1"/>
@@ -4682,7 +4720,7 @@
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
     </row>
-    <row r="124" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="F124" s="1"/>
@@ -4690,7 +4728,7 @@
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
     </row>
-    <row r="125" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="F125" s="1"/>
@@ -4698,7 +4736,7 @@
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
     </row>
-    <row r="126" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="F126" s="1"/>
@@ -4706,7 +4744,7 @@
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
     </row>
-    <row r="127" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="F127" s="1"/>
@@ -4714,13 +4752,29 @@
       <c r="H127" s="1"/>
       <c r="I127" s="1"/>
     </row>
-    <row r="128" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
+    </row>
+    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B129" s="1"/>
+      <c r="C129" s="1"/>
+      <c r="F129" s="1"/>
+      <c r="G129" s="1"/>
+      <c r="H129" s="1"/>
+      <c r="I129" s="1"/>
+    </row>
+    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B130" s="1"/>
+      <c r="C130" s="1"/>
+      <c r="F130" s="1"/>
+      <c r="G130" s="1"/>
+      <c r="H130" s="1"/>
+      <c r="I130" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/2022/2022FSAdates.xlsx
+++ b/2022/2022FSAdates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FSA\Dropbox\Competitions\GitHub\FencingSAResults\2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D1550A-6F5D-4F89-AE5A-B463798FE629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{081B4769-5AD4-4F1B-9FC4-0B702ED27904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9912" yWindow="408" windowWidth="13404" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9636" yWindow="408" windowWidth="13404" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -667,7 +667,7 @@
   <dimension ref="A1:L130"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="K100" sqref="K100"/>
+      <selection activeCell="F103" sqref="F103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4138,7 +4138,7 @@
         <v>33</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I99" s="3"/>
       <c r="K99" t="str">
@@ -4173,7 +4173,7 @@
         <v>45</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I100" s="3"/>
       <c r="K100" t="str">
@@ -4208,7 +4208,7 @@
         <v>34</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I101" s="3"/>
       <c r="K101" t="str">
@@ -4243,7 +4243,7 @@
         <v>34</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I102" s="1"/>
       <c r="K102" t="str">
@@ -4278,7 +4278,7 @@
         <v>38</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I103" s="1"/>
       <c r="K103" t="str">
@@ -4313,7 +4313,7 @@
         <v>38</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I104" s="3"/>
       <c r="K104" t="str">
@@ -4348,7 +4348,7 @@
         <v>36</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I105" s="3"/>
       <c r="K105" t="str">
@@ -4383,7 +4383,7 @@
         <v>36</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I106" s="3"/>
       <c r="K106" t="str">
@@ -4418,7 +4418,7 @@
         <v>36</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I107" s="3"/>
       <c r="K107" t="str">

--- a/2022/2022FSAdates.xlsx
+++ b/2022/2022FSAdates.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FSA\Dropbox\Competitions\GitHub\FencingSAResults\2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FSA\Dropbox\GitHub\FencingSAResults\2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{081B4769-5AD4-4F1B-9FC4-0B702ED27904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26547E9D-142B-491A-A74A-AF4EF811325D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9636" yWindow="408" windowWidth="13404" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7920" yWindow="540" windowWidth="13404" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="50">
   <si>
     <t>Date</t>
   </si>
@@ -315,12 +315,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I130" tableType="xml" totalsRowShown="0" connectionId="2">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I129">
-    <sortCondition ref="A2:A129"/>
-    <sortCondition ref="F2:F129"/>
-    <sortCondition ref="B2:B129"/>
-    <sortCondition ref="C2:C129"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I132" tableType="xml" totalsRowShown="0" connectionId="2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I131">
+    <sortCondition ref="A2:A131"/>
+    <sortCondition ref="F2:F131"/>
+    <sortCondition ref="B2:B131"/>
+    <sortCondition ref="C2:C131"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="Date" name="Date">
@@ -664,10 +664,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L130"/>
+  <dimension ref="A1:L132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="F103" sqref="F103"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="E110" sqref="E110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4444,7 +4444,7 @@
         <v>0</v>
       </c>
       <c r="E108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>26</v>
@@ -4458,11 +4458,11 @@
       <c r="I108" s="1"/>
       <c r="K108" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221113OME</v>
+        <v>20221113OE</v>
       </c>
       <c r="L108" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221113OWE</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
@@ -4473,7 +4473,7 @@
         <v>18</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D109">
         <v>0</v>
@@ -4482,10 +4482,10 @@
         <v>1</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H109" s="1" t="s">
         <v>24</v>
@@ -4493,11 +4493,11 @@
       <c r="I109" s="1"/>
       <c r="K109" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221113OMS</v>
+        <v>20221113OME</v>
       </c>
       <c r="L109" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221113OWS</v>
+        <v>20221113OWE</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.3">
@@ -4505,16 +4505,16 @@
         <v>20221113</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D110">
         <v>0</v>
       </c>
       <c r="E110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>31</v>
@@ -4528,11 +4528,11 @@
       <c r="I110" s="1"/>
       <c r="K110" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221113VMF</v>
+        <v>20221113OS</v>
       </c>
       <c r="L110" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221113VWF</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
@@ -4540,22 +4540,22 @@
         <v>20221113</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E111">
         <v>1</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H111" s="1" t="s">
         <v>24</v>
@@ -4563,11 +4563,11 @@
       <c r="I111" s="1"/>
       <c r="K111" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221113OMF</v>
+        <v>N/A</v>
       </c>
       <c r="L111" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221113OWF</v>
+        <v/>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
@@ -4575,10 +4575,10 @@
         <v>20221113</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -4598,11 +4598,11 @@
       <c r="I112" s="1"/>
       <c r="K112" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221113VME</v>
+        <v>20221113OMF</v>
       </c>
       <c r="L112" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221113VWE</v>
+        <v>20221113OWF</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
@@ -4613,19 +4613,19 @@
         <v>9</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D113">
         <v>0</v>
       </c>
       <c r="E113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H113" s="1" t="s">
         <v>24</v>
@@ -4633,28 +4633,82 @@
       <c r="I113" s="1"/>
       <c r="K113" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
-        <v>20221113VMS</v>
+        <v>20221113VE</v>
       </c>
       <c r="L113" t="str">
         <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
-        <v>20221113VWS</v>
+        <v>N/A</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B114" s="1"/>
-      <c r="C114" s="1"/>
-      <c r="F114" s="1"/>
-      <c r="G114" s="1"/>
-      <c r="H114" s="1"/>
+      <c r="A114">
+        <v>20221113</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <v>1</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="I114" s="1"/>
+      <c r="K114" t="str">
+        <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
+        <v>20221113VME</v>
+      </c>
+      <c r="L114" t="str">
+        <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
+        <v>20221113VWE</v>
+      </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B115" s="1"/>
-      <c r="C115" s="1"/>
-      <c r="F115" s="1"/>
-      <c r="G115" s="1"/>
-      <c r="H115" s="1"/>
+      <c r="A115">
+        <v>20221113</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
+      <c r="E115">
+        <v>1</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="I115" s="1"/>
+      <c r="K115" t="str">
+        <f>IF(Table1[[#This Row],[Cancelled]]=1,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"B","M"),"")&amp;Table1[[#This Row],[Weapon]])</f>
+        <v>N/A</v>
+      </c>
+      <c r="L115" t="str">
+        <f>IF(Table1[[#This Row],[Cancelled]]=1,"",IF(Table1[[#This Row],[SplitGender]]=0,"N/A",Table1[[#This Row],[Date]]&amp;Table1[[#This Row],[Category]]&amp;IF(Table1[[#This Row],[SplitGender]]=1,IF(OR(Table1[[#This Row],[Category]]="U9",Table1[[#This Row],[Category]]="U11",Table1[[#This Row],[Category]]="U13"),"G","W"),"")&amp;Table1[[#This Row],[Weapon]]))</f>
+        <v/>
+      </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
@@ -4775,6 +4829,22 @@
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
+    </row>
+    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B131" s="1"/>
+      <c r="C131" s="1"/>
+      <c r="F131" s="1"/>
+      <c r="G131" s="1"/>
+      <c r="H131" s="1"/>
+      <c r="I131" s="1"/>
+    </row>
+    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B132" s="1"/>
+      <c r="C132" s="1"/>
+      <c r="F132" s="1"/>
+      <c r="G132" s="1"/>
+      <c r="H132" s="1"/>
+      <c r="I132" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
